--- a/data/Experimental_data_Ed_Josh.xlsx
+++ b/data/Experimental_data_Ed_Josh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Documents/Montana Research/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Documents/Python Files/HCMV_Dose_Infection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABD82AF-CD7C-434D-8883-CA7E5BAA53E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBAC2F7-E52F-584E-9513-44ACF6F0299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="3680" windowWidth="28560" windowHeight="10800" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28560" windowHeight="15040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_10_05 TB_GFP_epithelial" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,29 @@
     <sheet name="2021_07_13 GFP_TB_fibroblast" sheetId="4" r:id="rId4"/>
     <sheet name="2020_08_12 TB_GFP_fibroblast" sheetId="5" r:id="rId5"/>
     <sheet name="2020_09_14 TR_GFP_epithelial" sheetId="6" r:id="rId6"/>
-    <sheet name="2022_11_02_TB_GFP_fib" sheetId="7" r:id="rId7"/>
-    <sheet name="2022_10_27_TB_size_distribution" sheetId="8" r:id="rId8"/>
+    <sheet name="2021_08_13 ME_mC_epithelial" sheetId="9" r:id="rId7"/>
+    <sheet name="2022_11_02_TB_GFP_fib" sheetId="7" r:id="rId8"/>
+    <sheet name="2022_10_27_TB_size_distribution" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="196">
   <si>
     <t>Cells</t>
   </si>
@@ -604,15 +618,29 @@
   <si>
     <t>SD_23</t>
   </si>
+  <si>
+    <t>mCherry+</t>
+  </si>
+  <si>
+    <t>Act mC</t>
+  </si>
+  <si>
+    <t>cell_count=295000</t>
+  </si>
+  <si>
+    <t>Sample #</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +655,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -664,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -672,6 +705,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12084,6 +12120,14 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -13332,2275 +13376,2133 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8369BE0-C5E0-014C-BBD9-3FC0E79B5E41}">
-  <dimension ref="A1:K73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC77BCC-D392-B64F-91BD-E2C798404F90}">
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>54292</v>
+      </c>
+      <c r="B2">
+        <v>53420</v>
+      </c>
+      <c r="C2">
+        <v>2927</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16163.702733058779</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2" s="6">
+        <v>285579879.25278747</v>
+      </c>
+      <c r="G2" s="3">
+        <v>968.06738729758467</v>
+      </c>
+      <c r="H2">
+        <v>5.479221265443654E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>16163.702733058779</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+      <c r="L2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>66647</v>
+      </c>
+      <c r="B3">
+        <v>66178</v>
+      </c>
+      <c r="C3">
+        <v>2216</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9878.2072592100103</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3" s="6">
+        <v>285579879.25278747</v>
+      </c>
+      <c r="G3" s="3">
+        <v>968.06738729758467</v>
+      </c>
+      <c r="H3">
+        <v>3.3485448336305117E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9878.2072592100103</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>221.965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4" s="6">
+        <v>285579879.25278747</v>
+      </c>
+      <c r="G4" s="3">
+        <v>968.06738729758467</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>166.49999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>19585</v>
+      </c>
+      <c r="B5">
+        <v>19500</v>
+      </c>
+      <c r="C5">
+        <v>1581</v>
+      </c>
+      <c r="D5" s="3">
+        <v>23917.692307692309</v>
+      </c>
+      <c r="E5">
+        <v>221.965</v>
+      </c>
+      <c r="F5" s="6">
+        <v>253554951.59337988</v>
+      </c>
+      <c r="G5" s="3">
+        <v>859.50831048603345</v>
+      </c>
+      <c r="H5">
+        <v>8.1076923076923074E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>23917.692307692309</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>111.05000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1188</v>
+      </c>
+      <c r="B6">
+        <v>1176</v>
+      </c>
+      <c r="C6">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3">
+        <v>17308.673469387755</v>
+      </c>
+      <c r="E6">
+        <v>221.965</v>
+      </c>
+      <c r="F6" s="6">
+        <v>253554951.59337988</v>
+      </c>
+      <c r="G6" s="3">
+        <v>859.50831048603345</v>
+      </c>
+      <c r="H6">
+        <v>5.8673469387755105E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>17308.673469387755</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K6">
+        <v>83.499999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12674</v>
+      </c>
+      <c r="B7">
+        <v>12624</v>
+      </c>
+      <c r="C7">
+        <v>989</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23111.137515842838</v>
+      </c>
+      <c r="E7">
+        <v>221.965</v>
+      </c>
+      <c r="F7" s="6">
+        <v>253554951.59337988</v>
+      </c>
+      <c r="G7" s="3">
+        <v>859.50831048603345</v>
+      </c>
+      <c r="H7">
+        <v>7.8342839036755388E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>23111.137515842838</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>50.95000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16520</v>
+      </c>
+      <c r="B8">
+        <v>16481</v>
+      </c>
+      <c r="C8">
+        <v>1476</v>
+      </c>
+      <c r="D8" s="3">
+        <v>26419.513379042532</v>
+      </c>
+      <c r="E8">
+        <v>166.49999999999997</v>
+      </c>
+      <c r="F8" s="6">
+        <v>190196199.58235642</v>
+      </c>
+      <c r="G8" s="3">
+        <v>644.73287994019131</v>
+      </c>
+      <c r="H8">
+        <v>8.9557672471330618E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>26419.513379042532</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K8">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>33684</v>
+      </c>
+      <c r="B9">
+        <v>33522</v>
+      </c>
+      <c r="C9">
+        <v>2219</v>
+      </c>
+      <c r="D9" s="3">
+        <v>19527.623650140205</v>
+      </c>
+      <c r="E9">
+        <v>166.49999999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <v>190196199.58235642</v>
+      </c>
+      <c r="G9" s="3">
+        <v>644.73287994019131</v>
+      </c>
+      <c r="H9">
+        <v>6.6195334407254933E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>19527.623650140205</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>11.000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18547</v>
+      </c>
+      <c r="B10">
+        <v>18448</v>
+      </c>
+      <c r="C10">
+        <v>1646</v>
+      </c>
+      <c r="D10" s="3">
+        <v>26321.010407632264</v>
+      </c>
+      <c r="E10">
+        <v>166.49999999999997</v>
+      </c>
+      <c r="F10" s="6">
+        <v>190196199.58235642</v>
+      </c>
+      <c r="G10" s="3">
+        <v>644.73287994019131</v>
+      </c>
+      <c r="H10">
+        <v>8.9223764093668695E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>26321.010407632264</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>24779</v>
+      </c>
+      <c r="B11">
+        <v>24683</v>
+      </c>
+      <c r="C11">
+        <v>2045</v>
+      </c>
+      <c r="D11" s="3">
+        <v>24440.910748288294</v>
+      </c>
+      <c r="E11">
+        <v>111.05000000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>126854582.36408821</v>
+      </c>
+      <c r="G11" s="3">
+        <v>430.01553343758712</v>
+      </c>
+      <c r="H11">
+        <v>8.2850544909451845E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>24440.910748288294</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>8.9000000000000021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>28179</v>
+      </c>
+      <c r="B12">
+        <v>28105</v>
+      </c>
+      <c r="C12">
+        <v>1840</v>
+      </c>
+      <c r="D12" s="3">
+        <v>19313.289450275752</v>
+      </c>
+      <c r="E12">
+        <v>111.05000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>126854582.36408821</v>
+      </c>
+      <c r="G12" s="3">
+        <v>430.01553343758712</v>
+      </c>
+      <c r="H12">
+        <v>6.5468777797544925E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>19313.289450275752</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>7.7999999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>24400</v>
+      </c>
+      <c r="B13">
+        <v>24361</v>
+      </c>
+      <c r="C13">
+        <v>1751</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21203.768318213537</v>
+      </c>
+      <c r="E13">
+        <v>111.05000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>126854582.36408821</v>
+      </c>
+      <c r="G13" s="3">
+        <v>430.01553343758712</v>
+      </c>
+      <c r="H13">
+        <v>7.1877180739706906E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>21203.768318213537</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>50016</v>
+      </c>
+      <c r="B14">
+        <v>49753</v>
+      </c>
+      <c r="C14">
+        <v>2354</v>
+      </c>
+      <c r="D14" s="3">
+        <v>13957.550298474463</v>
+      </c>
+      <c r="E14">
+        <v>83.499999999999986</v>
+      </c>
+      <c r="F14" s="6">
+        <v>95383679.670431003</v>
+      </c>
+      <c r="G14" s="3">
+        <v>323.33450735739325</v>
+      </c>
+      <c r="H14">
+        <v>4.7313729825337165E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>13957.550298474463</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>5.5499999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>34345</v>
+      </c>
+      <c r="B15">
+        <v>34218</v>
+      </c>
+      <c r="C15">
+        <v>1851</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15957.829212695073</v>
+      </c>
+      <c r="E15">
+        <v>83.499999999999986</v>
+      </c>
+      <c r="F15" s="6">
+        <v>95383679.670431003</v>
+      </c>
+      <c r="G15" s="3">
+        <v>323.33450735739325</v>
+      </c>
+      <c r="H15">
+        <v>5.4094336314220587E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15957.829212695073</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>4.4500000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>3.3499999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>29374</v>
+      </c>
+      <c r="B17">
+        <v>29087</v>
+      </c>
+      <c r="C17">
+        <v>1389</v>
+      </c>
+      <c r="D17" s="3">
+        <v>14087.221095334684</v>
+      </c>
+      <c r="E17">
+        <v>50.95000000000001</v>
+      </c>
+      <c r="F17" s="6">
+        <v>58201179.391718097</v>
+      </c>
+      <c r="G17" s="3">
+        <v>197.2921335312478</v>
+      </c>
+      <c r="H17">
+        <v>4.7753291848592151E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14087.221095334684</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>50710</v>
+      </c>
+      <c r="B18">
+        <v>50388</v>
+      </c>
+      <c r="C18">
+        <v>1773</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10380.150035722791</v>
+      </c>
+      <c r="E18">
+        <v>50.95000000000001</v>
+      </c>
+      <c r="F18" s="6">
+        <v>58201179.391718097</v>
+      </c>
+      <c r="G18" s="3">
+        <v>197.2921335312478</v>
+      </c>
+      <c r="H18">
+        <v>3.5186949273636581E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10380.150035722791</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>44098</v>
+      </c>
+      <c r="B19">
+        <v>43846</v>
+      </c>
+      <c r="C19">
+        <v>1747</v>
+      </c>
+      <c r="D19" s="3">
+        <v>11753.979838525749</v>
+      </c>
+      <c r="E19">
+        <v>50.95000000000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>58201179.391718097</v>
+      </c>
+      <c r="G19" s="3">
+        <v>197.2921335312478</v>
+      </c>
+      <c r="H19">
+        <v>3.9843999452629661E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>11753.979838525749</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>44699</v>
+      </c>
+      <c r="B20">
+        <v>44377</v>
+      </c>
+      <c r="C20">
+        <v>777</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5165.1756540550286</v>
+      </c>
+      <c r="E20">
+        <v>27.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>31413786.717806622</v>
+      </c>
+      <c r="G20" s="3">
+        <v>106.48741260273431</v>
+      </c>
+      <c r="H20">
+        <v>1.750907001374586E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5165.1756540550286</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>37697</v>
+      </c>
+      <c r="B21">
+        <v>37403</v>
+      </c>
+      <c r="C21">
+        <v>844</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6656.6852926235861</v>
+      </c>
+      <c r="E21">
+        <v>27.5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>31413786.717806622</v>
+      </c>
+      <c r="G21" s="3">
+        <v>106.48741260273431</v>
+      </c>
+      <c r="H21">
+        <v>2.2565034890249445E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6656.6852926235861</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>40448</v>
+      </c>
+      <c r="B22">
+        <v>40173</v>
+      </c>
+      <c r="C22">
+        <v>831</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6102.2328429542231</v>
+      </c>
+      <c r="E22">
+        <v>27.5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>31413786.717806622</v>
+      </c>
+      <c r="G22" s="3">
+        <v>106.48741260273431</v>
+      </c>
+      <c r="H22">
+        <v>2.0685535060861772E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6102.2328429542231</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>6.9500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>40783</v>
+      </c>
+      <c r="B23">
+        <v>40476</v>
+      </c>
+      <c r="C23">
+        <v>262</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1909.5266330665086</v>
+      </c>
+      <c r="E23">
+        <v>11.000000000000002</v>
+      </c>
+      <c r="F23" s="6">
+        <v>12565514.68712265</v>
+      </c>
+      <c r="G23" s="3">
+        <v>42.594965041093729</v>
+      </c>
+      <c r="H23">
+        <v>6.472971637513588E-3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1909.5266330665086</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>31330</v>
+      </c>
+      <c r="B24">
+        <v>31140</v>
+      </c>
+      <c r="C24">
+        <v>208</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1970.4560051380861</v>
+      </c>
+      <c r="E24">
+        <v>11.000000000000002</v>
+      </c>
+      <c r="F24" s="6">
+        <v>12565514.68712265</v>
+      </c>
+      <c r="G24" s="3">
+        <v>42.594965041093729</v>
+      </c>
+      <c r="H24">
+        <v>6.6795118818240209E-3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1970.4560051380861</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>2.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24350</v>
+      </c>
+      <c r="B25">
+        <v>24085</v>
+      </c>
+      <c r="C25">
+        <v>243</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2976.333817728877</v>
+      </c>
+      <c r="E25">
+        <v>11.000000000000002</v>
+      </c>
+      <c r="F25" s="6">
+        <v>12565514.68712265</v>
+      </c>
+      <c r="G25" s="3">
+        <v>42.594965041093729</v>
+      </c>
+      <c r="H25">
+        <v>1.0089267178741956E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2976.333817728877</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>61145</v>
+      </c>
+      <c r="B26">
+        <v>60790</v>
+      </c>
+      <c r="C26">
+        <v>243</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1179.2235565060043</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6">
+        <v>11423195.1701115</v>
+      </c>
+      <c r="G26" s="3">
+        <v>38.722695491903387</v>
+      </c>
+      <c r="H26">
+        <v>3.9973679881559468E-3</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1179.2235565060043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>50566</v>
+      </c>
+      <c r="B27">
+        <v>50262</v>
+      </c>
+      <c r="C27">
+        <v>242</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1420.3573276033585</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6">
+        <v>11423195.1701115</v>
+      </c>
+      <c r="G27" s="3">
+        <v>38.722695491903387</v>
+      </c>
+      <c r="H27">
+        <v>4.8147706020452829E-3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1420.3573276033585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>65576</v>
+      </c>
+      <c r="B28">
+        <v>64885</v>
+      </c>
+      <c r="C28">
+        <v>256</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1163.9053710410726</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6">
+        <v>11423195.1701115</v>
+      </c>
+      <c r="G28" s="3">
+        <v>38.722695491903387</v>
+      </c>
+      <c r="H28">
+        <v>3.9454419357324499E-3</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1163.9053710410726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>33959</v>
+      </c>
+      <c r="B29">
+        <v>33821</v>
+      </c>
+      <c r="C29">
+        <v>158</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1378.1378433517636</v>
+      </c>
+      <c r="E29">
+        <v>8.9000000000000021</v>
+      </c>
+      <c r="F29" s="6">
+        <v>10166643.701399235</v>
+      </c>
+      <c r="G29" s="3">
+        <v>34.463198987794016</v>
+      </c>
+      <c r="H29">
+        <v>4.6716537062771648E-3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1378.1378433517636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>24143</v>
+      </c>
+      <c r="B30">
+        <v>24075</v>
+      </c>
+      <c r="C30">
+        <v>122</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1494.9117341640706</v>
+      </c>
+      <c r="E30">
+        <v>8.9000000000000021</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10166643.701399235</v>
+      </c>
+      <c r="G30" s="3">
+        <v>34.463198987794016</v>
+      </c>
+      <c r="H30">
+        <v>5.0674974039460023E-3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1494.9117341640706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30701</v>
+      </c>
+      <c r="B31">
+        <v>30507</v>
+      </c>
+      <c r="C31">
+        <v>168</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1624.5451863506735</v>
+      </c>
+      <c r="E31">
+        <v>8.9000000000000021</v>
+      </c>
+      <c r="F31" s="6">
+        <v>10166643.701399235</v>
+      </c>
+      <c r="G31" s="3">
+        <v>34.463198987794016</v>
+      </c>
+      <c r="H31">
+        <v>5.506932835087029E-3</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1624.5451863506735</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>55339</v>
+      </c>
+      <c r="B32">
+        <v>54947</v>
+      </c>
+      <c r="C32">
+        <v>155</v>
+      </c>
+      <c r="D32" s="3">
+        <v>832.16554133983664</v>
+      </c>
+      <c r="E32">
+        <v>7.7999999999999989</v>
+      </c>
+      <c r="F32" s="6">
+        <v>8910092.2326869685</v>
+      </c>
+      <c r="G32" s="7">
+        <v>30.203702483684641</v>
+      </c>
+      <c r="H32">
+        <v>2.8209001401350393E-3</v>
+      </c>
+      <c r="I32" s="3">
+        <v>832.16554133983664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>51640</v>
+      </c>
+      <c r="B33">
+        <v>51313</v>
+      </c>
+      <c r="C33">
+        <v>158</v>
+      </c>
+      <c r="D33" s="3">
+        <v>908.3468126985365</v>
+      </c>
+      <c r="E33">
+        <v>7.7999999999999989</v>
+      </c>
+      <c r="F33" s="6">
+        <v>8910092.2326869685</v>
+      </c>
+      <c r="G33" s="7">
+        <v>30.203702483684641</v>
+      </c>
+      <c r="H33">
+        <v>3.0791417379611406E-3</v>
+      </c>
+      <c r="I33" s="3">
+        <v>908.3468126985365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D34" s="3"/>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35792</v>
+      </c>
+      <c r="B35">
+        <v>35602</v>
+      </c>
+      <c r="C35">
+        <v>112</v>
+      </c>
+      <c r="D35" s="3">
+        <v>928.03775068816356</v>
+      </c>
+      <c r="E35">
+        <v>6.65</v>
+      </c>
+      <c r="F35" s="6">
+        <v>7596424.7881241469</v>
+      </c>
+      <c r="G35" s="7">
+        <v>25.750592502115751</v>
+      </c>
+      <c r="H35">
+        <v>3.1458906802988595E-3</v>
+      </c>
+      <c r="I35" s="3">
+        <v>928.03775068816356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="3"/>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>30493</v>
+      </c>
+      <c r="B37">
+        <v>30289</v>
+      </c>
+      <c r="C37">
+        <v>135</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1314.8337680346001</v>
+      </c>
+      <c r="E37">
+        <v>6.65</v>
+      </c>
+      <c r="F37" s="6">
+        <v>7596424.7881241469</v>
+      </c>
+      <c r="G37" s="7">
+        <v>25.750592502115751</v>
+      </c>
+      <c r="H37">
+        <v>4.4570636204562713E-3</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1314.8337680346001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>32765</v>
+      </c>
+      <c r="B38">
+        <v>32579</v>
+      </c>
+      <c r="C38">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3">
+        <v>733.44792657847086</v>
+      </c>
+      <c r="E38">
+        <v>5.5499999999999989</v>
+      </c>
+      <c r="F38" s="6">
+        <v>6339873.3194118803</v>
+      </c>
+      <c r="G38" s="7">
+        <v>21.491095998006372</v>
+      </c>
+      <c r="H38">
+        <v>2.4862641578931215E-3</v>
+      </c>
+      <c r="I38" s="3">
+        <v>733.44792657847086</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39804</v>
+      </c>
+      <c r="B39">
+        <v>39570</v>
+      </c>
+      <c r="C39">
         <v>129</v>
       </c>
-      <c r="H1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="D39" s="3">
+        <v>961.7134192570129</v>
+      </c>
+      <c r="E39">
+        <v>5.5499999999999989</v>
+      </c>
+      <c r="F39" s="6">
+        <v>6339873.3194118803</v>
+      </c>
+      <c r="G39" s="7">
+        <v>21.491095998006372</v>
+      </c>
+      <c r="H39">
+        <v>3.2600454890068234E-3</v>
+      </c>
+      <c r="I39" s="3">
+        <v>961.7134192570129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>50144</v>
+      </c>
+      <c r="B40">
+        <v>49844</v>
+      </c>
+      <c r="C40">
+        <v>125</v>
+      </c>
+      <c r="D40" s="3">
+        <v>739.80820158895756</v>
+      </c>
+      <c r="E40">
+        <v>5.5499999999999989</v>
+      </c>
+      <c r="F40" s="6">
+        <v>6339873.3194118803</v>
+      </c>
+      <c r="G40" s="7">
+        <v>21.491095998006372</v>
+      </c>
+      <c r="H40">
+        <v>2.5078244121659577E-3</v>
+      </c>
+      <c r="I40" s="3">
+        <v>739.80820158895756</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>25854</v>
+      </c>
+      <c r="B41">
+        <v>25615</v>
+      </c>
+      <c r="C41">
+        <v>59</v>
+      </c>
+      <c r="D41" s="3">
+        <v>679.48467694710132</v>
+      </c>
+      <c r="E41">
+        <v>4.4500000000000011</v>
+      </c>
+      <c r="F41" s="6">
+        <v>5083321.8506996175</v>
+      </c>
+      <c r="G41" s="7">
+        <v>17.231599493897008</v>
+      </c>
+      <c r="H41">
+        <v>2.3033378879562757E-3</v>
+      </c>
+      <c r="I41" s="3">
+        <v>679.48467694710132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40750</v>
+      </c>
+      <c r="B42">
+        <v>40479</v>
+      </c>
+      <c r="C42">
+        <v>89</v>
+      </c>
+      <c r="D42" s="3">
+        <v>648.60792015613038</v>
+      </c>
+      <c r="E42">
+        <v>4.4500000000000011</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5083321.8506996175</v>
+      </c>
+      <c r="G42" s="7">
+        <v>17.231599493897008</v>
+      </c>
+      <c r="H42">
+        <v>2.1986709157834927E-3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>648.60792015613038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40323</v>
+      </c>
+      <c r="B43">
+        <v>39952</v>
+      </c>
+      <c r="C43">
+        <v>90</v>
+      </c>
+      <c r="D43" s="3">
+        <v>664.54745694833798</v>
+      </c>
+      <c r="E43">
+        <v>4.4500000000000011</v>
+      </c>
+      <c r="F43" s="6">
+        <v>5083321.8506996175</v>
+      </c>
+      <c r="G43" s="7">
+        <v>17.231599493897008</v>
+      </c>
+      <c r="H43">
+        <v>2.2527032438926712E-3</v>
+      </c>
+      <c r="I43" s="3">
+        <v>664.54745694833798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>36349</v>
+      </c>
+      <c r="B44">
+        <v>36037</v>
+      </c>
+      <c r="C44">
+        <v>61</v>
+      </c>
+      <c r="D44" s="3">
+        <v>499.34789244387713</v>
+      </c>
+      <c r="E44">
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="F44" s="6">
+        <v>3826770.3819873519</v>
+      </c>
+      <c r="G44" s="7">
+        <v>12.972102989787633</v>
+      </c>
+      <c r="H44">
+        <v>1.692704720148736E-3</v>
+      </c>
+      <c r="I44" s="3">
+        <v>499.34789244387713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>28774</v>
+      </c>
+      <c r="B45">
+        <v>28516</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3">
+        <v>455.18305512694627</v>
+      </c>
+      <c r="E45">
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3826770.3819873519</v>
+      </c>
+      <c r="G45" s="7">
+        <v>12.972102989787633</v>
+      </c>
+      <c r="H45">
+        <v>1.5429934072099874E-3</v>
+      </c>
+      <c r="I45" s="3">
+        <v>455.18305512694627</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46249</v>
+      </c>
+      <c r="B46">
+        <v>45625</v>
+      </c>
+      <c r="C46">
+        <v>79</v>
+      </c>
+      <c r="D46" s="3">
+        <v>510.79452054794518</v>
+      </c>
+      <c r="E46">
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3826770.3819873519</v>
+      </c>
+      <c r="G46" s="7">
+        <v>12.972102989787633</v>
+      </c>
+      <c r="H46">
+        <v>1.7315068493150684E-3</v>
+      </c>
+      <c r="I46" s="3">
+        <v>510.79452054794518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>39684</v>
+      </c>
+      <c r="B47">
+        <v>39048</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47" s="3">
+        <v>264.4181520180291</v>
+      </c>
+      <c r="E47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2513102.9374245298</v>
+      </c>
+      <c r="G47" s="2">
+        <v>8.5189930082187448</v>
+      </c>
+      <c r="H47">
+        <v>8.9633271870518338E-4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>264.4181520180291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>40008</v>
+      </c>
+      <c r="B48">
+        <v>39698</v>
+      </c>
+      <c r="C48">
+        <v>34</v>
+      </c>
+      <c r="D48" s="3">
+        <v>252.65756461282686</v>
+      </c>
+      <c r="E48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2513102.9374245298</v>
+      </c>
+      <c r="G48" s="2">
+        <v>8.5189930082187448</v>
+      </c>
+      <c r="H48">
+        <v>8.5646632072144697E-4</v>
+      </c>
+      <c r="I48" s="3">
+        <v>252.65756461282686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>35293</v>
+      </c>
+      <c r="B49">
+        <v>35133</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+      <c r="D49" s="3">
+        <v>302.27990777901124</v>
+      </c>
+      <c r="E49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2513102.9374245298</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8.5189930082187448</v>
+      </c>
+      <c r="H49">
+        <v>1.0246776534881736E-3</v>
+      </c>
+      <c r="I49" s="3">
+        <v>302.27990777901124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>45280</v>
+      </c>
+      <c r="B50">
+        <v>45067</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50" s="3">
+        <v>137.4620010207025</v>
+      </c>
+      <c r="E50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="2">
-        <v>89.647058823529406</v>
-      </c>
-      <c r="C2" s="3">
-        <v>15240000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>142353.96918868605</v>
-      </c>
-      <c r="E2">
-        <v>0.83737628934521202</v>
-      </c>
-      <c r="F2">
-        <v>170000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1.2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>89.647058823529406</v>
-      </c>
-      <c r="C3" s="3">
-        <v>15240000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>140755.63304129057</v>
-      </c>
-      <c r="E3">
-        <v>0.82797431200759153</v>
-      </c>
-      <c r="F3">
-        <v>170000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1.3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>89.647058823529406</v>
-      </c>
-      <c r="C4" s="3">
-        <v>15240000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>147025.05815614416</v>
-      </c>
-      <c r="E4">
-        <v>0.86485328327143629</v>
-      </c>
-      <c r="F4">
-        <v>170000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2.1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>66.228545875848624</v>
-      </c>
-      <c r="C5" s="3">
-        <v>11258852.798894266</v>
-      </c>
-      <c r="D5" s="3">
-        <v>137978.45532365105</v>
-      </c>
-      <c r="E5">
-        <v>0.81163797249206504</v>
-      </c>
-      <c r="F5">
-        <v>170000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B6" s="2">
-        <v>66.228545875848624</v>
-      </c>
-      <c r="C6" s="3">
-        <v>11258852.798894266</v>
-      </c>
-      <c r="D6" s="3">
-        <v>135262.78811061886</v>
-      </c>
-      <c r="E6">
-        <v>0.79566345947422856</v>
-      </c>
-      <c r="F6">
-        <v>170000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B7" s="2">
-        <v>66.228545875848624</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11258852.798894266</v>
-      </c>
-      <c r="D7" s="3">
-        <v>136104.48525645715</v>
-      </c>
-      <c r="E7">
-        <v>0.80061461915563026</v>
-      </c>
-      <c r="F7">
-        <v>170000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3.1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>48.891710459594613</v>
-      </c>
-      <c r="C8" s="3">
-        <v>8311590.7781310836</v>
-      </c>
-      <c r="D8" s="3">
-        <v>125484.14843941999</v>
-      </c>
-      <c r="E8">
-        <v>0.73814204964364705</v>
-      </c>
-      <c r="F8">
-        <v>170000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3.2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>48.891710459594613</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8311590.7781310836</v>
-      </c>
-      <c r="D9" s="3">
-        <v>131336.93235947919</v>
-      </c>
-      <c r="E9">
-        <v>0.77257019034987762</v>
-      </c>
-      <c r="F9">
-        <v>170000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3.3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>48.891710459594613</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8311590.7781310836</v>
-      </c>
-      <c r="D10" s="3">
-        <v>126246.01745394098</v>
-      </c>
-      <c r="E10">
-        <v>0.74262363208200577</v>
-      </c>
-      <c r="F10">
-        <v>170000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B11" s="2">
-        <v>36.066542830360213</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6131312.2811612366</v>
-      </c>
-      <c r="D11" s="3">
-        <v>120794.46750619178</v>
-      </c>
-      <c r="E11">
-        <v>0.71055569121289286</v>
-      </c>
-      <c r="F11">
-        <v>170000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>4.2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>36.066542830360213</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6131312.2811612366</v>
-      </c>
-      <c r="D12" s="3">
-        <v>121381.49834512774</v>
-      </c>
-      <c r="E12">
-        <v>0.71400881379486902</v>
-      </c>
-      <c r="F12">
-        <v>170000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>4.3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>36.066542830360213</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6131312.2811612366</v>
-      </c>
-      <c r="D13" s="3">
-        <v>124077.47196738022</v>
-      </c>
-      <c r="E13">
-        <v>0.72986748216106012</v>
-      </c>
-      <c r="F13">
-        <v>170000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B14" s="2">
-        <v>26.58590778872172</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4519604.3240826922</v>
-      </c>
-      <c r="D14" s="3">
-        <v>118886.36650271156</v>
-      </c>
-      <c r="E14">
-        <v>0.69933156766300919</v>
-      </c>
-      <c r="F14">
-        <v>170000</v>
-      </c>
-      <c r="G14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>5.2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>26.58590778872172</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4519604.3240826922</v>
-      </c>
-      <c r="D15" s="3">
-        <v>118182.81136198106</v>
-      </c>
-      <c r="E15">
-        <v>0.69519300801165329</v>
-      </c>
-      <c r="F15">
-        <v>170000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>5.3</v>
-      </c>
-      <c r="B16" s="2">
-        <v>26.58590778872172</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4519604.3240826922</v>
-      </c>
-      <c r="D16" s="3">
-        <v>117489.38579111236</v>
-      </c>
-      <c r="E16">
-        <v>0.69111403406536687</v>
-      </c>
-      <c r="F16">
-        <v>170000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>6.1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>19.582790615107214</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3329074.4045682265</v>
-      </c>
-      <c r="D17" s="3">
-        <v>107363.40954223738</v>
-      </c>
-      <c r="E17">
-        <v>0.63154946789551403</v>
-      </c>
-      <c r="F17">
-        <v>170000</v>
-      </c>
-      <c r="G17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>6.2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>19.582790615107214</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3329074.4045682265</v>
-      </c>
-      <c r="D18" s="3">
-        <v>110878.96277708071</v>
-      </c>
-      <c r="E18">
-        <v>0.65222919280635716</v>
-      </c>
-      <c r="F18">
-        <v>170000</v>
-      </c>
-      <c r="G18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>6.3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>19.582790615107214</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3329074.4045682265</v>
-      </c>
-      <c r="D19" s="3">
-        <v>107663.3571526728</v>
-      </c>
-      <c r="E19">
-        <v>0.63331386560395764</v>
-      </c>
-      <c r="F19">
-        <v>170000</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>7.1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>14.413590299108243</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2450310.3508484014</v>
-      </c>
-      <c r="D20" s="3">
-        <v>101290.83570278171</v>
-      </c>
-      <c r="E20">
-        <v>0.59582844531048063</v>
-      </c>
-      <c r="F20">
-        <v>170000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" t="s">
-        <v>135</v>
-      </c>
-      <c r="J20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>7.2</v>
-      </c>
-      <c r="B21" s="2">
-        <v>14.413590299108243</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2450310.3508484014</v>
-      </c>
-      <c r="D21" s="3">
-        <v>97117.750131417561</v>
-      </c>
-      <c r="E21">
-        <v>0.57128088312598568</v>
-      </c>
-      <c r="F21">
-        <v>170000</v>
-      </c>
-      <c r="G21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>7.3</v>
-      </c>
-      <c r="B22" s="2">
-        <v>14.413590299108243</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2450310.3508484014</v>
-      </c>
-      <c r="D22" s="3">
-        <v>102576.00229711783</v>
-      </c>
-      <c r="E22">
-        <v>0.60338824880657549</v>
-      </c>
-      <c r="F22">
-        <v>170000</v>
-      </c>
-      <c r="G22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8.1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10.600898113619849</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1802152.6793153742</v>
-      </c>
-      <c r="D23" s="3">
-        <v>94888.69623580738</v>
-      </c>
-      <c r="E23">
-        <v>0.55816880138710223</v>
-      </c>
-      <c r="F23">
-        <v>170000</v>
-      </c>
-      <c r="G23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B24" s="2">
-        <v>10.600898113619849</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1802152.6793153742</v>
-      </c>
-      <c r="D24" s="3">
-        <v>93292.267890416872</v>
-      </c>
-      <c r="E24">
-        <v>0.5487780464142169</v>
-      </c>
-      <c r="F24">
-        <v>170000</v>
-      </c>
-      <c r="G24" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B25" s="2">
-        <v>10.600898113619849</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1802152.6793153742</v>
-      </c>
-      <c r="D25" s="3">
-        <v>92015.355086372365</v>
-      </c>
-      <c r="E25">
-        <v>0.5412667946257198</v>
-      </c>
-      <c r="F25">
-        <v>170000</v>
-      </c>
-      <c r="G25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>9.1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>7.7908423724218805</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1324443.2033117197</v>
-      </c>
-      <c r="D26" s="3">
-        <v>76192.901855733056</v>
-      </c>
-      <c r="E26">
-        <v>0.44819354032784153</v>
-      </c>
-      <c r="F26">
-        <v>170000</v>
-      </c>
-      <c r="G26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B27" s="2">
-        <v>7.7908423724218805</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1324443.2033117197</v>
-      </c>
-      <c r="D27" s="3">
-        <v>87245.318249217409</v>
-      </c>
-      <c r="E27">
-        <v>0.51320775440716127</v>
-      </c>
-      <c r="F27">
-        <v>170000</v>
-      </c>
-      <c r="G27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" t="s">
-        <v>135</v>
-      </c>
-      <c r="J27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B28" s="2">
-        <v>7.7908423724218805</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1324443.2033117197</v>
-      </c>
-      <c r="D28" s="3">
-        <v>80005.523542232695</v>
-      </c>
-      <c r="E28">
-        <v>0.47062072671901584</v>
-      </c>
-      <c r="F28">
-        <v>170000</v>
-      </c>
-      <c r="G28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>10.1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>5.7213143212795963</v>
-      </c>
-      <c r="C29" s="3">
-        <v>972623.43461753137</v>
-      </c>
-      <c r="D29" s="3">
-        <v>70982.755038437565</v>
-      </c>
-      <c r="E29">
-        <v>0.41754561787316213</v>
-      </c>
-      <c r="F29">
-        <v>170000</v>
-      </c>
-      <c r="G29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B30" s="2">
-        <v>5.7213143212795963</v>
-      </c>
-      <c r="C30" s="3">
-        <v>972623.43461753137</v>
-      </c>
-      <c r="D30" s="3">
-        <v>70541.353021812844</v>
-      </c>
-      <c r="E30">
-        <v>0.41494913542242851</v>
-      </c>
-      <c r="F30">
-        <v>170000</v>
-      </c>
-      <c r="G30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10.3</v>
-      </c>
-      <c r="B31" s="2">
-        <v>5.7213143212795963</v>
-      </c>
-      <c r="C31" s="3">
-        <v>972623.43461753137</v>
-      </c>
-      <c r="D31" s="3">
-        <v>66669.461914744927</v>
-      </c>
-      <c r="E31">
-        <v>0.39217330538085249</v>
-      </c>
-      <c r="F31">
-        <v>170000</v>
-      </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>11.1</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4.1983165653333376</v>
-      </c>
-      <c r="C32" s="3">
-        <v>713713.81610666739</v>
-      </c>
-      <c r="D32" s="3">
-        <v>57013.860765281461</v>
-      </c>
-      <c r="E32">
-        <v>0.33537565156047916</v>
-      </c>
-      <c r="F32">
-        <v>170000</v>
-      </c>
-      <c r="G32" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>11.2</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4.1983165653333376</v>
-      </c>
-      <c r="C33" s="3">
-        <v>713713.81610666739</v>
-      </c>
-      <c r="D33" s="3">
-        <v>60099.240667819773</v>
-      </c>
-      <c r="E33">
-        <v>0.35352494510482219</v>
-      </c>
-      <c r="F33">
-        <v>170000</v>
-      </c>
-      <c r="G33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>11.3</v>
-      </c>
-      <c r="B34" s="2">
-        <v>4.1983165653333376</v>
-      </c>
-      <c r="C34" s="3">
-        <v>713713.81610666739</v>
-      </c>
-      <c r="D34" s="3">
-        <v>62732.605029694256</v>
-      </c>
-      <c r="E34">
-        <v>0.36901532370408385</v>
-      </c>
-      <c r="F34">
-        <v>170000</v>
-      </c>
-      <c r="G34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" t="s">
-        <v>135</v>
-      </c>
-      <c r="J34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>12.1</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3.0783704385189399</v>
-      </c>
-      <c r="C35" s="3">
-        <v>523322.97454821976</v>
-      </c>
-      <c r="D35" s="3">
-        <v>50186.653878785641</v>
-      </c>
-      <c r="E35">
-        <v>0.29521561105168026</v>
-      </c>
-      <c r="F35">
-        <v>170000</v>
-      </c>
-      <c r="G35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" t="s">
-        <v>135</v>
-      </c>
-      <c r="J35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>12.2</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3.0783704385189399</v>
-      </c>
-      <c r="C36" s="3">
-        <v>523322.97454821976</v>
-      </c>
-      <c r="D36" s="3">
-        <v>50702.533298511364</v>
-      </c>
-      <c r="E36">
-        <v>0.29825019587359625</v>
-      </c>
-      <c r="F36">
-        <v>170000</v>
-      </c>
-      <c r="G36" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" t="s">
-        <v>135</v>
-      </c>
-      <c r="J36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>12.3</v>
-      </c>
-      <c r="B37" s="2">
-        <v>3.0783704385189399</v>
-      </c>
-      <c r="C37" s="3">
-        <v>523322.97454821976</v>
-      </c>
-      <c r="D37" s="3">
-        <v>46164.490893091766</v>
-      </c>
-      <c r="E37">
-        <v>0.27155582878289275</v>
-      </c>
-      <c r="F37">
-        <v>170000</v>
-      </c>
-      <c r="G37" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" t="s">
-        <v>135</v>
-      </c>
-      <c r="J37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>13.1</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2.2554397272316984</v>
-      </c>
-      <c r="C38" s="3">
-        <v>383424.75362938875</v>
-      </c>
-      <c r="D38" s="3">
-        <v>36691.97993635726</v>
-      </c>
-      <c r="E38">
-        <v>0.21583517609621919</v>
-      </c>
-      <c r="F38">
-        <v>170000</v>
-      </c>
-      <c r="G38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>13.2</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2.2554397272316984</v>
-      </c>
-      <c r="C39" s="3">
-        <v>383424.75362938875</v>
-      </c>
-      <c r="D39" s="3">
-        <v>39347.514807020591</v>
-      </c>
-      <c r="E39">
-        <v>0.23145596945306229</v>
-      </c>
-      <c r="F39">
-        <v>170000</v>
-      </c>
-      <c r="G39" t="s">
-        <v>133</v>
-      </c>
-      <c r="H39" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" t="s">
-        <v>135</v>
-      </c>
-      <c r="J39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>13.3</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2.2554397272316984</v>
-      </c>
-      <c r="C40" s="3">
-        <v>383424.75362938875</v>
-      </c>
-      <c r="D40" s="3">
-        <v>41244.151424925563</v>
-      </c>
-      <c r="E40">
-        <v>0.24261265544073859</v>
-      </c>
-      <c r="F40">
-        <v>170000</v>
-      </c>
-      <c r="G40" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>14.1</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1.6512184537422709</v>
-      </c>
-      <c r="C41" s="3">
-        <v>280707.13713618607</v>
-      </c>
-      <c r="D41" s="3">
-        <v>28855.188250490362</v>
-      </c>
-      <c r="E41">
-        <v>0.16973640147347271</v>
-      </c>
-      <c r="F41">
-        <v>170000</v>
-      </c>
-      <c r="G41" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" t="s">
-        <v>135</v>
-      </c>
-      <c r="J41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>14.2</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1.6512184537422709</v>
-      </c>
-      <c r="C42" s="3">
-        <v>280707.13713618607</v>
-      </c>
-      <c r="D42" s="3">
-        <v>24856.490360631022</v>
-      </c>
-      <c r="E42">
-        <v>0.14621464918018248</v>
-      </c>
-      <c r="F42">
-        <v>170000</v>
-      </c>
-      <c r="G42" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" t="s">
-        <v>135</v>
-      </c>
-      <c r="J42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>14.3</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1.6512184537422709</v>
-      </c>
-      <c r="C43" s="3">
-        <v>280707.13713618607</v>
-      </c>
-      <c r="D43" s="3">
-        <v>25311.924958484808</v>
-      </c>
-      <c r="E43">
-        <v>0.14889367622638122</v>
-      </c>
-      <c r="F43">
-        <v>170000</v>
-      </c>
-      <c r="G43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>15.1</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1.2079225904506672</v>
-      </c>
-      <c r="C44" s="3">
-        <v>205346.84037661343</v>
-      </c>
-      <c r="D44" s="3">
-        <v>17082.371494526091</v>
-      </c>
-      <c r="E44">
-        <v>0.10048453820309465</v>
-      </c>
-      <c r="F44">
-        <v>170000</v>
-      </c>
-      <c r="G44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>15.2</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1.2079225904506672</v>
-      </c>
-      <c r="C45" s="3">
-        <v>205346.84037661343</v>
-      </c>
-      <c r="D45" s="3">
-        <v>18085.657067235057</v>
-      </c>
-      <c r="E45">
-        <v>0.10638621804255916</v>
-      </c>
-      <c r="F45">
-        <v>170000</v>
-      </c>
-      <c r="G45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" t="s">
-        <v>134</v>
-      </c>
-      <c r="I45" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>15.3</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1.2079225904506672</v>
-      </c>
-      <c r="C46" s="3">
-        <v>205346.84037661343</v>
-      </c>
-      <c r="D46" s="3">
-        <v>17392.140952822534</v>
-      </c>
-      <c r="E46">
-        <v>0.10230671148719138</v>
-      </c>
-      <c r="F46">
-        <v>170000</v>
-      </c>
-      <c r="G46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" t="s">
-        <v>134</v>
-      </c>
-      <c r="I46" t="s">
-        <v>135</v>
-      </c>
-      <c r="J46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.88294412839347702</v>
-      </c>
-      <c r="C47" s="3">
-        <v>150100.50182689109</v>
-      </c>
-      <c r="D47" s="3">
-        <v>14788.304897857557</v>
-      </c>
-      <c r="E47">
-        <v>8.6990028810926809E-2</v>
-      </c>
-      <c r="F47">
-        <v>170000</v>
-      </c>
-      <c r="G47" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" t="s">
-        <v>134</v>
-      </c>
-      <c r="I47" t="s">
-        <v>135</v>
-      </c>
-      <c r="J47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>16.2</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0.88294412839347702</v>
-      </c>
-      <c r="C48" s="3">
-        <v>150100.50182689109</v>
-      </c>
-      <c r="D48" s="3">
-        <v>12710.804964135261</v>
-      </c>
-      <c r="E48">
-        <v>7.4769440965501532E-2</v>
-      </c>
-      <c r="F48">
-        <v>170000</v>
-      </c>
-      <c r="G48" t="s">
-        <v>133</v>
-      </c>
-      <c r="H48" t="s">
-        <v>134</v>
-      </c>
-      <c r="I48" t="s">
-        <v>135</v>
-      </c>
-      <c r="J48" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>16.3</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.88294412839347702</v>
-      </c>
-      <c r="C49" s="3">
-        <v>150100.50182689109</v>
-      </c>
-      <c r="D49" s="3">
-        <v>12347.404894073639</v>
-      </c>
-      <c r="E49">
-        <v>7.2631793494550817E-2</v>
-      </c>
-      <c r="F49">
-        <v>170000</v>
-      </c>
-      <c r="G49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49" t="s">
-        <v>134</v>
-      </c>
-      <c r="I49" t="s">
-        <v>135</v>
-      </c>
-      <c r="J49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0.64488929206485057</v>
-      </c>
-      <c r="C50" s="3">
-        <v>109631.17965102459</v>
-      </c>
-      <c r="D50" s="3">
-        <v>10752.564942152369</v>
-      </c>
-      <c r="E50">
-        <v>6.3250382012660991E-2</v>
-      </c>
-      <c r="F50">
-        <v>170000</v>
-      </c>
-      <c r="G50" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" t="s">
-        <v>135</v>
-      </c>
-      <c r="J50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F50" s="6">
+        <v>1256551.4687122649</v>
+      </c>
+      <c r="G50" s="2">
+        <v>4.2594965041093724</v>
+      </c>
+      <c r="H50">
+        <v>4.6597288481594067E-4</v>
+      </c>
+      <c r="I50" s="3">
+        <v>137.4620010207025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>17.2</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.64488929206485057</v>
-      </c>
-      <c r="C51" s="3">
-        <v>109631.17965102459</v>
+        <v>30788</v>
+      </c>
+      <c r="B51">
+        <v>30672</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
       </c>
       <c r="D51" s="3">
-        <v>10469.439478626869</v>
+        <v>144.26838810641627</v>
       </c>
       <c r="E51">
-        <v>6.1584938109569817E-2</v>
-      </c>
-      <c r="F51">
-        <v>170000</v>
-      </c>
-      <c r="G51" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" t="s">
-        <v>135</v>
-      </c>
-      <c r="J51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1256551.4687122649</v>
+      </c>
+      <c r="G51" s="2">
+        <v>4.2594965041093724</v>
+      </c>
+      <c r="H51">
+        <v>4.8904538341158061E-4</v>
+      </c>
+      <c r="I51" s="3">
+        <v>144.26838810641627</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17.3</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.64488929206485057</v>
-      </c>
-      <c r="C52" s="3">
-        <v>109631.17965102459</v>
+        <v>54834</v>
+      </c>
+      <c r="B52">
+        <v>54538</v>
+      </c>
+      <c r="C52">
+        <v>29</v>
       </c>
       <c r="D52" s="3">
-        <v>10163.263455062868</v>
+        <v>156.86310462429864</v>
       </c>
       <c r="E52">
-        <v>5.9783902676840403E-2</v>
-      </c>
-      <c r="F52">
-        <v>170000</v>
-      </c>
-      <c r="G52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H52" t="s">
-        <v>134</v>
-      </c>
-      <c r="I52" t="s">
-        <v>135</v>
-      </c>
-      <c r="J52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1256551.4687122649</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4.2594965041093724</v>
+      </c>
+      <c r="H52">
+        <v>5.3173933770948693E-4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>156.86310462429864</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0.47064472280072367</v>
-      </c>
-      <c r="C53" s="3">
-        <v>80009.602876123026</v>
+        <v>43376</v>
+      </c>
+      <c r="B53">
+        <v>43196</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
       </c>
       <c r="D53" s="3">
-        <v>5820.7872726209271</v>
+        <v>88.781368645244939</v>
       </c>
       <c r="E53">
-        <v>3.4239925133064279E-2</v>
-      </c>
-      <c r="F53">
-        <v>170000</v>
-      </c>
-      <c r="G53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" t="s">
-        <v>135</v>
-      </c>
-      <c r="J53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F53" s="6">
+        <v>633987.3319411882</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2.1491095998006378</v>
+      </c>
+      <c r="H53">
+        <v>3.0095379201777945E-4</v>
+      </c>
+      <c r="I53" s="3">
+        <v>88.781368645244939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>18.2</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0.47064472280072367</v>
-      </c>
-      <c r="C54" s="3">
-        <v>80009.602876123026</v>
+        <v>45728</v>
+      </c>
+      <c r="B54">
+        <v>45549</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
       </c>
       <c r="D54" s="3">
-        <v>7018.7848875517484</v>
+        <v>51.812333970010322</v>
       </c>
       <c r="E54">
-        <v>4.128696992677499E-2</v>
-      </c>
-      <c r="F54">
-        <v>170000</v>
-      </c>
-      <c r="G54" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" t="s">
-        <v>134</v>
-      </c>
-      <c r="I54" t="s">
-        <v>135</v>
-      </c>
-      <c r="J54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>18.3</v>
-      </c>
-      <c r="B55" s="2">
-        <v>0.47064472280072367</v>
-      </c>
-      <c r="C55" s="3">
-        <v>80009.602876123026</v>
-      </c>
-      <c r="D55" s="3">
-        <v>5589.6229549592654</v>
-      </c>
-      <c r="E55">
-        <v>3.2880135029172149E-2</v>
-      </c>
-      <c r="F55">
-        <v>170000</v>
-      </c>
-      <c r="G55" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" t="s">
-        <v>134</v>
-      </c>
-      <c r="I55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F54" s="6">
+        <v>633987.3319411882</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2.1491095998006378</v>
+      </c>
+      <c r="H54">
+        <v>1.7563503040681465E-4</v>
+      </c>
+      <c r="I54" s="3">
+        <v>51.812333970010322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D55" s="3"/>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0.34320653854665945</v>
-      </c>
-      <c r="C56" s="3">
-        <v>58345.111552932103</v>
+        <v>61528</v>
+      </c>
+      <c r="B56">
+        <v>61243</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
       </c>
       <c r="D56" s="3">
-        <v>4061.3390460178434</v>
+        <v>28.901262185066049</v>
       </c>
       <c r="E56">
-        <v>2.3890229682457902E-2</v>
-      </c>
-      <c r="F56">
-        <v>170000</v>
-      </c>
-      <c r="G56" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" t="s">
-        <v>134</v>
-      </c>
-      <c r="I56" t="s">
-        <v>135</v>
-      </c>
-      <c r="J56" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F56" s="6">
+        <v>314137.86717806623</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1.0648741260273431</v>
+      </c>
+      <c r="H56">
+        <v>9.797038028835949E-5</v>
+      </c>
+      <c r="I56" s="3">
+        <v>28.901262185066049</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>19.2</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0.34320653854665945</v>
-      </c>
-      <c r="C57" s="3">
-        <v>58345.111552932103</v>
+        <v>31825</v>
+      </c>
+      <c r="B57">
+        <v>31735</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
       </c>
       <c r="D57" s="3">
-        <v>3338.4541804953697</v>
+        <v>55.774381597605171</v>
       </c>
       <c r="E57">
-        <v>1.9637965767619822E-2</v>
-      </c>
-      <c r="F57">
-        <v>170000</v>
-      </c>
-      <c r="G57" t="s">
-        <v>133</v>
-      </c>
-      <c r="H57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I57" t="s">
-        <v>135</v>
-      </c>
-      <c r="J57" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F57" s="6">
+        <v>314137.86717806623</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1.0648741260273431</v>
+      </c>
+      <c r="H57">
+        <v>1.8906570033086498E-4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>55.774381597605171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>19.3</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0.34320653854665945</v>
-      </c>
-      <c r="C58" s="3">
-        <v>58345.111552932103</v>
+        <v>57058</v>
+      </c>
+      <c r="B58">
+        <v>56688</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
       </c>
       <c r="D58" s="3">
-        <v>4300.0131483794621</v>
+        <v>10.407846457804121</v>
       </c>
       <c r="E58">
-        <v>2.5294194990467426E-2</v>
-      </c>
-      <c r="F58">
-        <v>170000</v>
-      </c>
-      <c r="G58" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" t="s">
-        <v>135</v>
-      </c>
-      <c r="J58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F58" s="6">
+        <v>314137.86717806623</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1.0648741260273431</v>
+      </c>
+      <c r="H58">
+        <v>3.5280835450183461E-5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10.407846457804121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.25007511602646043</v>
-      </c>
-      <c r="C59" s="3">
-        <v>42512.76972449827</v>
+        <v>51775</v>
+      </c>
+      <c r="B59">
+        <v>51567</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
       </c>
       <c r="D59" s="3">
-        <v>2721.3390716066633</v>
+        <v>22.882851435995889</v>
       </c>
       <c r="E59">
-        <v>1.6007876891803902E-2</v>
-      </c>
-      <c r="F59">
-        <v>170000</v>
-      </c>
-      <c r="G59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59" t="s">
-        <v>134</v>
-      </c>
-      <c r="I59" t="s">
-        <v>135</v>
-      </c>
-      <c r="J59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F59" s="6">
+        <v>159924.73238156101</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.54211773688664755</v>
+      </c>
+      <c r="H59">
+        <v>7.7568987918630135E-5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>22.882851435995889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>20.2</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0.25007511602646043</v>
-      </c>
-      <c r="C60" s="3">
-        <v>42512.76972449827</v>
+        <v>52791</v>
+      </c>
+      <c r="B60">
+        <v>52484</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
       </c>
       <c r="D60" s="3">
-        <v>2436.6184666556642</v>
+        <v>39.345324289307221</v>
       </c>
       <c r="E60">
-        <v>1.4333049803856848E-2</v>
-      </c>
-      <c r="F60">
-        <v>170000</v>
-      </c>
-      <c r="G60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" t="s">
-        <v>134</v>
-      </c>
-      <c r="I60" t="s">
-        <v>135</v>
-      </c>
-      <c r="J60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>20.3</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0.25007511602646043</v>
-      </c>
-      <c r="C61" s="3">
-        <v>42512.76972449827</v>
-      </c>
-      <c r="D61" s="3">
-        <v>2804.8553822398239</v>
-      </c>
-      <c r="E61">
-        <v>1.6499149307293081E-2</v>
-      </c>
-      <c r="F61">
-        <v>170000</v>
-      </c>
-      <c r="G61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" t="s">
-        <v>134</v>
-      </c>
-      <c r="I61" t="s">
-        <v>135</v>
-      </c>
-      <c r="J61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F60" s="6">
+        <v>159924.73238156101</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.54211773688664755</v>
+      </c>
+      <c r="H60">
+        <v>1.3337398064171938E-4</v>
+      </c>
+      <c r="I60" s="3">
+        <v>39.345324289307221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D61" s="3"/>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>21.1</v>
-      </c>
-      <c r="B62" s="2">
-        <v>0.18206907727969637</v>
-      </c>
-      <c r="C62" s="3">
-        <v>30951.743137548383</v>
+        <v>45261</v>
+      </c>
+      <c r="B62">
+        <v>45052</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
       </c>
       <c r="D62" s="3">
-        <v>1698.3834663392674</v>
+        <v>13.095977980999734</v>
       </c>
       <c r="E62">
-        <v>9.9904909784662797E-3</v>
-      </c>
-      <c r="F62">
-        <v>170000</v>
-      </c>
-      <c r="G62" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" t="s">
-        <v>135</v>
-      </c>
-      <c r="J62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="F62" s="6">
+        <v>79391.206432274921</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.26912273366872852</v>
+      </c>
+      <c r="H62">
+        <v>4.4393145698304184E-5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>13.095977980999734</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>21.2</v>
-      </c>
-      <c r="B63" s="2">
-        <v>0.18206907727969637</v>
-      </c>
-      <c r="C63" s="3">
-        <v>30951.743137548383</v>
+        <v>49636</v>
+      </c>
+      <c r="B63">
+        <v>49379</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63" s="3">
-        <v>1637.4087307752059</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>9.6318160633835637E-3</v>
-      </c>
-      <c r="F63">
-        <v>170000</v>
-      </c>
-      <c r="G63" t="s">
-        <v>133</v>
-      </c>
-      <c r="H63" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" t="s">
-        <v>135</v>
-      </c>
-      <c r="J63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="F63" s="6">
+        <v>79391.206432274921</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.26912273366872852</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>21.3</v>
-      </c>
-      <c r="B64" s="2">
-        <v>0.18206907727969637</v>
-      </c>
-      <c r="C64" s="3">
-        <v>30951.743137548383</v>
+        <v>38149</v>
+      </c>
+      <c r="B64">
+        <v>38012</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
       </c>
       <c r="D64" s="3">
-        <v>1699.1173416407062</v>
+        <v>15.521414290224138</v>
       </c>
       <c r="E64">
-        <v>9.9948078920041542E-3</v>
-      </c>
-      <c r="F64">
-        <v>170000</v>
-      </c>
-      <c r="G64" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" t="s">
-        <v>134</v>
-      </c>
-      <c r="I64" t="s">
-        <v>135</v>
-      </c>
-      <c r="J64" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="F64" s="6">
+        <v>79391.206432274921</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.26912273366872852</v>
+      </c>
+      <c r="H64">
+        <v>5.2614963695675047E-5</v>
+      </c>
+      <c r="I64" s="3">
+        <v>15.521414290224138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>22.1</v>
-      </c>
-      <c r="B65" s="2">
-        <v>0.13244967481990888</v>
-      </c>
-      <c r="C65" s="3">
-        <v>22516.444719384512</v>
+        <v>33760</v>
+      </c>
+      <c r="B65">
+        <v>33650</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
       </c>
       <c r="D65" s="3">
-        <v>934.06593406593413</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>5.4945054945054949E-3</v>
-      </c>
-      <c r="F65">
-        <v>170000</v>
-      </c>
-      <c r="G65" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" t="s">
-        <v>134</v>
-      </c>
-      <c r="I65" t="s">
-        <v>135</v>
-      </c>
-      <c r="J65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F65" s="6">
+        <v>39981.183095390254</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.13552943422166189</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>22.2</v>
-      </c>
-      <c r="B66" s="2">
-        <v>0.13244967481990888</v>
-      </c>
-      <c r="C66" s="3">
-        <v>22516.444719384512</v>
+        <v>39485</v>
+      </c>
+      <c r="B66">
+        <v>39342</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
       </c>
       <c r="D66" s="3">
-        <v>1000.0454841790864</v>
+        <v>7.4983478216664121</v>
       </c>
       <c r="E66">
-        <v>5.8826204951710967E-3</v>
-      </c>
-      <c r="F66">
-        <v>170000</v>
-      </c>
-      <c r="G66" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" t="s">
-        <v>134</v>
-      </c>
-      <c r="I66" t="s">
-        <v>135</v>
-      </c>
-      <c r="J66" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F66" s="6">
+        <v>39981.183095390254</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.13552943422166189</v>
+      </c>
+      <c r="H66">
+        <v>2.5418128209038685E-5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>7.4983478216664121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>22.3</v>
-      </c>
-      <c r="B67" s="2">
-        <v>0.13244967481990888</v>
-      </c>
-      <c r="C67" s="3">
-        <v>22516.444719384512</v>
+        <v>42721</v>
+      </c>
+      <c r="B67">
+        <v>42486</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
       </c>
       <c r="D67" s="3">
-        <v>1014.9933743281272</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>5.9705492607536889E-3</v>
-      </c>
-      <c r="F67">
-        <v>170000</v>
-      </c>
-      <c r="G67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" t="s">
-        <v>135</v>
-      </c>
-      <c r="J67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F67" s="6">
+        <v>39981.183095390254</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.13552943422166189</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>23.1</v>
-      </c>
-      <c r="B68" s="2">
-        <v>9.6274835887881757E-2</v>
-      </c>
-      <c r="C68" s="3">
-        <v>16366.722100939898</v>
+        <v>41734</v>
+      </c>
+      <c r="B68">
+        <v>41571</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
       </c>
       <c r="D68" s="3">
-        <v>390.35896154206631</v>
+        <v>21.288879266796567</v>
       </c>
       <c r="E68">
-        <v>2.2962291855415664E-3</v>
-      </c>
-      <c r="F68">
-        <v>170000</v>
-      </c>
-      <c r="G68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H68" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" t="s">
-        <v>135</v>
-      </c>
-      <c r="J68" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="F68" s="6">
+        <v>31413.786717806626</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.10648741260273432</v>
+      </c>
+      <c r="H68">
+        <v>7.216569242981887E-5</v>
+      </c>
+      <c r="I68" s="3">
+        <v>21.288879266796567</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>23.2</v>
-      </c>
-      <c r="B69" s="2">
-        <v>9.6274835887881757E-2</v>
-      </c>
-      <c r="C69" s="3">
-        <v>16366.722100939898</v>
+        <v>48904</v>
+      </c>
+      <c r="B69">
+        <v>48664</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
       </c>
       <c r="D69" s="3">
-        <v>497.55091518432585</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2.9267700893195639E-3</v>
-      </c>
-      <c r="F69">
-        <v>170000</v>
-      </c>
-      <c r="G69" t="s">
-        <v>133</v>
-      </c>
-      <c r="H69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I69" t="s">
-        <v>135</v>
-      </c>
-      <c r="J69" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="F69" s="6">
+        <v>31413.786717806626</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.10648741260273432</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>23.3</v>
-      </c>
-      <c r="B70" s="2">
-        <v>9.6274835887881757E-2</v>
-      </c>
-      <c r="C70" s="3">
-        <v>16366.722100939898</v>
+        <v>24124</v>
+      </c>
+      <c r="B70">
+        <v>24048</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>768.09453471196457</v>
+        <v>24.534264803725883</v>
       </c>
       <c r="E70">
-        <v>4.5182031453644975E-3</v>
-      </c>
-      <c r="F70">
-        <v>170000</v>
-      </c>
-      <c r="G70" t="s">
-        <v>133</v>
-      </c>
-      <c r="H70" t="s">
-        <v>134</v>
-      </c>
-      <c r="I70" t="s">
-        <v>135</v>
-      </c>
-      <c r="J70" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="F70" s="6">
+        <v>31413.786717806626</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.10648741260273432</v>
+      </c>
+      <c r="H70">
+        <v>8.3166999334664007E-5</v>
+      </c>
+      <c r="I70" s="3">
+        <v>24.534264803725883</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>24.1</v>
-      </c>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3">
+        <v>54739</v>
+      </c>
+      <c r="B71">
+        <v>54469</v>
+      </c>
+      <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" s="3">
@@ -15609,30 +15511,27 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
-        <v>170000</v>
-      </c>
-      <c r="G71" t="s">
-        <v>133</v>
-      </c>
-      <c r="H71" t="s">
-        <v>134</v>
-      </c>
-      <c r="I71" t="s">
-        <v>135</v>
-      </c>
-      <c r="J71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>24.2</v>
-      </c>
-      <c r="B72" s="2">
-        <v>0</v>
-      </c>
-      <c r="C72" s="3">
+        <v>29195</v>
+      </c>
+      <c r="B72">
+        <v>29120</v>
+      </c>
+      <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" s="3">
@@ -15641,30 +15540,27 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72">
-        <v>170000</v>
-      </c>
-      <c r="G72" t="s">
-        <v>133</v>
-      </c>
-      <c r="H72" t="s">
-        <v>134</v>
-      </c>
-      <c r="I72" t="s">
-        <v>135</v>
-      </c>
-      <c r="J72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>24.3</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0</v>
-      </c>
-      <c r="C73" s="3">
+        <v>50033</v>
+      </c>
+      <c r="B73">
+        <v>49791</v>
+      </c>
+      <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" s="3">
@@ -15673,20 +15569,17 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73">
-        <v>170000</v>
-      </c>
-      <c r="G73" t="s">
-        <v>133</v>
-      </c>
-      <c r="H73" t="s">
-        <v>134</v>
-      </c>
-      <c r="I73" t="s">
-        <v>135</v>
-      </c>
-      <c r="J73" t="s">
-        <v>171</v>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15695,10 +15588,2384 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8369BE0-C5E0-014C-BBD9-3FC0E79B5E41}">
+  <dimension ref="A1:K73"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="31.5" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15240000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>142353.96918868605</v>
+      </c>
+      <c r="E2">
+        <v>0.83737628934521202</v>
+      </c>
+      <c r="F2">
+        <v>170000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15240000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>140755.63304129057</v>
+      </c>
+      <c r="E3">
+        <v>0.82797431200759153</v>
+      </c>
+      <c r="F3">
+        <v>170000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15240000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>147025.05815614416</v>
+      </c>
+      <c r="E4">
+        <v>0.86485328327143629</v>
+      </c>
+      <c r="F4">
+        <v>170000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11258852.798894266</v>
+      </c>
+      <c r="D5" s="3">
+        <v>137978.45532365105</v>
+      </c>
+      <c r="E5">
+        <v>0.81163797249206504</v>
+      </c>
+      <c r="F5">
+        <v>170000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11258852.798894266</v>
+      </c>
+      <c r="D6" s="3">
+        <v>135262.78811061886</v>
+      </c>
+      <c r="E6">
+        <v>0.79566345947422856</v>
+      </c>
+      <c r="F6">
+        <v>170000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11258852.798894266</v>
+      </c>
+      <c r="D7" s="3">
+        <v>136104.48525645715</v>
+      </c>
+      <c r="E7">
+        <v>0.80061461915563026</v>
+      </c>
+      <c r="F7">
+        <v>170000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+      <c r="D8" s="3">
+        <v>125484.14843941999</v>
+      </c>
+      <c r="E8">
+        <v>0.73814204964364705</v>
+      </c>
+      <c r="F8">
+        <v>170000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+      <c r="D9" s="3">
+        <v>131336.93235947919</v>
+      </c>
+      <c r="E9">
+        <v>0.77257019034987762</v>
+      </c>
+      <c r="F9">
+        <v>170000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+      <c r="D10" s="3">
+        <v>126246.01745394098</v>
+      </c>
+      <c r="E10">
+        <v>0.74262363208200577</v>
+      </c>
+      <c r="F10">
+        <v>170000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B11" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6131312.2811612366</v>
+      </c>
+      <c r="D11" s="3">
+        <v>120794.46750619178</v>
+      </c>
+      <c r="E11">
+        <v>0.71055569121289286</v>
+      </c>
+      <c r="F11">
+        <v>170000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4.2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6131312.2811612366</v>
+      </c>
+      <c r="D12" s="3">
+        <v>121381.49834512774</v>
+      </c>
+      <c r="E12">
+        <v>0.71400881379486902</v>
+      </c>
+      <c r="F12">
+        <v>170000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6131312.2811612366</v>
+      </c>
+      <c r="D13" s="3">
+        <v>124077.47196738022</v>
+      </c>
+      <c r="E13">
+        <v>0.72986748216106012</v>
+      </c>
+      <c r="F13">
+        <v>170000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+      <c r="D14" s="3">
+        <v>118886.36650271156</v>
+      </c>
+      <c r="E14">
+        <v>0.69933156766300919</v>
+      </c>
+      <c r="F14">
+        <v>170000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5.2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+      <c r="D15" s="3">
+        <v>118182.81136198106</v>
+      </c>
+      <c r="E15">
+        <v>0.69519300801165329</v>
+      </c>
+      <c r="F15">
+        <v>170000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5.3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+      <c r="D16" s="3">
+        <v>117489.38579111236</v>
+      </c>
+      <c r="E16">
+        <v>0.69111403406536687</v>
+      </c>
+      <c r="F16">
+        <v>170000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6.1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+      <c r="D17" s="3">
+        <v>107363.40954223738</v>
+      </c>
+      <c r="E17">
+        <v>0.63154946789551403</v>
+      </c>
+      <c r="F17">
+        <v>170000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6.2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+      <c r="D18" s="3">
+        <v>110878.96277708071</v>
+      </c>
+      <c r="E18">
+        <v>0.65222919280635716</v>
+      </c>
+      <c r="F18">
+        <v>170000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6.3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+      <c r="D19" s="3">
+        <v>107663.3571526728</v>
+      </c>
+      <c r="E19">
+        <v>0.63331386560395764</v>
+      </c>
+      <c r="F19">
+        <v>170000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+      <c r="D20" s="3">
+        <v>101290.83570278171</v>
+      </c>
+      <c r="E20">
+        <v>0.59582844531048063</v>
+      </c>
+      <c r="F20">
+        <v>170000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+      <c r="D21" s="3">
+        <v>97117.750131417561</v>
+      </c>
+      <c r="E21">
+        <v>0.57128088312598568</v>
+      </c>
+      <c r="F21">
+        <v>170000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+      <c r="D22" s="3">
+        <v>102576.00229711783</v>
+      </c>
+      <c r="E22">
+        <v>0.60338824880657549</v>
+      </c>
+      <c r="F22">
+        <v>170000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+      <c r="D23" s="3">
+        <v>94888.69623580738</v>
+      </c>
+      <c r="E23">
+        <v>0.55816880138710223</v>
+      </c>
+      <c r="F23">
+        <v>170000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+      <c r="D24" s="3">
+        <v>93292.267890416872</v>
+      </c>
+      <c r="E24">
+        <v>0.5487780464142169</v>
+      </c>
+      <c r="F24">
+        <v>170000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+      <c r="D25" s="3">
+        <v>92015.355086372365</v>
+      </c>
+      <c r="E25">
+        <v>0.5412667946257198</v>
+      </c>
+      <c r="F25">
+        <v>170000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9.1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+      <c r="D26" s="3">
+        <v>76192.901855733056</v>
+      </c>
+      <c r="E26">
+        <v>0.44819354032784153</v>
+      </c>
+      <c r="F26">
+        <v>170000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+      <c r="D27" s="3">
+        <v>87245.318249217409</v>
+      </c>
+      <c r="E27">
+        <v>0.51320775440716127</v>
+      </c>
+      <c r="F27">
+        <v>170000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B28" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+      <c r="D28" s="3">
+        <v>80005.523542232695</v>
+      </c>
+      <c r="E28">
+        <v>0.47062072671901584</v>
+      </c>
+      <c r="F28">
+        <v>170000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10.1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="C29" s="3">
+        <v>972623.43461753137</v>
+      </c>
+      <c r="D29" s="3">
+        <v>70982.755038437565</v>
+      </c>
+      <c r="E29">
+        <v>0.41754561787316213</v>
+      </c>
+      <c r="F29">
+        <v>170000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="C30" s="3">
+        <v>972623.43461753137</v>
+      </c>
+      <c r="D30" s="3">
+        <v>70541.353021812844</v>
+      </c>
+      <c r="E30">
+        <v>0.41494913542242851</v>
+      </c>
+      <c r="F30">
+        <v>170000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10.3</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="C31" s="3">
+        <v>972623.43461753137</v>
+      </c>
+      <c r="D31" s="3">
+        <v>66669.461914744927</v>
+      </c>
+      <c r="E31">
+        <v>0.39217330538085249</v>
+      </c>
+      <c r="F31">
+        <v>170000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>11.1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="C32" s="3">
+        <v>713713.81610666739</v>
+      </c>
+      <c r="D32" s="3">
+        <v>57013.860765281461</v>
+      </c>
+      <c r="E32">
+        <v>0.33537565156047916</v>
+      </c>
+      <c r="F32">
+        <v>170000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>11.2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="C33" s="3">
+        <v>713713.81610666739</v>
+      </c>
+      <c r="D33" s="3">
+        <v>60099.240667819773</v>
+      </c>
+      <c r="E33">
+        <v>0.35352494510482219</v>
+      </c>
+      <c r="F33">
+        <v>170000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>11.3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="C34" s="3">
+        <v>713713.81610666739</v>
+      </c>
+      <c r="D34" s="3">
+        <v>62732.605029694256</v>
+      </c>
+      <c r="E34">
+        <v>0.36901532370408385</v>
+      </c>
+      <c r="F34">
+        <v>170000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>12.1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="C35" s="3">
+        <v>523322.97454821976</v>
+      </c>
+      <c r="D35" s="3">
+        <v>50186.653878785641</v>
+      </c>
+      <c r="E35">
+        <v>0.29521561105168026</v>
+      </c>
+      <c r="F35">
+        <v>170000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12.2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="C36" s="3">
+        <v>523322.97454821976</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50702.533298511364</v>
+      </c>
+      <c r="E36">
+        <v>0.29825019587359625</v>
+      </c>
+      <c r="F36">
+        <v>170000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>12.3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="C37" s="3">
+        <v>523322.97454821976</v>
+      </c>
+      <c r="D37" s="3">
+        <v>46164.490893091766</v>
+      </c>
+      <c r="E37">
+        <v>0.27155582878289275</v>
+      </c>
+      <c r="F37">
+        <v>170000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>13.1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="C38" s="3">
+        <v>383424.75362938875</v>
+      </c>
+      <c r="D38" s="3">
+        <v>36691.97993635726</v>
+      </c>
+      <c r="E38">
+        <v>0.21583517609621919</v>
+      </c>
+      <c r="F38">
+        <v>170000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>13.2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="C39" s="3">
+        <v>383424.75362938875</v>
+      </c>
+      <c r="D39" s="3">
+        <v>39347.514807020591</v>
+      </c>
+      <c r="E39">
+        <v>0.23145596945306229</v>
+      </c>
+      <c r="F39">
+        <v>170000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>13.3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="C40" s="3">
+        <v>383424.75362938875</v>
+      </c>
+      <c r="D40" s="3">
+        <v>41244.151424925563</v>
+      </c>
+      <c r="E40">
+        <v>0.24261265544073859</v>
+      </c>
+      <c r="F40">
+        <v>170000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>14.1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="C41" s="3">
+        <v>280707.13713618607</v>
+      </c>
+      <c r="D41" s="3">
+        <v>28855.188250490362</v>
+      </c>
+      <c r="E41">
+        <v>0.16973640147347271</v>
+      </c>
+      <c r="F41">
+        <v>170000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>14.2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="C42" s="3">
+        <v>280707.13713618607</v>
+      </c>
+      <c r="D42" s="3">
+        <v>24856.490360631022</v>
+      </c>
+      <c r="E42">
+        <v>0.14621464918018248</v>
+      </c>
+      <c r="F42">
+        <v>170000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>14.3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="C43" s="3">
+        <v>280707.13713618607</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25311.924958484808</v>
+      </c>
+      <c r="E43">
+        <v>0.14889367622638122</v>
+      </c>
+      <c r="F43">
+        <v>170000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>15.1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="C44" s="3">
+        <v>205346.84037661343</v>
+      </c>
+      <c r="D44" s="3">
+        <v>17082.371494526091</v>
+      </c>
+      <c r="E44">
+        <v>0.10048453820309465</v>
+      </c>
+      <c r="F44">
+        <v>170000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15.2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="C45" s="3">
+        <v>205346.84037661343</v>
+      </c>
+      <c r="D45" s="3">
+        <v>18085.657067235057</v>
+      </c>
+      <c r="E45">
+        <v>0.10638621804255916</v>
+      </c>
+      <c r="F45">
+        <v>170000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>15.3</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="C46" s="3">
+        <v>205346.84037661343</v>
+      </c>
+      <c r="D46" s="3">
+        <v>17392.140952822534</v>
+      </c>
+      <c r="E46">
+        <v>0.10230671148719138</v>
+      </c>
+      <c r="F46">
+        <v>170000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="C47" s="3">
+        <v>150100.50182689109</v>
+      </c>
+      <c r="D47" s="3">
+        <v>14788.304897857557</v>
+      </c>
+      <c r="E47">
+        <v>8.6990028810926809E-2</v>
+      </c>
+      <c r="F47">
+        <v>170000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>16.2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="C48" s="3">
+        <v>150100.50182689109</v>
+      </c>
+      <c r="D48" s="3">
+        <v>12710.804964135261</v>
+      </c>
+      <c r="E48">
+        <v>7.4769440965501532E-2</v>
+      </c>
+      <c r="F48">
+        <v>170000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>16.3</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="C49" s="3">
+        <v>150100.50182689109</v>
+      </c>
+      <c r="D49" s="3">
+        <v>12347.404894073639</v>
+      </c>
+      <c r="E49">
+        <v>7.2631793494550817E-2</v>
+      </c>
+      <c r="F49">
+        <v>170000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="C50" s="3">
+        <v>109631.17965102459</v>
+      </c>
+      <c r="D50" s="3">
+        <v>10752.564942152369</v>
+      </c>
+      <c r="E50">
+        <v>6.3250382012660991E-2</v>
+      </c>
+      <c r="F50">
+        <v>170000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>17.2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="C51" s="3">
+        <v>109631.17965102459</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10469.439478626869</v>
+      </c>
+      <c r="E51">
+        <v>6.1584938109569817E-2</v>
+      </c>
+      <c r="F51">
+        <v>170000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>17.3</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="C52" s="3">
+        <v>109631.17965102459</v>
+      </c>
+      <c r="D52" s="3">
+        <v>10163.263455062868</v>
+      </c>
+      <c r="E52">
+        <v>5.9783902676840403E-2</v>
+      </c>
+      <c r="F52">
+        <v>170000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="C53" s="3">
+        <v>80009.602876123026</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5820.7872726209271</v>
+      </c>
+      <c r="E53">
+        <v>3.4239925133064279E-2</v>
+      </c>
+      <c r="F53">
+        <v>170000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" t="s">
+        <v>135</v>
+      </c>
+      <c r="J53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>18.2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="C54" s="3">
+        <v>80009.602876123026</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7018.7848875517484</v>
+      </c>
+      <c r="E54">
+        <v>4.128696992677499E-2</v>
+      </c>
+      <c r="F54">
+        <v>170000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" t="s">
+        <v>135</v>
+      </c>
+      <c r="J54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>18.3</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="C55" s="3">
+        <v>80009.602876123026</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5589.6229549592654</v>
+      </c>
+      <c r="E55">
+        <v>3.2880135029172149E-2</v>
+      </c>
+      <c r="F55">
+        <v>170000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="C56" s="3">
+        <v>58345.111552932103</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4061.3390460178434</v>
+      </c>
+      <c r="E56">
+        <v>2.3890229682457902E-2</v>
+      </c>
+      <c r="F56">
+        <v>170000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" t="s">
+        <v>135</v>
+      </c>
+      <c r="J56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>19.2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="C57" s="3">
+        <v>58345.111552932103</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3338.4541804953697</v>
+      </c>
+      <c r="E57">
+        <v>1.9637965767619822E-2</v>
+      </c>
+      <c r="F57">
+        <v>170000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" t="s">
+        <v>135</v>
+      </c>
+      <c r="J57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>19.3</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="C58" s="3">
+        <v>58345.111552932103</v>
+      </c>
+      <c r="D58" s="3">
+        <v>4300.0131483794621</v>
+      </c>
+      <c r="E58">
+        <v>2.5294194990467426E-2</v>
+      </c>
+      <c r="F58">
+        <v>170000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="C59" s="3">
+        <v>42512.76972449827</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2721.3390716066633</v>
+      </c>
+      <c r="E59">
+        <v>1.6007876891803902E-2</v>
+      </c>
+      <c r="F59">
+        <v>170000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" t="s">
+        <v>135</v>
+      </c>
+      <c r="J59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20.2</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="C60" s="3">
+        <v>42512.76972449827</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2436.6184666556642</v>
+      </c>
+      <c r="E60">
+        <v>1.4333049803856848E-2</v>
+      </c>
+      <c r="F60">
+        <v>170000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" t="s">
+        <v>135</v>
+      </c>
+      <c r="J60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20.3</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="C61" s="3">
+        <v>42512.76972449827</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2804.8553822398239</v>
+      </c>
+      <c r="E61">
+        <v>1.6499149307293081E-2</v>
+      </c>
+      <c r="F61">
+        <v>170000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" t="s">
+        <v>135</v>
+      </c>
+      <c r="J61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>21.1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="C62" s="3">
+        <v>30951.743137548383</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1698.3834663392674</v>
+      </c>
+      <c r="E62">
+        <v>9.9904909784662797E-3</v>
+      </c>
+      <c r="F62">
+        <v>170000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" t="s">
+        <v>135</v>
+      </c>
+      <c r="J62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>21.2</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="C63" s="3">
+        <v>30951.743137548383</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1637.4087307752059</v>
+      </c>
+      <c r="E63">
+        <v>9.6318160633835637E-3</v>
+      </c>
+      <c r="F63">
+        <v>170000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>21.3</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="C64" s="3">
+        <v>30951.743137548383</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1699.1173416407062</v>
+      </c>
+      <c r="E64">
+        <v>9.9948078920041542E-3</v>
+      </c>
+      <c r="F64">
+        <v>170000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64" t="s">
+        <v>135</v>
+      </c>
+      <c r="J64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>22.1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="C65" s="3">
+        <v>22516.444719384512</v>
+      </c>
+      <c r="D65" s="3">
+        <v>934.06593406593413</v>
+      </c>
+      <c r="E65">
+        <v>5.4945054945054949E-3</v>
+      </c>
+      <c r="F65">
+        <v>170000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>22.2</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="C66" s="3">
+        <v>22516.444719384512</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1000.0454841790864</v>
+      </c>
+      <c r="E66">
+        <v>5.8826204951710967E-3</v>
+      </c>
+      <c r="F66">
+        <v>170000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" t="s">
+        <v>135</v>
+      </c>
+      <c r="J66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>22.3</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="C67" s="3">
+        <v>22516.444719384512</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1014.9933743281272</v>
+      </c>
+      <c r="E67">
+        <v>5.9705492607536889E-3</v>
+      </c>
+      <c r="F67">
+        <v>170000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>23.1</v>
+      </c>
+      <c r="B68" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>16366.722100939898</v>
+      </c>
+      <c r="D68" s="3">
+        <v>390.35896154206631</v>
+      </c>
+      <c r="E68">
+        <v>2.2962291855415664E-3</v>
+      </c>
+      <c r="F68">
+        <v>170000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" t="s">
+        <v>134</v>
+      </c>
+      <c r="I68" t="s">
+        <v>135</v>
+      </c>
+      <c r="J68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>23.2</v>
+      </c>
+      <c r="B69" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="C69" s="3">
+        <v>16366.722100939898</v>
+      </c>
+      <c r="D69" s="3">
+        <v>497.55091518432585</v>
+      </c>
+      <c r="E69">
+        <v>2.9267700893195639E-3</v>
+      </c>
+      <c r="F69">
+        <v>170000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" t="s">
+        <v>135</v>
+      </c>
+      <c r="J69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>23.3</v>
+      </c>
+      <c r="B70" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>16366.722100939898</v>
+      </c>
+      <c r="D70" s="3">
+        <v>768.09453471196457</v>
+      </c>
+      <c r="E70">
+        <v>4.5182031453644975E-3</v>
+      </c>
+      <c r="F70">
+        <v>170000</v>
+      </c>
+      <c r="G70" t="s">
+        <v>133</v>
+      </c>
+      <c r="H70" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" t="s">
+        <v>135</v>
+      </c>
+      <c r="J70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>24.1</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>170000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" t="s">
+        <v>135</v>
+      </c>
+      <c r="J71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>24.2</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>170000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" t="s">
+        <v>134</v>
+      </c>
+      <c r="I72" t="s">
+        <v>135</v>
+      </c>
+      <c r="J72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>24.3</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>170000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" t="s">
+        <v>134</v>
+      </c>
+      <c r="I73" t="s">
+        <v>135</v>
+      </c>
+      <c r="J73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386F1BF-0E77-EA49-9DC1-2DEFFACA1B2C}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>

--- a/data/Experimental_data_Ed_Josh.xlsx
+++ b/data/Experimental_data_Ed_Josh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Documents/Python Files/HCMV_Dose_Infection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBAC2F7-E52F-584E-9513-44ACF6F0299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CC8300-9449-584F-B95F-4456C828ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28560" windowHeight="15040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28560" windowHeight="15040" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_10_05 TB_GFP_epithelial" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="196">
   <si>
     <t>Cells</t>
   </si>
@@ -571,54 +571,6 @@
     <t>d.nm</t>
   </si>
   <si>
-    <t>Mean_1</t>
-  </si>
-  <si>
-    <t>sd_1</t>
-  </si>
-  <si>
-    <t>Mean_4</t>
-  </si>
-  <si>
-    <t>SD_4</t>
-  </si>
-  <si>
-    <t>Mean_7</t>
-  </si>
-  <si>
-    <t>SD_7</t>
-  </si>
-  <si>
-    <t>Mean_10</t>
-  </si>
-  <si>
-    <t>SD_10</t>
-  </si>
-  <si>
-    <t>Mean_13</t>
-  </si>
-  <si>
-    <t>SD_13</t>
-  </si>
-  <si>
-    <t>Mean_16</t>
-  </si>
-  <si>
-    <t>SD_16</t>
-  </si>
-  <si>
-    <t>Mean_19</t>
-  </si>
-  <si>
-    <t>SD_19</t>
-  </si>
-  <si>
-    <t>Mean_23</t>
-  </si>
-  <si>
-    <t>SD_23</t>
-  </si>
-  <si>
     <t>mCherry+</t>
   </si>
   <si>
@@ -629,6 +581,54 @@
   </si>
   <si>
     <t>Sample #</t>
+  </si>
+  <si>
+    <t>Mean_15240000</t>
+  </si>
+  <si>
+    <t>sd_15240000</t>
+  </si>
+  <si>
+    <t>Mean_6131312</t>
+  </si>
+  <si>
+    <t>SD_6131312</t>
+  </si>
+  <si>
+    <t>Mean_2450310</t>
+  </si>
+  <si>
+    <t>SD_2450310</t>
+  </si>
+  <si>
+    <t>Mean_972623</t>
+  </si>
+  <si>
+    <t>SD_972623</t>
+  </si>
+  <si>
+    <t>Mean_383425</t>
+  </si>
+  <si>
+    <t>SD_383425</t>
+  </si>
+  <si>
+    <t>Mean_150101</t>
+  </si>
+  <si>
+    <t>SD_150101</t>
+  </si>
+  <si>
+    <t>Mean_58345</t>
+  </si>
+  <si>
+    <t>SD_58345</t>
+  </si>
+  <si>
+    <t>Mean_16367</t>
+  </si>
+  <si>
+    <t>SD_16367</t>
   </si>
 </sst>
 </file>
@@ -13379,7 +13379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC77BCC-D392-B64F-91BD-E2C798404F90}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -13398,10 +13398,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>148</v>
@@ -13419,7 +13419,7 @@
         <v>127</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>148</v>
@@ -13463,7 +13463,7 @@
         <v>250</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -15591,8 +15591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8369BE0-C5E0-014C-BBD9-3FC0E79B5E41}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17963,68 +17963,95 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386F1BF-0E77-EA49-9DC1-2DEFFACA1B2C}">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="H56" workbookViewId="0">
+      <selection activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="S1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.4</v>
       </c>
@@ -18076,8 +18103,17 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T2" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="U2" s="3">
+        <v>15240000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.4632</v>
       </c>
@@ -18129,8 +18165,17 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <v>1.2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="U3" s="3">
+        <v>15240000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.53649999999999998</v>
       </c>
@@ -18182,8 +18227,17 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <v>1.3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="U4" s="3">
+        <v>15240000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.62129999999999996</v>
       </c>
@@ -18235,8 +18289,17 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <v>2.1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="U5" s="3">
+        <v>11258852.798894266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.71950000000000003</v>
       </c>
@@ -18288,8 +18351,17 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T6" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="U6" s="3">
+        <v>11258852.798894266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.83320000000000005</v>
       </c>
@@ -18341,8 +18413,17 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T7" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="U7" s="3">
+        <v>11258852.798894266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.96489999999999998</v>
       </c>
@@ -18394,8 +18475,17 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <v>3.1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="U8" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.117</v>
       </c>
@@ -18447,8 +18537,17 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <v>3.2</v>
+      </c>
+      <c r="T9" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="U9" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.294</v>
       </c>
@@ -18500,8 +18599,17 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10">
+        <v>3.3</v>
+      </c>
+      <c r="T10" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="U10" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.4990000000000001</v>
       </c>
@@ -18553,8 +18661,17 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T11" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="U11" s="3">
+        <v>6131312.2811612403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.736</v>
       </c>
@@ -18606,8 +18723,17 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <v>4.2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="U12" s="3">
+        <v>6131312.2811612366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.0099999999999998</v>
       </c>
@@ -18659,8 +18785,17 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S13">
+        <v>4.3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="U13" s="3">
+        <v>6131312.2811612366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.3279999999999998</v>
       </c>
@@ -18712,8 +18847,17 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T14" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="U14" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2.6960000000000002</v>
       </c>
@@ -18765,8 +18909,17 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <v>5.2</v>
+      </c>
+      <c r="T15" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="U15" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.1219999999999999</v>
       </c>
@@ -18818,8 +18971,17 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <v>5.3</v>
+      </c>
+      <c r="T16" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="U16" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.6150000000000002</v>
       </c>
@@ -18871,8 +19033,17 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <v>6.1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="U17" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4.1870000000000003</v>
       </c>
@@ -18924,8 +19095,17 @@
       <c r="Q18">
         <v>5.7735026918962581E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>6.2</v>
+      </c>
+      <c r="T18" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="U18" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4.8490000000000002</v>
       </c>
@@ -18977,8 +19157,17 @@
       <c r="Q19">
         <v>0.15275252316519444</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <v>6.3</v>
+      </c>
+      <c r="T19" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="U19" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5.6150000000000002</v>
       </c>
@@ -19030,8 +19219,17 @@
       <c r="Q20">
         <v>0.3055050463303885</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <v>7.1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="U20" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6.5030000000000001</v>
       </c>
@@ -19083,8 +19281,17 @@
       <c r="Q21">
         <v>0.52915026221291916</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <v>7.2</v>
+      </c>
+      <c r="T21" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="U21" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7.5309999999999997</v>
       </c>
@@ -19136,8 +19343,17 @@
       <c r="Q22">
         <v>0.63508529610858766</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <v>7.3</v>
+      </c>
+      <c r="T22" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8.7210000000000001</v>
       </c>
@@ -19189,8 +19405,17 @@
       <c r="Q23">
         <v>0.69999999999999629</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <v>8.1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10.1</v>
       </c>
@@ -19242,8 +19467,17 @@
       <c r="Q24">
         <v>0.56862407030773654</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T24" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11.7</v>
       </c>
@@ -19295,8 +19529,17 @@
       <c r="Q25">
         <v>0.35118845842842472</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T25" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13.54</v>
       </c>
@@ -19348,8 +19591,17 @@
       <c r="Q26">
         <v>0.11547005383792526</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <v>9.1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15.69</v>
       </c>
@@ -19401,8 +19653,17 @@
       <c r="Q27">
         <v>0.28867513459481287</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T27" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>18.170000000000002</v>
       </c>
@@ -19454,8 +19715,17 @@
       <c r="Q28">
         <v>0.51316014394468834</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T28" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21.04</v>
       </c>
@@ -19507,8 +19777,17 @@
       <c r="Q29">
         <v>0.60277137733417663</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S29">
+        <v>10.1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="U29" s="3">
+        <v>972623.43461753137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>24.36</v>
       </c>
@@ -19560,8 +19839,17 @@
       <c r="Q30">
         <v>0.556776436283002</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="T30" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="U30" s="3">
+        <v>972623.43461753137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28.21</v>
       </c>
@@ -19613,8 +19901,17 @@
       <c r="Q31">
         <v>0.46188021535170054</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S31">
+        <v>10.3</v>
+      </c>
+      <c r="T31" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="U31" s="3">
+        <v>972623.43461753137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32.67</v>
       </c>
@@ -19666,8 +19963,17 @@
       <c r="Q32">
         <v>0.45092497528228959</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S32">
+        <v>11.1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="U32" s="3">
+        <v>713713.81610666739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>37.840000000000003</v>
       </c>
@@ -19719,8 +20025,17 @@
       <c r="Q33">
         <v>0.46188021535170048</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S33">
+        <v>11.2</v>
+      </c>
+      <c r="T33" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="U33" s="3">
+        <v>713713.81610666739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>43.82</v>
       </c>
@@ -19772,8 +20087,17 @@
       <c r="Q34">
         <v>0.50332229568471676</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S34">
+        <v>11.3</v>
+      </c>
+      <c r="T34" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="U34" s="3">
+        <v>713713.81610666739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50.75</v>
       </c>
@@ -19825,8 +20149,17 @@
       <c r="Q35">
         <v>0.60277137733416786</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S35">
+        <v>12.1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="U35" s="3">
+        <v>523322.97454821976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>58.77</v>
       </c>
@@ -19878,8 +20211,17 @@
       <c r="Q36">
         <v>0.56862407030773343</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S36">
+        <v>12.2</v>
+      </c>
+      <c r="T36" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="U36" s="3">
+        <v>523322.97454821976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>68.06</v>
       </c>
@@ -19931,8 +20273,17 @@
       <c r="Q37">
         <v>0.49328828623162008</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S37">
+        <v>12.3</v>
+      </c>
+      <c r="T37" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="U37" s="3">
+        <v>523322.97454821976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>78.819999999999993</v>
       </c>
@@ -19984,8 +20335,17 @@
       <c r="Q38">
         <v>0.32145502536643189</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S38">
+        <v>13.1</v>
+      </c>
+      <c r="T38" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="U38" s="3">
+        <v>383424.75362938875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>91.28</v>
       </c>
@@ -20037,8 +20397,17 @@
       <c r="Q39">
         <v>0.1732050807568879</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S39">
+        <v>13.2</v>
+      </c>
+      <c r="T39" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="U39" s="3">
+        <v>383424.75362938875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>105.7</v>
       </c>
@@ -20090,8 +20459,17 @@
       <c r="Q40">
         <v>0.23094010767585024</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S40">
+        <v>13.3</v>
+      </c>
+      <c r="T40" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="U40" s="3">
+        <v>383424.75362938875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>122.4</v>
       </c>
@@ -20143,8 +20521,17 @@
       <c r="Q41">
         <v>0.39999999999999797</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S41">
+        <v>14.1</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="U41" s="3">
+        <v>280707.13713618607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>141.80000000000001</v>
       </c>
@@ -20196,8 +20583,17 @@
       <c r="Q42">
         <v>0.55677643628300189</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S42">
+        <v>14.2</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="U42" s="3">
+        <v>280707.13713618607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>164.2</v>
       </c>
@@ -20249,8 +20645,17 @@
       <c r="Q43">
         <v>0.6658328118479393</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S43">
+        <v>14.3</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="U43" s="3">
+        <v>280707.13713618607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>190.1</v>
       </c>
@@ -20302,8 +20707,17 @@
       <c r="Q44">
         <v>0.77674534651540306</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S44">
+        <v>15.1</v>
+      </c>
+      <c r="T44" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="U44" s="3">
+        <v>205346.84037661343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>220.2</v>
       </c>
@@ -20355,8 +20769,17 @@
       <c r="Q45">
         <v>0.79372539331937753</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S45">
+        <v>15.2</v>
+      </c>
+      <c r="T45" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="U45" s="3">
+        <v>205346.84037661343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>255</v>
       </c>
@@ -20408,8 +20831,17 @@
       <c r="Q46">
         <v>0.75718777944003646</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S46">
+        <v>15.3</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="U46" s="3">
+        <v>205346.84037661343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>295.3</v>
       </c>
@@ -20461,8 +20893,17 @@
       <c r="Q47">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S47">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="U47" s="3">
+        <v>150100.50182689109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>342</v>
       </c>
@@ -20514,8 +20955,17 @@
       <c r="Q48">
         <v>0.58594652770823141</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S48">
+        <v>16.2</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="U48" s="3">
+        <v>150100.50182689109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>396.1</v>
       </c>
@@ -20567,8 +21017,17 @@
       <c r="Q49">
         <v>0.4163331998932267</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S49">
+        <v>16.3</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="U49" s="3">
+        <v>150100.50182689109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>458.7</v>
       </c>
@@ -20620,8 +21079,17 @@
       <c r="Q50">
         <v>0.30550504633038933</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S50">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="U50" s="3">
+        <v>109631.17965102459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>531.20000000000005</v>
       </c>
@@ -20673,8 +21141,17 @@
       <c r="Q51">
         <v>0.25166114784235838</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S51">
+        <v>17.2</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="U51" s="3">
+        <v>109631.17965102459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>615.1</v>
       </c>
@@ -20726,8 +21203,17 @@
       <c r="Q52">
         <v>0.20816659994661355</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S52">
+        <v>17.3</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="U52" s="3">
+        <v>109631.17965102459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>712.4</v>
       </c>
@@ -20779,8 +21265,17 @@
       <c r="Q53">
         <v>0.25166114784235832</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S53">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="U53" s="3">
+        <v>80009.602876123026</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>825</v>
       </c>
@@ -20832,8 +21327,17 @@
       <c r="Q54">
         <v>0.26457513110645903</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S54">
+        <v>18.2</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="U54" s="3">
+        <v>80009.602876123026</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>955.4</v>
       </c>
@@ -20885,8 +21389,17 @@
       <c r="Q55">
         <v>0.32145502536643183</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S55">
+        <v>18.3</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="U55" s="3">
+        <v>80009.602876123026</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1106</v>
       </c>
@@ -20938,8 +21451,17 @@
       <c r="Q56">
         <v>0.34641016151377546</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="U56" s="3">
+        <v>58345.111552932103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1281</v>
       </c>
@@ -20991,8 +21513,17 @@
       <c r="Q57">
         <v>0.34641016151377546</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S57">
+        <v>19.2</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="U57" s="3">
+        <v>58345.111552932103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1484</v>
       </c>
@@ -21044,8 +21575,17 @@
       <c r="Q58">
         <v>0.28867513459481292</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S58">
+        <v>19.3</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="U58" s="3">
+        <v>58345.111552932103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1718</v>
       </c>
@@ -21097,8 +21637,17 @@
       <c r="Q59">
         <v>0.26457513110645908</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S59">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="U59" s="3">
+        <v>42512.76972449827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1990</v>
       </c>
@@ -21150,8 +21699,17 @@
       <c r="Q60">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S60">
+        <v>20.2</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="U60" s="3">
+        <v>42512.76972449827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2305</v>
       </c>
@@ -21203,8 +21761,17 @@
       <c r="Q61">
         <v>0.17320508075688773</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S61">
+        <v>20.3</v>
+      </c>
+      <c r="T61" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="U61" s="3">
+        <v>42512.76972449827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2669</v>
       </c>
@@ -21256,8 +21823,17 @@
       <c r="Q62">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S62">
+        <v>21.1</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="U62" s="3">
+        <v>30951.743137548383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3091</v>
       </c>
@@ -21309,8 +21885,17 @@
       <c r="Q63">
         <v>0.25166114784235838</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S63">
+        <v>21.2</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="U63" s="3">
+        <v>30951.743137548383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3580</v>
       </c>
@@ -21362,8 +21947,17 @@
       <c r="Q64">
         <v>0.37859388972001823</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S64">
+        <v>21.3</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="U64" s="3">
+        <v>30951.743137548383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4145</v>
       </c>
@@ -21415,8 +22009,17 @@
       <c r="Q65">
         <v>0.43588989435406744</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S65">
+        <v>22.1</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="U65" s="3">
+        <v>22516.444719384512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4801</v>
       </c>
@@ -21468,8 +22071,17 @@
       <c r="Q66">
         <v>0.46188021535170065</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S66">
+        <v>22.2</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="U66" s="3">
+        <v>22516.444719384512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5560</v>
       </c>
@@ -21521,8 +22133,17 @@
       <c r="Q67">
         <v>0.46188021535170065</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S67">
+        <v>22.3</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="U67" s="3">
+        <v>22516.444719384512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6439</v>
       </c>
@@ -21574,8 +22195,17 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S68">
+        <v>23.1</v>
+      </c>
+      <c r="T68" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="U68" s="3">
+        <v>16366.722100939898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7456</v>
       </c>
@@ -21627,8 +22257,17 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S69">
+        <v>23.2</v>
+      </c>
+      <c r="T69" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="U69" s="3">
+        <v>16366.722100939898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8635</v>
       </c>
@@ -21680,8 +22319,17 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S70">
+        <v>23.3</v>
+      </c>
+      <c r="T70" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="U70" s="3">
+        <v>16366.722100939898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>10000</v>
       </c>
@@ -21733,6 +22381,23 @@
       <c r="Q71">
         <v>0</v>
       </c>
+      <c r="S71">
+        <v>24.1</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T72" s="2"/>
+      <c r="U72" s="3"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T73" s="2"/>
+      <c r="U73" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Experimental_data_Ed_Josh.xlsx
+++ b/data/Experimental_data_Ed_Josh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Documents/Python Files/HCMV_Dose_Infection/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Python Files/HCMV_Dose_Infection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3AB3C7-5670-074E-A4B1-5C3B4620EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EB98F5-B1B4-EB4E-AA97-6FABBC81D46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28560" windowHeight="15040" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_10_05 TB_GFP_epithelial" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="2021_08_13 ME_mC_epithelial" sheetId="9" r:id="rId7"/>
     <sheet name="2022_11_02_TB_GFP_fib" sheetId="7" r:id="rId8"/>
     <sheet name="use_with_size_distribution" sheetId="10" r:id="rId9"/>
-    <sheet name="2022_10_27_TB_size_distribution" sheetId="8" r:id="rId10"/>
+    <sheet name="use_with_size_dist_interp" sheetId="12" r:id="rId10"/>
+    <sheet name="2022_10_27_TB_size_distribution" sheetId="8" r:id="rId11"/>
+    <sheet name="2022_10_27_TB_size_dist_interp" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="211">
   <si>
     <t>Cells</t>
   </si>
@@ -631,6 +633,51 @@
   <si>
     <t>SD_16367</t>
   </si>
+  <si>
+    <t>Mean_11258853</t>
+  </si>
+  <si>
+    <t>Mean_8311591</t>
+  </si>
+  <si>
+    <t>Mean_4519604</t>
+  </si>
+  <si>
+    <t>Mean_3329074</t>
+  </si>
+  <si>
+    <t>Mean_1802153</t>
+  </si>
+  <si>
+    <t>Mean_1324443</t>
+  </si>
+  <si>
+    <t>Mean_713714</t>
+  </si>
+  <si>
+    <t>Mean_523323</t>
+  </si>
+  <si>
+    <t>Mean_280707</t>
+  </si>
+  <si>
+    <t>Mean_205347</t>
+  </si>
+  <si>
+    <t>Mean_109631</t>
+  </si>
+  <si>
+    <t>Mean_80010</t>
+  </si>
+  <si>
+    <t>Mean_42513</t>
+  </si>
+  <si>
+    <t>Mean_22516</t>
+  </si>
+  <si>
+    <t>Mean_30952</t>
+  </si>
 </sst>
 </file>
 
@@ -641,7 +688,7 @@
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +715,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -705,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -717,6 +770,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3651,11 +3707,2374 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE92A1AC-35E5-614F-A674-F1A8575ADCFB}">
+  <dimension ref="A1:K73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15240000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>142353.96918868605</v>
+      </c>
+      <c r="E2">
+        <v>0.83737628934521202</v>
+      </c>
+      <c r="F2">
+        <v>170000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15240000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>140755.63304129057</v>
+      </c>
+      <c r="E3">
+        <v>0.82797431200759153</v>
+      </c>
+      <c r="F3">
+        <v>170000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15240000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>147025.05815614416</v>
+      </c>
+      <c r="E4">
+        <v>0.86485328327143629</v>
+      </c>
+      <c r="F4">
+        <v>170000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11258853</v>
+      </c>
+      <c r="D5" s="3">
+        <v>137978.45532365105</v>
+      </c>
+      <c r="E5">
+        <v>0.81163797249206504</v>
+      </c>
+      <c r="F5">
+        <v>170000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11258853</v>
+      </c>
+      <c r="D6" s="3">
+        <v>135262.78811061886</v>
+      </c>
+      <c r="E6">
+        <v>0.79566345947422856</v>
+      </c>
+      <c r="F6">
+        <v>170000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11258853</v>
+      </c>
+      <c r="D7" s="3">
+        <v>136104.48525645715</v>
+      </c>
+      <c r="E7">
+        <v>0.80061461915563026</v>
+      </c>
+      <c r="F7">
+        <v>170000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8311591</v>
+      </c>
+      <c r="D8" s="3">
+        <v>125484.14843941999</v>
+      </c>
+      <c r="E8">
+        <v>0.73814204964364705</v>
+      </c>
+      <c r="F8">
+        <v>170000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8311591</v>
+      </c>
+      <c r="D9" s="3">
+        <v>131336.93235947919</v>
+      </c>
+      <c r="E9">
+        <v>0.77257019034987762</v>
+      </c>
+      <c r="F9">
+        <v>170000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8311591</v>
+      </c>
+      <c r="D10" s="3">
+        <v>126246.01745394098</v>
+      </c>
+      <c r="E10">
+        <v>0.74262363208200577</v>
+      </c>
+      <c r="F10">
+        <v>170000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B11" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6131312</v>
+      </c>
+      <c r="D11" s="3">
+        <v>120794.46750619178</v>
+      </c>
+      <c r="E11">
+        <v>0.71055569121289286</v>
+      </c>
+      <c r="F11">
+        <v>170000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4.2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6131312</v>
+      </c>
+      <c r="D12" s="3">
+        <v>121381.49834512774</v>
+      </c>
+      <c r="E12">
+        <v>0.71400881379486902</v>
+      </c>
+      <c r="F12">
+        <v>170000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6131312</v>
+      </c>
+      <c r="D13" s="3">
+        <v>124077.47196738022</v>
+      </c>
+      <c r="E13">
+        <v>0.72986748216106012</v>
+      </c>
+      <c r="F13">
+        <v>170000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4519604</v>
+      </c>
+      <c r="D14" s="3">
+        <v>118886.36650271156</v>
+      </c>
+      <c r="E14">
+        <v>0.69933156766300919</v>
+      </c>
+      <c r="F14">
+        <v>170000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5.2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4519604</v>
+      </c>
+      <c r="D15" s="3">
+        <v>118182.81136198106</v>
+      </c>
+      <c r="E15">
+        <v>0.69519300801165329</v>
+      </c>
+      <c r="F15">
+        <v>170000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5.3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4519604</v>
+      </c>
+      <c r="D16" s="3">
+        <v>117489.38579111236</v>
+      </c>
+      <c r="E16">
+        <v>0.69111403406536687</v>
+      </c>
+      <c r="F16">
+        <v>170000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6.1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3329074</v>
+      </c>
+      <c r="D17" s="3">
+        <v>107363.40954223738</v>
+      </c>
+      <c r="E17">
+        <v>0.63154946789551403</v>
+      </c>
+      <c r="F17">
+        <v>170000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6.2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3329074</v>
+      </c>
+      <c r="D18" s="3">
+        <v>110878.96277708071</v>
+      </c>
+      <c r="E18">
+        <v>0.65222919280635716</v>
+      </c>
+      <c r="F18">
+        <v>170000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6.3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3329074</v>
+      </c>
+      <c r="D19" s="3">
+        <v>107663.3571526728</v>
+      </c>
+      <c r="E19">
+        <v>0.63331386560395764</v>
+      </c>
+      <c r="F19">
+        <v>170000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7.1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2450310</v>
+      </c>
+      <c r="D20" s="3">
+        <v>101290.83570278171</v>
+      </c>
+      <c r="E20">
+        <v>0.59582844531048063</v>
+      </c>
+      <c r="F20">
+        <v>170000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7.2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2450310</v>
+      </c>
+      <c r="D21" s="3">
+        <v>97117.750131417561</v>
+      </c>
+      <c r="E21">
+        <v>0.57128088312598568</v>
+      </c>
+      <c r="F21">
+        <v>170000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2450310</v>
+      </c>
+      <c r="D22" s="3">
+        <v>102576.00229711783</v>
+      </c>
+      <c r="E22">
+        <v>0.60338824880657549</v>
+      </c>
+      <c r="F22">
+        <v>170000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1802153</v>
+      </c>
+      <c r="D23" s="3">
+        <v>94888.69623580738</v>
+      </c>
+      <c r="E23">
+        <v>0.55816880138710223</v>
+      </c>
+      <c r="F23">
+        <v>170000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1802153</v>
+      </c>
+      <c r="D24" s="3">
+        <v>93292.267890416872</v>
+      </c>
+      <c r="E24">
+        <v>0.5487780464142169</v>
+      </c>
+      <c r="F24">
+        <v>170000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1802153</v>
+      </c>
+      <c r="D25" s="3">
+        <v>92015.355086372365</v>
+      </c>
+      <c r="E25">
+        <v>0.5412667946257198</v>
+      </c>
+      <c r="F25">
+        <v>170000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9.1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1324443</v>
+      </c>
+      <c r="D26" s="3">
+        <v>76192.901855733056</v>
+      </c>
+      <c r="E26">
+        <v>0.44819354032784153</v>
+      </c>
+      <c r="F26">
+        <v>170000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1324443</v>
+      </c>
+      <c r="D27" s="3">
+        <v>87245.318249217409</v>
+      </c>
+      <c r="E27">
+        <v>0.51320775440716127</v>
+      </c>
+      <c r="F27">
+        <v>170000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B28" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1324443</v>
+      </c>
+      <c r="D28" s="3">
+        <v>80005.523542232695</v>
+      </c>
+      <c r="E28">
+        <v>0.47062072671901584</v>
+      </c>
+      <c r="F28">
+        <v>170000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10.1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="C29" s="3">
+        <v>972623</v>
+      </c>
+      <c r="D29" s="3">
+        <v>70982.755038437565</v>
+      </c>
+      <c r="E29">
+        <v>0.41754561787316213</v>
+      </c>
+      <c r="F29">
+        <v>170000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="C30" s="3">
+        <v>972623</v>
+      </c>
+      <c r="D30" s="3">
+        <v>70541.353021812844</v>
+      </c>
+      <c r="E30">
+        <v>0.41494913542242851</v>
+      </c>
+      <c r="F30">
+        <v>170000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10.3</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="C31" s="3">
+        <v>972623</v>
+      </c>
+      <c r="D31" s="3">
+        <v>66669.461914744927</v>
+      </c>
+      <c r="E31">
+        <v>0.39217330538085249</v>
+      </c>
+      <c r="F31">
+        <v>170000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>11.1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="C32" s="3">
+        <v>713714</v>
+      </c>
+      <c r="D32" s="3">
+        <v>57013.860765281461</v>
+      </c>
+      <c r="E32">
+        <v>0.33537565156047916</v>
+      </c>
+      <c r="F32">
+        <v>170000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>11.2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="C33" s="3">
+        <v>713714</v>
+      </c>
+      <c r="D33" s="3">
+        <v>60099.240667819773</v>
+      </c>
+      <c r="E33">
+        <v>0.35352494510482219</v>
+      </c>
+      <c r="F33">
+        <v>170000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>11.3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="C34" s="3">
+        <v>713714</v>
+      </c>
+      <c r="D34" s="3">
+        <v>62732.605029694256</v>
+      </c>
+      <c r="E34">
+        <v>0.36901532370408385</v>
+      </c>
+      <c r="F34">
+        <v>170000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>12.1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="C35" s="3">
+        <v>523323</v>
+      </c>
+      <c r="D35" s="3">
+        <v>50186.653878785641</v>
+      </c>
+      <c r="E35">
+        <v>0.29521561105168026</v>
+      </c>
+      <c r="F35">
+        <v>170000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12.2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="C36" s="3">
+        <v>523323</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50702.533298511364</v>
+      </c>
+      <c r="E36">
+        <v>0.29825019587359625</v>
+      </c>
+      <c r="F36">
+        <v>170000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>12.3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="C37" s="3">
+        <v>523323</v>
+      </c>
+      <c r="D37" s="3">
+        <v>46164.490893091766</v>
+      </c>
+      <c r="E37">
+        <v>0.27155582878289275</v>
+      </c>
+      <c r="F37">
+        <v>170000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>13.1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="C38" s="3">
+        <v>383425</v>
+      </c>
+      <c r="D38" s="3">
+        <v>36691.97993635726</v>
+      </c>
+      <c r="E38">
+        <v>0.21583517609621919</v>
+      </c>
+      <c r="F38">
+        <v>170000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>13.2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="C39" s="3">
+        <v>383425</v>
+      </c>
+      <c r="D39" s="3">
+        <v>39347.514807020591</v>
+      </c>
+      <c r="E39">
+        <v>0.23145596945306229</v>
+      </c>
+      <c r="F39">
+        <v>170000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>13.3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="C40" s="3">
+        <v>383425</v>
+      </c>
+      <c r="D40" s="3">
+        <v>41244.151424925563</v>
+      </c>
+      <c r="E40">
+        <v>0.24261265544073859</v>
+      </c>
+      <c r="F40">
+        <v>170000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>14.1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="C41" s="3">
+        <v>280707</v>
+      </c>
+      <c r="D41" s="3">
+        <v>28855.188250490362</v>
+      </c>
+      <c r="E41">
+        <v>0.16973640147347271</v>
+      </c>
+      <c r="F41">
+        <v>170000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>14.2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="C42" s="3">
+        <v>280707</v>
+      </c>
+      <c r="D42" s="3">
+        <v>24856.490360631022</v>
+      </c>
+      <c r="E42">
+        <v>0.14621464918018248</v>
+      </c>
+      <c r="F42">
+        <v>170000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>14.3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="C43" s="3">
+        <v>280707</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25311.924958484808</v>
+      </c>
+      <c r="E43">
+        <v>0.14889367622638122</v>
+      </c>
+      <c r="F43">
+        <v>170000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>15.1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="C44" s="3">
+        <v>205347</v>
+      </c>
+      <c r="D44" s="3">
+        <v>17082.371494526091</v>
+      </c>
+      <c r="E44">
+        <v>0.10048453820309465</v>
+      </c>
+      <c r="F44">
+        <v>170000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15.2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="C45" s="3">
+        <v>205347</v>
+      </c>
+      <c r="D45" s="3">
+        <v>18085.657067235057</v>
+      </c>
+      <c r="E45">
+        <v>0.10638621804255916</v>
+      </c>
+      <c r="F45">
+        <v>170000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>15.3</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="C46" s="3">
+        <v>205347</v>
+      </c>
+      <c r="D46" s="3">
+        <v>17392.140952822534</v>
+      </c>
+      <c r="E46">
+        <v>0.10230671148719138</v>
+      </c>
+      <c r="F46">
+        <v>170000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="C47" s="3">
+        <v>150101</v>
+      </c>
+      <c r="D47" s="3">
+        <v>14788.304897857557</v>
+      </c>
+      <c r="E47">
+        <v>8.6990028810926809E-2</v>
+      </c>
+      <c r="F47">
+        <v>170000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>16.2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="C48" s="3">
+        <v>150101</v>
+      </c>
+      <c r="D48" s="3">
+        <v>12710.804964135261</v>
+      </c>
+      <c r="E48">
+        <v>7.4769440965501532E-2</v>
+      </c>
+      <c r="F48">
+        <v>170000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>16.3</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="C49" s="3">
+        <v>150101</v>
+      </c>
+      <c r="D49" s="3">
+        <v>12347.404894073639</v>
+      </c>
+      <c r="E49">
+        <v>7.2631793494550817E-2</v>
+      </c>
+      <c r="F49">
+        <v>170000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="C50" s="3">
+        <v>109631</v>
+      </c>
+      <c r="D50" s="3">
+        <v>10752.564942152369</v>
+      </c>
+      <c r="E50">
+        <v>6.3250382012660991E-2</v>
+      </c>
+      <c r="F50">
+        <v>170000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>17.2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="C51" s="3">
+        <v>109631</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10469.439478626869</v>
+      </c>
+      <c r="E51">
+        <v>6.1584938109569817E-2</v>
+      </c>
+      <c r="F51">
+        <v>170000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>17.3</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="C52" s="3">
+        <v>109631</v>
+      </c>
+      <c r="D52" s="3">
+        <v>10163.263455062868</v>
+      </c>
+      <c r="E52">
+        <v>5.9783902676840403E-2</v>
+      </c>
+      <c r="F52">
+        <v>170000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="C53" s="3">
+        <v>80010</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5820.7872726209271</v>
+      </c>
+      <c r="E53">
+        <v>3.4239925133064279E-2</v>
+      </c>
+      <c r="F53">
+        <v>170000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" t="s">
+        <v>135</v>
+      </c>
+      <c r="J53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>18.2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="C54" s="3">
+        <v>80010</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7018.7848875517484</v>
+      </c>
+      <c r="E54">
+        <v>4.128696992677499E-2</v>
+      </c>
+      <c r="F54">
+        <v>170000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" t="s">
+        <v>135</v>
+      </c>
+      <c r="J54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>18.3</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="C55" s="3">
+        <v>80010</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5589.6229549592654</v>
+      </c>
+      <c r="E55">
+        <v>3.2880135029172149E-2</v>
+      </c>
+      <c r="F55">
+        <v>170000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="C56" s="3">
+        <v>58345</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4061.3390460178434</v>
+      </c>
+      <c r="E56">
+        <v>2.3890229682457902E-2</v>
+      </c>
+      <c r="F56">
+        <v>170000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" t="s">
+        <v>135</v>
+      </c>
+      <c r="J56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>19.2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="C57" s="3">
+        <v>58345</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3338.4541804953697</v>
+      </c>
+      <c r="E57">
+        <v>1.9637965767619822E-2</v>
+      </c>
+      <c r="F57">
+        <v>170000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" t="s">
+        <v>135</v>
+      </c>
+      <c r="J57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>19.3</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="C58" s="3">
+        <v>58345</v>
+      </c>
+      <c r="D58" s="3">
+        <v>4300.0131483794621</v>
+      </c>
+      <c r="E58">
+        <v>2.5294194990467426E-2</v>
+      </c>
+      <c r="F58">
+        <v>170000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="C59" s="3">
+        <v>42513</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2721.3390716066633</v>
+      </c>
+      <c r="E59">
+        <v>1.6007876891803902E-2</v>
+      </c>
+      <c r="F59">
+        <v>170000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" t="s">
+        <v>135</v>
+      </c>
+      <c r="J59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20.2</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="C60" s="3">
+        <v>42513</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2436.6184666556642</v>
+      </c>
+      <c r="E60">
+        <v>1.4333049803856848E-2</v>
+      </c>
+      <c r="F60">
+        <v>170000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" t="s">
+        <v>135</v>
+      </c>
+      <c r="J60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20.3</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="C61" s="3">
+        <v>42513</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2804.8553822398239</v>
+      </c>
+      <c r="E61">
+        <v>1.6499149307293081E-2</v>
+      </c>
+      <c r="F61">
+        <v>170000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" t="s">
+        <v>135</v>
+      </c>
+      <c r="J61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>21.1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="C62" s="3">
+        <v>30952</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1698.3834663392674</v>
+      </c>
+      <c r="E62">
+        <v>9.9904909784662797E-3</v>
+      </c>
+      <c r="F62">
+        <v>170000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" t="s">
+        <v>135</v>
+      </c>
+      <c r="J62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>21.2</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="C63" s="3">
+        <v>30952</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1637.4087307752059</v>
+      </c>
+      <c r="E63">
+        <v>9.6318160633835637E-3</v>
+      </c>
+      <c r="F63">
+        <v>170000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>21.3</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="C64" s="3">
+        <v>30952</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1699.1173416407062</v>
+      </c>
+      <c r="E64">
+        <v>9.9948078920041542E-3</v>
+      </c>
+      <c r="F64">
+        <v>170000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64" t="s">
+        <v>135</v>
+      </c>
+      <c r="J64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>22.1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="C65" s="3">
+        <v>22516</v>
+      </c>
+      <c r="D65" s="3">
+        <v>934.06593406593413</v>
+      </c>
+      <c r="E65">
+        <v>5.4945054945054949E-3</v>
+      </c>
+      <c r="F65">
+        <v>170000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>22.2</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="C66" s="3">
+        <v>22516</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1000.0454841790864</v>
+      </c>
+      <c r="E66">
+        <v>5.8826204951710967E-3</v>
+      </c>
+      <c r="F66">
+        <v>170000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" t="s">
+        <v>135</v>
+      </c>
+      <c r="J66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>22.3</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="C67" s="3">
+        <v>22516</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1014.9933743281272</v>
+      </c>
+      <c r="E67">
+        <v>5.9705492607536889E-3</v>
+      </c>
+      <c r="F67">
+        <v>170000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>23.1</v>
+      </c>
+      <c r="B68" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>16367</v>
+      </c>
+      <c r="D68" s="3">
+        <v>390.35896154206631</v>
+      </c>
+      <c r="E68">
+        <v>2.2962291855415664E-3</v>
+      </c>
+      <c r="F68">
+        <v>170000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" t="s">
+        <v>134</v>
+      </c>
+      <c r="I68" t="s">
+        <v>135</v>
+      </c>
+      <c r="J68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>23.2</v>
+      </c>
+      <c r="B69" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="C69" s="3">
+        <v>16367</v>
+      </c>
+      <c r="D69" s="3">
+        <v>497.55091518432585</v>
+      </c>
+      <c r="E69">
+        <v>2.9267700893195639E-3</v>
+      </c>
+      <c r="F69">
+        <v>170000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" t="s">
+        <v>135</v>
+      </c>
+      <c r="J69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>23.3</v>
+      </c>
+      <c r="B70" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>16367</v>
+      </c>
+      <c r="D70" s="3">
+        <v>768.09453471196457</v>
+      </c>
+      <c r="E70">
+        <v>4.5182031453644975E-3</v>
+      </c>
+      <c r="F70">
+        <v>170000</v>
+      </c>
+      <c r="G70" t="s">
+        <v>133</v>
+      </c>
+      <c r="H70" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" t="s">
+        <v>135</v>
+      </c>
+      <c r="J70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>24.1</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>170000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" t="s">
+        <v>135</v>
+      </c>
+      <c r="J71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>24.2</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>170000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" t="s">
+        <v>134</v>
+      </c>
+      <c r="I72" t="s">
+        <v>135</v>
+      </c>
+      <c r="J72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>24.3</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>170000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" t="s">
+        <v>134</v>
+      </c>
+      <c r="I73" t="s">
+        <v>135</v>
+      </c>
+      <c r="J73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386F1BF-0E77-EA49-9DC1-2DEFFACA1B2C}">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8093,6 +10512,5925 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4803EC3-465F-4947-ABAF-A1952127F28A}">
+  <dimension ref="A1:AB71"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="13" width="16.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="18" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>15240000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.4632</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1.2</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>15240000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1.3</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>89.647058823529406</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>15240000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.62129999999999996</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>2.1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>11258852.798894266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>11258852.798894266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>66.228545875848624</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>11258852.798894266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>3.1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.117</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>3.2</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.294</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>3.3</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>48.891710459594613</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>8311590.7781310836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>6131312.2811612403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.736</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>4.2</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>6131312.2811612366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>4.3</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>36.066542830360213</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>6131312.2811612366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.3279999999999998</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.470203583416888E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.546282168650188E-2</v>
+      </c>
+      <c r="T14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U14">
+        <v>2.0761668810646849E-2</v>
+      </c>
+      <c r="V14">
+        <v>1.1581463306176249E-2</v>
+      </c>
+      <c r="W14">
+        <v>4.8827163434815059E-3</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>4.4106107502506653E-2</v>
+      </c>
+      <c r="S15">
+        <v>7.6388465059505667E-2</v>
+      </c>
+      <c r="T15">
+        <v>0.1</v>
+      </c>
+      <c r="U15">
+        <v>6.228500643194055E-2</v>
+      </c>
+      <c r="V15">
+        <v>3.4744389918528747E-2</v>
+      </c>
+      <c r="W15">
+        <v>1.4648149030444519E-2</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>5.2</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3.1219999999999999</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1.462098085273358E-2</v>
+      </c>
+      <c r="J16">
+        <v>2.53970563454913E-2</v>
+      </c>
+      <c r="K16">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.8685795493761571E-2</v>
+      </c>
+      <c r="M16">
+        <v>7.9146002984848331E-3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.10291425083918219</v>
+      </c>
+      <c r="S16">
+        <v>0.17823975180551321</v>
+      </c>
+      <c r="T16">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="U16">
+        <v>0.1453316816745279</v>
+      </c>
+      <c r="V16">
+        <v>8.1070243143233758E-2</v>
+      </c>
+      <c r="W16">
+        <v>3.4179014404370538E-2</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>5.3</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>26.58590778872172</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>4519604.3240826922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.1023468659691351</v>
+      </c>
+      <c r="J17">
+        <v>0.1777793944184391</v>
+      </c>
+      <c r="K17">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="L17">
+        <v>0.13080056845633101</v>
+      </c>
+      <c r="M17">
+        <v>5.540220208939383E-2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>4.4023760950438022E-2</v>
+      </c>
+      <c r="P17">
+        <v>7.6322195744972648E-2</v>
+      </c>
+      <c r="Q17">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="R17">
+        <v>0.20291425083918219</v>
+      </c>
+      <c r="S17">
+        <v>0.27823975180551308</v>
+      </c>
+      <c r="T17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U17">
+        <v>0.20761668810646849</v>
+      </c>
+      <c r="V17">
+        <v>0.1158146330617625</v>
+      </c>
+      <c r="W17">
+        <v>4.8827163434815059E-2</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>6.1</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.1167586434345866</v>
+      </c>
+      <c r="G18">
+        <v>0.20300544978423449</v>
+      </c>
+      <c r="H18">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="I18">
+        <v>0.33977157093033461</v>
+      </c>
+      <c r="J18">
+        <v>0.39365194839412321</v>
+      </c>
+      <c r="K18">
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="L18">
+        <v>0.28685795493761579</v>
+      </c>
+      <c r="M18">
+        <v>0.17914600298484831</v>
+      </c>
+      <c r="N18">
+        <v>0.1</v>
+      </c>
+      <c r="O18">
+        <v>0.15869834793391729</v>
+      </c>
+      <c r="P18">
+        <v>0.20176292765996351</v>
+      </c>
+      <c r="Q18">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="R18">
+        <v>0.33624758417251549</v>
+      </c>
+      <c r="S18">
+        <v>0.4115730851388465</v>
+      </c>
+      <c r="T18">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="U18">
+        <v>0.31580669239442882</v>
+      </c>
+      <c r="V18">
+        <v>0.20564422634078169</v>
+      </c>
+      <c r="W18">
+        <v>0.12525926278844471</v>
+      </c>
+      <c r="X18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Z18">
+        <v>6.2</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4.8490000000000002</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.27730177815714308</v>
+      </c>
+      <c r="G19">
+        <v>0.48213794323755688</v>
+      </c>
+      <c r="H19">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="I19">
+        <v>0.64795431418606686</v>
+      </c>
+      <c r="J19">
+        <v>0.65873038967882458</v>
+      </c>
+      <c r="K19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L19">
+        <v>0.57878143962923612</v>
+      </c>
+      <c r="M19">
+        <v>0.51415426845757561</v>
+      </c>
+      <c r="N19">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="O19">
+        <v>0.45199207968318728</v>
+      </c>
+      <c r="P19">
+        <v>0.44122593475167582</v>
+      </c>
+      <c r="Q19">
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="R19">
+        <v>0.55094962000668435</v>
+      </c>
+      <c r="S19">
+        <v>0.63703590682534827</v>
+      </c>
+      <c r="T19">
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="U19">
+        <v>0.63714167738656746</v>
+      </c>
+      <c r="V19">
+        <v>0.59124064986421454</v>
+      </c>
+      <c r="W19">
+        <v>0.55774691505074081</v>
+      </c>
+      <c r="X19">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="Z19">
+        <v>6.3</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>19.582790615107214</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>3329074.4045682265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5.6150000000000002</v>
+      </c>
+      <c r="B20">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.8764286726401579E-2</v>
+      </c>
+      <c r="D20">
+        <v>7.9787524467482759E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.364870760733083</v>
+      </c>
+      <c r="G20">
+        <v>0.63439203057573279</v>
+      </c>
+      <c r="H20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I20">
+        <v>0.87719627589153404</v>
+      </c>
+      <c r="J20">
+        <v>0.9095245023698072</v>
+      </c>
+      <c r="K20">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="L20">
+        <v>1.035866098210336</v>
+      </c>
+      <c r="M20">
+        <v>1.1112644645772729</v>
+      </c>
+      <c r="N20">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="O20">
+        <v>1.0786191447657909</v>
+      </c>
+      <c r="P20">
+        <v>1.0140222751767209</v>
+      </c>
+      <c r="Q20">
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="R20">
+        <v>1.025474810003342</v>
+      </c>
+      <c r="S20">
+        <v>1.0685179534126741</v>
+      </c>
+      <c r="T20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U20">
+        <v>1.238288309749551</v>
+      </c>
+      <c r="V20">
+        <v>1.339270570298728</v>
+      </c>
+      <c r="W20">
+        <v>1.4129567868883699</v>
+      </c>
+      <c r="X20">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="Z20">
+        <v>7.1</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6.5030000000000001</v>
+      </c>
+      <c r="B21">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C21">
+        <v>5.6292860179204728E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.3936257340244831E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.32108626944511298</v>
+      </c>
+      <c r="G21">
+        <v>0.55826498690664483</v>
+      </c>
+      <c r="H21">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="I21">
+        <v>0.87954314186066918</v>
+      </c>
+      <c r="J21">
+        <v>0.98730389678824637</v>
+      </c>
+      <c r="K21">
+        <v>1.0666666666666671</v>
+      </c>
+      <c r="L21">
+        <v>1.432855112655961</v>
+      </c>
+      <c r="M21">
+        <v>1.702134992537879</v>
+      </c>
+      <c r="N21">
+        <v>1.9</v>
+      </c>
+      <c r="O21">
+        <v>1.738579543181727</v>
+      </c>
+      <c r="P21">
+        <v>1.6201519489351</v>
+      </c>
+      <c r="Q21">
+        <v>1.533333333333333</v>
+      </c>
+      <c r="R21">
+        <v>1.636247584172515</v>
+      </c>
+      <c r="S21">
+        <v>1.711573085138846</v>
+      </c>
+      <c r="T21">
+        <v>1.7666666666666671</v>
+      </c>
+      <c r="U21">
+        <v>2.0432432861657688</v>
+      </c>
+      <c r="V21">
+        <v>2.2452078072641219</v>
+      </c>
+      <c r="W21">
+        <v>2.3925802404434071</v>
+      </c>
+      <c r="X21">
+        <v>2.5</v>
+      </c>
+      <c r="Z21">
+        <v>7.2</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.5309999999999997</v>
+      </c>
+      <c r="B22">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="C22">
+        <v>7.5057146905606303E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.1915009786993097E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.18973279558120321</v>
+      </c>
+      <c r="G22">
+        <v>0.32988385589938102</v>
+      </c>
+      <c r="H22">
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="I22">
+        <v>0.68189000782980425</v>
+      </c>
+      <c r="J22">
+        <v>0.86508329120668537</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1.7030818162994441</v>
+      </c>
+      <c r="M22">
+        <v>2.2200991856727281</v>
+      </c>
+      <c r="N22">
+        <v>2.6</v>
+      </c>
+      <c r="O22">
+        <v>2.3505320212808511</v>
+      </c>
+      <c r="P22">
+        <v>2.167507557445155</v>
+      </c>
+      <c r="Q22">
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="R22">
+        <v>2.2391618350116982</v>
+      </c>
+      <c r="S22">
+        <v>2.3898128369443601</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>2.8520066066352219</v>
+      </c>
+      <c r="V22">
+        <v>3.109052360760399</v>
+      </c>
+      <c r="W22">
+        <v>3.2966172757158509</v>
+      </c>
+      <c r="X22">
+        <v>3.433333333333334</v>
+      </c>
+      <c r="Z22">
+        <v>7.3</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>14.413590299108243</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>2450310.3508484014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.7210000000000001</v>
+      </c>
+      <c r="B23">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="C23">
+        <v>9.3821433632007886E-2</v>
+      </c>
+      <c r="D23">
+        <v>3.989376223374138E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>7.2974152146616608E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.12687840611514661</v>
+      </c>
+      <c r="H23">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="I23">
+        <v>0.53219118798500631</v>
+      </c>
+      <c r="J23">
+        <v>0.80159307530394908</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1.9227948838930209</v>
+      </c>
+      <c r="M23">
+        <v>2.6013801811954562</v>
+      </c>
+      <c r="N23">
+        <v>3.1</v>
+      </c>
+      <c r="O23">
+        <v>2.7478099123964959</v>
+      </c>
+      <c r="P23">
+        <v>2.4894224340402191</v>
+      </c>
+      <c r="Q23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R23">
+        <v>2.7263590391908981</v>
+      </c>
+      <c r="S23">
+        <v>3.0384218289085552</v>
+      </c>
+      <c r="T23">
+        <v>3.2666666666666671</v>
+      </c>
+      <c r="U23">
+        <v>3.5809582797338289</v>
+      </c>
+      <c r="V23">
+        <v>3.810463417345594</v>
+      </c>
+      <c r="W23">
+        <v>3.977932091412963</v>
+      </c>
+      <c r="X23">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="Z23">
+        <v>8.1</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10.1</v>
+      </c>
+      <c r="B24">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="C24">
+        <v>0.1229595268458714</v>
+      </c>
+      <c r="D24">
+        <v>9.06029240069115E-2</v>
+      </c>
+      <c r="E24">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.1542356492426066</v>
+      </c>
+      <c r="G24">
+        <v>0.21892075400484251</v>
+      </c>
+      <c r="H24">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="I24">
+        <v>0.69067511139594051</v>
+      </c>
+      <c r="J24">
+        <v>1.003181300685914</v>
+      </c>
+      <c r="K24">
+        <v>1.2333333333333329</v>
+      </c>
+      <c r="L24">
+        <v>2.1854232929054982</v>
+      </c>
+      <c r="M24">
+        <v>2.8855509805984858</v>
+      </c>
+      <c r="N24">
+        <v>3.4</v>
+      </c>
+      <c r="O24">
+        <v>2.9744369774790989</v>
+      </c>
+      <c r="P24">
+        <v>2.6622187744652641</v>
+      </c>
+      <c r="Q24">
+        <v>2.4333333333333331</v>
+      </c>
+      <c r="R24">
+        <v>3.1243290175392708</v>
+      </c>
+      <c r="S24">
+        <v>3.6300859525989222</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>4.2011466323629838</v>
+      </c>
+      <c r="V24">
+        <v>4.348029920434513</v>
+      </c>
+      <c r="W24">
+        <v>4.4552098718376287</v>
+      </c>
+      <c r="X24">
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="Z24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>11.7</v>
+      </c>
+      <c r="B25">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="C25">
+        <v>0.35606427255677953</v>
+      </c>
+      <c r="D25">
+        <v>0.49627621819227241</v>
+      </c>
+      <c r="E25">
+        <v>0.6</v>
+      </c>
+      <c r="F25">
+        <v>0.76054313472255652</v>
+      </c>
+      <c r="G25">
+        <v>0.87913249345332245</v>
+      </c>
+      <c r="H25">
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="I25">
+        <v>1.317570207132273</v>
+      </c>
+      <c r="J25">
+        <v>1.5761960189584581</v>
+      </c>
+      <c r="K25">
+        <v>1.7666666666666671</v>
+      </c>
+      <c r="L25">
+        <v>2.6015763235222571</v>
+      </c>
+      <c r="M25">
+        <v>3.2155344496530311</v>
+      </c>
+      <c r="N25">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="O25">
+        <v>3.1677307092283691</v>
+      </c>
+      <c r="P25">
+        <v>2.8016817815569759</v>
+      </c>
+      <c r="Q25">
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="R25">
+        <v>3.4007534475492971</v>
+      </c>
+      <c r="S25">
+        <v>4.0356398128369433</v>
+      </c>
+      <c r="T25">
+        <v>4.4999999999999991</v>
+      </c>
+      <c r="U25">
+        <v>4.5502866580907453</v>
+      </c>
+      <c r="V25">
+        <v>4.5870074801086274</v>
+      </c>
+      <c r="W25">
+        <v>4.613802467959407</v>
+      </c>
+      <c r="X25">
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="Z25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>10.600898113619849</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>1802152.6793153742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>13.54</v>
+      </c>
+      <c r="B26">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="C26">
+        <v>0.7202904377300734</v>
+      </c>
+      <c r="D26">
+        <v>1.130140740356899</v>
+      </c>
+      <c r="E26">
+        <v>1.4333333333333329</v>
+      </c>
+      <c r="F26">
+        <v>1.754419602778446</v>
+      </c>
+      <c r="G26">
+        <v>1.9915983202399781</v>
+      </c>
+      <c r="H26">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="I26">
+        <v>2.3859813794576699</v>
+      </c>
+      <c r="J26">
+        <v>2.5476225118490361</v>
+      </c>
+      <c r="K26">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="L26">
+        <v>3.1939780288912498</v>
+      </c>
+      <c r="M26">
+        <v>3.5817410559212131</v>
+      </c>
+      <c r="N26">
+        <v>3.8666666666666671</v>
+      </c>
+      <c r="O26">
+        <v>3.3970798831953282</v>
+      </c>
+      <c r="P26">
+        <v>3.052563245386958</v>
+      </c>
+      <c r="Q26">
+        <v>2.8</v>
+      </c>
+      <c r="R26">
+        <v>3.7115262217184708</v>
+      </c>
+      <c r="S26">
+        <v>4.3786949445631169</v>
+      </c>
+      <c r="T26">
+        <v>4.8666666666666663</v>
+      </c>
+      <c r="U26">
+        <v>4.7786650150078609</v>
+      </c>
+      <c r="V26">
+        <v>4.7144035764765668</v>
+      </c>
+      <c r="W26">
+        <v>4.6675123477377038</v>
+      </c>
+      <c r="X26">
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="Z26">
+        <v>9.1</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>15.69</v>
+      </c>
+      <c r="B27">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="C27">
+        <v>1.0699475562964349</v>
+      </c>
+      <c r="D27">
+        <v>1.7386506816349401</v>
+      </c>
+      <c r="E27">
+        <v>2.2333333333333329</v>
+      </c>
+      <c r="F27">
+        <v>2.744152398359649</v>
+      </c>
+      <c r="G27">
+        <v>3.121482176139359</v>
+      </c>
+      <c r="H27">
+        <v>3.4</v>
+      </c>
+      <c r="I27">
+        <v>3.5169678468218679</v>
+      </c>
+      <c r="J27">
+        <v>3.6031764507639301</v>
+      </c>
+      <c r="K27">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="L27">
+        <v>3.8277895829019561</v>
+      </c>
+      <c r="M27">
+        <v>3.94627273005</v>
+      </c>
+      <c r="N27">
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="O27">
+        <v>3.66646865874635</v>
+      </c>
+      <c r="P27">
+        <v>3.3973150354585608</v>
+      </c>
+      <c r="Q27">
+        <v>3.2</v>
+      </c>
+      <c r="R27">
+        <v>4.0233140067134574</v>
+      </c>
+      <c r="S27">
+        <v>4.625918014444105</v>
+      </c>
+      <c r="T27">
+        <v>5.0666666666666664</v>
+      </c>
+      <c r="U27">
+        <v>4.8780916988263696</v>
+      </c>
+      <c r="V27">
+        <v>4.7403886162593114</v>
+      </c>
+      <c r="W27">
+        <v>4.6399074118188901</v>
+      </c>
+      <c r="X27">
+        <v>4.5666666666666673</v>
+      </c>
+      <c r="Z27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="B28">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="C28">
+        <v>1.180321362783898</v>
+      </c>
+      <c r="D28">
+        <v>1.881381090961362</v>
+      </c>
+      <c r="E28">
+        <v>2.4</v>
+      </c>
+      <c r="F28">
+        <v>3.1297415214661659</v>
+      </c>
+      <c r="G28">
+        <v>3.6687840611514648</v>
+      </c>
+      <c r="H28">
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="I28">
+        <v>4.2713603986049371</v>
+      </c>
+      <c r="J28">
+        <v>4.4222254555035443</v>
+      </c>
+      <c r="K28">
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="L28">
+        <v>4.4161530306167593</v>
+      </c>
+      <c r="M28">
+        <v>4.3299834690545449</v>
+      </c>
+      <c r="N28">
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="O28">
+        <v>4.0025241009640382</v>
+      </c>
+      <c r="P28">
+        <v>3.808733492196831</v>
+      </c>
+      <c r="Q28">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="R28">
+        <v>4.2841521717017592</v>
+      </c>
+      <c r="S28">
+        <v>4.7361051774997458</v>
+      </c>
+      <c r="T28">
+        <v>5.0666666666666664</v>
+      </c>
+      <c r="U28">
+        <v>4.8655200343036826</v>
+      </c>
+      <c r="V28">
+        <v>4.7186367462321526</v>
+      </c>
+      <c r="W28">
+        <v>4.6114567948290377</v>
+      </c>
+      <c r="X28">
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="Z28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>7.7908423724218805</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1324443.2033117197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>21.04</v>
+      </c>
+      <c r="B29">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="C29">
+        <v>0.96178566367992102</v>
+      </c>
+      <c r="D29">
+        <v>1.501062377662586</v>
+      </c>
+      <c r="E29">
+        <v>1.9</v>
+      </c>
+      <c r="F29">
+        <v>2.7756898257593989</v>
+      </c>
+      <c r="G29">
+        <v>3.4225408733817591</v>
+      </c>
+      <c r="H29">
+        <v>3.9</v>
+      </c>
+      <c r="I29">
+        <v>4.3678713872874741</v>
+      </c>
+      <c r="J29">
+        <v>4.7127058030557212</v>
+      </c>
+      <c r="K29">
+        <v>4.9666666666666659</v>
+      </c>
+      <c r="L29">
+        <v>4.7616011369126614</v>
+      </c>
+      <c r="M29">
+        <v>4.6108044041787872</v>
+      </c>
+      <c r="N29">
+        <v>4.5</v>
+      </c>
+      <c r="O29">
+        <v>4.3385795431817273</v>
+      </c>
+      <c r="P29">
+        <v>4.2201519489351007</v>
+      </c>
+      <c r="Q29">
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="R29">
+        <v>4.486182193353387</v>
+      </c>
+      <c r="S29">
+        <v>4.7444410538093784</v>
+      </c>
+      <c r="T29">
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="U29">
+        <v>4.795045023583782</v>
+      </c>
+      <c r="V29">
+        <v>4.694062763034605</v>
+      </c>
+      <c r="W29">
+        <v>4.6203765464449633</v>
+      </c>
+      <c r="X29">
+        <v>4.5666666666666664</v>
+      </c>
+      <c r="Z29">
+        <v>10.1</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>972623.43461753137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>24.36</v>
+      </c>
+      <c r="B30">
+        <v>0.2</v>
+      </c>
+      <c r="C30">
+        <v>0.54965711856636212</v>
+      </c>
+      <c r="D30">
+        <v>0.80850994127804132</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1.875689825759399</v>
+      </c>
+      <c r="G30">
+        <v>2.5225408733817591</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3.7895329660476138</v>
+      </c>
+      <c r="J30">
+        <v>4.3714410426565298</v>
+      </c>
+      <c r="K30">
+        <v>4.8</v>
+      </c>
+      <c r="L30">
+        <v>4.697467235122998</v>
+      </c>
+      <c r="M30">
+        <v>4.6220688687560614</v>
+      </c>
+      <c r="N30">
+        <v>4.5666666666666673</v>
+      </c>
+      <c r="O30">
+        <v>4.4932937317492696</v>
+      </c>
+      <c r="P30">
+        <v>4.439463007091712</v>
+      </c>
+      <c r="Q30">
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="R30">
+        <v>4.5764244300100261</v>
+      </c>
+      <c r="S30">
+        <v>4.7055538602380222</v>
+      </c>
+      <c r="T30">
+        <v>4.8</v>
+      </c>
+      <c r="U30">
+        <v>4.7245700128638806</v>
+      </c>
+      <c r="V30">
+        <v>4.6694887798370566</v>
+      </c>
+      <c r="W30">
+        <v>4.6292962980608898</v>
+      </c>
+      <c r="X30">
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="Z30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>972623.43461753137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28.21</v>
+      </c>
+      <c r="B31">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="C31">
+        <v>0.19160951976106039</v>
+      </c>
+      <c r="D31">
+        <v>0.23475165687967359</v>
+      </c>
+      <c r="E31">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="F31">
+        <v>0.89424437512756938</v>
+      </c>
+      <c r="G31">
+        <v>1.357820959256927</v>
+      </c>
+      <c r="H31">
+        <v>1.7</v>
+      </c>
+      <c r="I31">
+        <v>2.7234686596913509</v>
+      </c>
+      <c r="J31">
+        <v>3.4777939441843908</v>
+      </c>
+      <c r="K31">
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="L31">
+        <v>4.2383988630873377</v>
+      </c>
+      <c r="M31">
+        <v>4.3891955958212119</v>
+      </c>
+      <c r="N31">
+        <v>4.5</v>
+      </c>
+      <c r="O31">
+        <v>4.4119524780991242</v>
+      </c>
+      <c r="P31">
+        <v>4.3473556085100542</v>
+      </c>
+      <c r="Q31">
+        <v>4.3</v>
+      </c>
+      <c r="R31">
+        <v>4.3882122150050131</v>
+      </c>
+      <c r="S31">
+        <v>4.4527769301190112</v>
+      </c>
+      <c r="T31">
+        <v>4.5</v>
+      </c>
+      <c r="U31">
+        <v>4.5880016516588054</v>
+      </c>
+      <c r="V31">
+        <v>4.6522630901900994</v>
+      </c>
+      <c r="W31">
+        <v>4.6991543189289624</v>
+      </c>
+      <c r="X31">
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="Z31">
+        <v>10.3</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>5.7213143212795963</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>972623.43461753137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32.67</v>
+      </c>
+      <c r="B32">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D32">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.32522994191979981</v>
+      </c>
+      <c r="G32">
+        <v>0.54084695779391956</v>
+      </c>
+      <c r="H32">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I32">
+        <v>1.6503637554276831</v>
+      </c>
+      <c r="J32">
+        <v>2.350808662456934</v>
+      </c>
+      <c r="K32">
+        <v>2.8666666666666671</v>
+      </c>
+      <c r="L32">
+        <v>3.4379206424099649</v>
+      </c>
+      <c r="M32">
+        <v>3.857997255025758</v>
+      </c>
+      <c r="N32">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="O32">
+        <v>4.0492699707988322</v>
+      </c>
+      <c r="P32">
+        <v>3.9631408113467401</v>
+      </c>
+      <c r="Q32">
+        <v>3.9</v>
+      </c>
+      <c r="R32">
+        <v>4.0470203583416886</v>
+      </c>
+      <c r="S32">
+        <v>4.154628216865019</v>
+      </c>
+      <c r="T32">
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="U32">
+        <v>4.4344799656963172</v>
+      </c>
+      <c r="V32">
+        <v>4.5813632537678464</v>
+      </c>
+      <c r="W32">
+        <v>4.6885432051709621</v>
+      </c>
+      <c r="X32">
+        <v>4.7666666666666666</v>
+      </c>
+      <c r="Z32">
+        <v>11.1</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>713713.81610666739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>7.2974152146616608E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.12687840611514661</v>
+      </c>
+      <c r="H33">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="I33">
+        <v>0.80998982418694454</v>
+      </c>
+      <c r="J33">
+        <v>1.284137145868284</v>
+      </c>
+      <c r="K33">
+        <v>1.633333333333334</v>
+      </c>
+      <c r="L33">
+        <v>2.5268331415472098</v>
+      </c>
+      <c r="M33">
+        <v>3.183876048459092</v>
+      </c>
+      <c r="N33">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="O33">
+        <v>3.4612224488979559</v>
+      </c>
+      <c r="P33">
+        <v>3.3104964198567952</v>
+      </c>
+      <c r="Q33">
+        <v>3.2000000000000011</v>
+      </c>
+      <c r="R33">
+        <v>3.5234447883517159</v>
+      </c>
+      <c r="S33">
+        <v>3.7601820771030421</v>
+      </c>
+      <c r="T33">
+        <v>3.933333333333334</v>
+      </c>
+      <c r="U33">
+        <v>4.2476249464004958</v>
+      </c>
+      <c r="V33">
+        <v>4.4771300840122601</v>
+      </c>
+      <c r="W33">
+        <v>4.6445987580796286</v>
+      </c>
+      <c r="X33">
+        <v>4.7666666666666666</v>
+      </c>
+      <c r="Z33">
+        <v>11.2</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>713713.81610666739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>43.82</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.29241961705467168</v>
+      </c>
+      <c r="J34">
+        <v>0.50794112690982596</v>
+      </c>
+      <c r="K34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L34">
+        <v>1.7066418532762611</v>
+      </c>
+      <c r="M34">
+        <v>2.4713967121409102</v>
+      </c>
+      <c r="N34">
+        <v>3.0333333333333332</v>
+      </c>
+      <c r="O34">
+        <v>2.7398415936637459</v>
+      </c>
+      <c r="P34">
+        <v>2.5245186950335161</v>
+      </c>
+      <c r="Q34">
+        <v>2.3666666666666671</v>
+      </c>
+      <c r="R34">
+        <v>2.9400460641992532</v>
+      </c>
+      <c r="S34">
+        <v>3.3597167124402398</v>
+      </c>
+      <c r="T34">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="U34">
+        <v>4.0438166023472606</v>
+      </c>
+      <c r="V34">
+        <v>4.3192227674813797</v>
+      </c>
+      <c r="W34">
+        <v>4.5201851763622214</v>
+      </c>
+      <c r="X34">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="Z34">
+        <v>11.3</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>4.1983165653333376</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>713713.81610666739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>50.75</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>7.3104904263667919E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.12698528172745649</v>
+      </c>
+      <c r="K35">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="L35">
+        <v>1.162699239757546</v>
+      </c>
+      <c r="M35">
+        <v>1.895140513036365</v>
+      </c>
+      <c r="N35">
+        <v>2.4333333333333331</v>
+      </c>
+      <c r="O35">
+        <v>2.022444897795912</v>
+      </c>
+      <c r="P35">
+        <v>1.720992839713589</v>
+      </c>
+      <c r="Q35">
+        <v>1.5</v>
+      </c>
+      <c r="R35">
+        <v>2.3674201142159639</v>
+      </c>
+      <c r="S35">
+        <v>3.002306479503611</v>
+      </c>
+      <c r="T35">
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="U35">
+        <v>3.8312449378245752</v>
+      </c>
+      <c r="V35">
+        <v>4.0974708974542224</v>
+      </c>
+      <c r="W35">
+        <v>4.2917345593723697</v>
+      </c>
+      <c r="X35">
+        <v>4.4333333333333336</v>
+      </c>
+      <c r="Z35">
+        <v>12.1</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>523322.97454821976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>58.77</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0.79096704333687495</v>
+      </c>
+      <c r="M36">
+        <v>1.3726115838818189</v>
+      </c>
+      <c r="N36">
+        <v>1.8</v>
+      </c>
+      <c r="O36">
+        <v>1.3891115644625791</v>
+      </c>
+      <c r="P36">
+        <v>1.087659506380255</v>
+      </c>
+      <c r="Q36">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="R36">
+        <v>1.9399152825609951</v>
+      </c>
+      <c r="S36">
+        <v>2.7254526497813041</v>
+      </c>
+      <c r="T36">
+        <v>3.3</v>
+      </c>
+      <c r="U36">
+        <v>3.6142916130671621</v>
+      </c>
+      <c r="V36">
+        <v>3.8437967506789268</v>
+      </c>
+      <c r="W36">
+        <v>4.0112654247462949</v>
+      </c>
+      <c r="X36">
+        <v>4.1333333333333329</v>
+      </c>
+      <c r="Z36">
+        <v>12.2</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>523322.97454821976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>68.06</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0.64449166494115739</v>
+      </c>
+      <c r="M37">
+        <v>1.118424253533334</v>
+      </c>
+      <c r="N37">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="O37">
+        <v>1.0411036441457659</v>
+      </c>
+      <c r="P37">
+        <v>0.72888544113193099</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.67616286673351</v>
+      </c>
+      <c r="S37">
+        <v>2.5370257349201499</v>
+      </c>
+      <c r="T37">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="U37">
+        <v>3.392956628075023</v>
+      </c>
+      <c r="V37">
+        <v>3.5582003271554949</v>
+      </c>
+      <c r="W37">
+        <v>3.6787777724840001</v>
+      </c>
+      <c r="X37">
+        <v>3.7666666666666671</v>
+      </c>
+      <c r="Z37">
+        <v>12.3</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>3.0783704385189399</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>523322.97454821976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0.55660643790372677</v>
+      </c>
+      <c r="M38">
+        <v>0.96591185532424295</v>
+      </c>
+      <c r="N38">
+        <v>1.2666666666666671</v>
+      </c>
+      <c r="O38">
+        <v>0.92915116604664183</v>
+      </c>
+      <c r="P38">
+        <v>0.68152983262187627</v>
+      </c>
+      <c r="Q38">
+        <v>0.5</v>
+      </c>
+      <c r="R38">
+        <v>1.646758795065173</v>
+      </c>
+      <c r="S38">
+        <v>2.4861000915471472</v>
+      </c>
+      <c r="T38">
+        <v>3.1</v>
+      </c>
+      <c r="U38">
+        <v>3.200573316181492</v>
+      </c>
+      <c r="V38">
+        <v>3.274014960217257</v>
+      </c>
+      <c r="W38">
+        <v>3.327604935918814</v>
+      </c>
+      <c r="X38">
+        <v>3.3666666666666671</v>
+      </c>
+      <c r="Z38">
+        <v>13.1</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>383424.75362938875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>91.28</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>7.3104904263667919E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.12698528172745649</v>
+      </c>
+      <c r="K39">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="L39">
+        <v>0.69397802889125015</v>
+      </c>
+      <c r="M39">
+        <v>1.0817410559212131</v>
+      </c>
+      <c r="N39">
+        <v>1.3666666666666669</v>
+      </c>
+      <c r="O39">
+        <v>1.190571622864915</v>
+      </c>
+      <c r="P39">
+        <v>1.061377883686776</v>
+      </c>
+      <c r="Q39">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="R39">
+        <v>1.863490852550969</v>
+      </c>
+      <c r="S39">
+        <v>2.5198987895432809</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>2.9622850064319399</v>
+      </c>
+      <c r="V39">
+        <v>2.9347443899185288</v>
+      </c>
+      <c r="W39">
+        <v>2.914648149030445</v>
+      </c>
+      <c r="X39">
+        <v>2.9</v>
+      </c>
+      <c r="Z39">
+        <v>13.2</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>383424.75362938875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>105.7</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2.9189660858646639E-2</v>
+      </c>
+      <c r="G40">
+        <v>5.0751362446058608E-2</v>
+      </c>
+      <c r="H40">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I40">
+        <v>0.32984432201587122</v>
+      </c>
+      <c r="J40">
+        <v>0.52381368088551006</v>
+      </c>
+      <c r="K40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L40">
+        <v>1.120740339693391</v>
+      </c>
+      <c r="M40">
+        <v>1.4546473907469699</v>
+      </c>
+      <c r="N40">
+        <v>1.7</v>
+      </c>
+      <c r="O40">
+        <v>1.7293491739669591</v>
+      </c>
+      <c r="P40">
+        <v>1.7508814638299821</v>
+      </c>
+      <c r="Q40">
+        <v>1.7666666666666671</v>
+      </c>
+      <c r="R40">
+        <v>2.2812379208625782</v>
+      </c>
+      <c r="S40">
+        <v>2.6578654256942329</v>
+      </c>
+      <c r="T40">
+        <v>2.933333333333334</v>
+      </c>
+      <c r="U40">
+        <v>2.7573300300157229</v>
+      </c>
+      <c r="V40">
+        <v>2.6288071529531338</v>
+      </c>
+      <c r="W40">
+        <v>2.5350246954754079</v>
+      </c>
+      <c r="X40">
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="Z40">
+        <v>13.3</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>2.2554397272316984</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>383424.75362938875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>122.4</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.33568109987443628</v>
+      </c>
+      <c r="G41">
+        <v>0.58364066812967408</v>
+      </c>
+      <c r="H41">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="I41">
+        <v>1.2637800156596091</v>
+      </c>
+      <c r="J41">
+        <v>1.6301665824133711</v>
+      </c>
+      <c r="K41">
+        <v>1.9</v>
+      </c>
+      <c r="L41">
+        <v>2.0318278405561458</v>
+      </c>
+      <c r="M41">
+        <v>2.1287685973136359</v>
+      </c>
+      <c r="N41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O41">
+        <v>2.4641425657026281</v>
+      </c>
+      <c r="P41">
+        <v>2.6579331744698358</v>
+      </c>
+      <c r="Q41">
+        <v>2.8</v>
+      </c>
+      <c r="R41">
+        <v>2.8294040716683382</v>
+      </c>
+      <c r="S41">
+        <v>2.8509256433730039</v>
+      </c>
+      <c r="T41">
+        <v>2.8666666666666671</v>
+      </c>
+      <c r="U41">
+        <v>2.577518382644878</v>
+      </c>
+      <c r="V41">
+        <v>2.3663736560420539</v>
+      </c>
+      <c r="W41">
+        <v>2.2123024759000751</v>
+      </c>
+      <c r="X41">
+        <v>2.1</v>
+      </c>
+      <c r="Z41">
+        <v>14.1</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>280707.13713618607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="B42">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C42">
+        <v>0.68520236577064297</v>
+      </c>
+      <c r="D42">
+        <v>0.84698537996544254</v>
+      </c>
+      <c r="E42">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F42">
+        <v>1.8569513228553891</v>
+      </c>
+      <c r="G42">
+        <v>2.5145832212714549</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3.277798636201938</v>
+      </c>
+      <c r="J42">
+        <v>3.4825440705643351</v>
+      </c>
+      <c r="K42">
+        <v>3.6333333333333342</v>
+      </c>
+      <c r="L42">
+        <v>3.252497349504468</v>
+      </c>
+      <c r="M42">
+        <v>2.972446274427273</v>
+      </c>
+      <c r="N42">
+        <v>2.7666666666666671</v>
+      </c>
+      <c r="O42">
+        <v>3.265602624104964</v>
+      </c>
+      <c r="P42">
+        <v>3.6316515517763568</v>
+      </c>
+      <c r="Q42">
+        <v>3.9</v>
+      </c>
+      <c r="R42">
+        <v>3.370726709969921</v>
+      </c>
+      <c r="S42">
+        <v>2.983338419285932</v>
+      </c>
+      <c r="T42">
+        <v>2.7</v>
+      </c>
+      <c r="U42">
+        <v>2.3605650578874648</v>
+      </c>
+      <c r="V42">
+        <v>2.1126995092667591</v>
+      </c>
+      <c r="W42">
+        <v>1.931833341274001</v>
+      </c>
+      <c r="X42">
+        <v>1.8</v>
+      </c>
+      <c r="Z42">
+        <v>14.2</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>280707.13713618607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>164.2</v>
+      </c>
+      <c r="B43">
+        <v>3.0333333333333332</v>
+      </c>
+      <c r="C43">
+        <v>3.5723880577898082</v>
+      </c>
+      <c r="D43">
+        <v>3.9714528261369799</v>
+      </c>
+      <c r="E43">
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="F43">
+        <v>5.1715461532847122</v>
+      </c>
+      <c r="G43">
+        <v>5.8399589024944838</v>
+      </c>
+      <c r="H43">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I43">
+        <v>6.0116717545731948</v>
+      </c>
+      <c r="J43">
+        <v>5.774598093732525</v>
+      </c>
+      <c r="K43">
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="L43">
+        <v>4.6332625025882654</v>
+      </c>
+      <c r="M43">
+        <v>3.9223636196999991</v>
+      </c>
+      <c r="N43">
+        <v>3.4</v>
+      </c>
+      <c r="O43">
+        <v>4.06035641425657</v>
+      </c>
+      <c r="P43">
+        <v>4.5448329361745898</v>
+      </c>
+      <c r="Q43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R43">
+        <v>3.8414534199398411</v>
+      </c>
+      <c r="S43">
+        <v>3.066676838571865</v>
+      </c>
+      <c r="T43">
+        <v>2.5</v>
+      </c>
+      <c r="U43">
+        <v>2.1102783997967189</v>
+      </c>
+      <c r="V43">
+        <v>1.82569202915813</v>
+      </c>
+      <c r="W43">
+        <v>1.6180308733145929</v>
+      </c>
+      <c r="X43">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="Z43">
+        <v>14.3</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>1.6512184537422709</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>280707.13713618607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>190.1</v>
+      </c>
+      <c r="B44">
+        <v>7.3666666666666671</v>
+      </c>
+      <c r="C44">
+        <v>8.0805499504063221</v>
+      </c>
+      <c r="D44">
+        <v>8.6090411301093344</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>9.3502759303037593</v>
+      </c>
+      <c r="G44">
+        <v>9.6090163493527037</v>
+      </c>
+      <c r="H44">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I44">
+        <v>8.732668397750448</v>
+      </c>
+      <c r="J44">
+        <v>7.9460148867791354</v>
+      </c>
+      <c r="K44">
+        <v>7.3666666666666671</v>
+      </c>
+      <c r="L44">
+        <v>5.8140276556720609</v>
+      </c>
+      <c r="M44">
+        <v>4.6722809649727246</v>
+      </c>
+      <c r="N44">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="O44">
+        <v>4.6257610304412173</v>
+      </c>
+      <c r="P44">
+        <v>5.2071328567428408</v>
+      </c>
+      <c r="Q44">
+        <v>5.6333333333333329</v>
+      </c>
+      <c r="R44">
+        <v>4.163129749916445</v>
+      </c>
+      <c r="S44">
+        <v>3.0870511646831451</v>
+      </c>
+      <c r="T44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U44">
+        <v>1.8977067352740331</v>
+      </c>
+      <c r="V44">
+        <v>1.603940159130973</v>
+      </c>
+      <c r="W44">
+        <v>1.3895802563247419</v>
+      </c>
+      <c r="X44">
+        <v>1.2333333333333329</v>
+      </c>
+      <c r="Z44">
+        <v>15.1</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>205346.84037661343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>220.2</v>
+      </c>
+      <c r="B45">
+        <v>12.16666666666667</v>
+      </c>
+      <c r="C45">
+        <v>12.778566624157801</v>
+      </c>
+      <c r="D45">
+        <v>13.231559063903241</v>
+      </c>
+      <c r="E45">
+        <v>13.56666666666667</v>
+      </c>
+      <c r="F45">
+        <v>13.02665794078171</v>
+      </c>
+      <c r="G45">
+        <v>12.627766461414581</v>
+      </c>
+      <c r="H45">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="I45">
+        <v>10.651920535268969</v>
+      </c>
+      <c r="J45">
+        <v>9.4126718536018341</v>
+      </c>
+      <c r="K45">
+        <v>8.5</v>
+      </c>
+      <c r="L45">
+        <v>6.5811725430161001</v>
+      </c>
+      <c r="M45">
+        <v>5.1701459724348462</v>
+      </c>
+      <c r="N45">
+        <v>4.1333333333333329</v>
+      </c>
+      <c r="O45">
+        <v>4.9551102044081761</v>
+      </c>
+      <c r="P45">
+        <v>5.5580143205728234</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>4.2504577357339031</v>
+      </c>
+      <c r="S45">
+        <v>2.969924219306276</v>
+      </c>
+      <c r="T45">
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="U45">
+        <v>1.681326726698112</v>
+      </c>
+      <c r="V45">
+        <v>1.4242809725729351</v>
+      </c>
+      <c r="W45">
+        <v>1.236716057617482</v>
+      </c>
+      <c r="X45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z45">
+        <v>15.2</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>205346.84037661343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>255</v>
+      </c>
+      <c r="B46">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="C46">
+        <v>16.05186903243731</v>
+      </c>
+      <c r="D46">
+        <v>16.213652046632109</v>
+      </c>
+      <c r="E46">
+        <v>16.333333333333329</v>
+      </c>
+      <c r="F46">
+        <v>14.946824442547619</v>
+      </c>
+      <c r="G46">
+        <v>13.92264361714555</v>
+      </c>
+      <c r="H46">
+        <v>13.16666666666667</v>
+      </c>
+      <c r="I46">
+        <v>11.265939155811299</v>
+      </c>
+      <c r="J46">
+        <v>9.8650493417527976</v>
+      </c>
+      <c r="K46">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="L46">
+        <v>6.7973255736328593</v>
+      </c>
+      <c r="M46">
+        <v>5.3001294414893927</v>
+      </c>
+      <c r="N46">
+        <v>4.2</v>
+      </c>
+      <c r="O46">
+        <v>4.9630785231409256</v>
+      </c>
+      <c r="P46">
+        <v>5.522918059579526</v>
+      </c>
+      <c r="Q46">
+        <v>5.9333333333333336</v>
+      </c>
+      <c r="R46">
+        <v>4.066174782393885</v>
+      </c>
+      <c r="S46">
+        <v>2.6995549791475941</v>
+      </c>
+      <c r="T46">
+        <v>1.7</v>
+      </c>
+      <c r="U46">
+        <v>1.410851715978211</v>
+      </c>
+      <c r="V46">
+        <v>1.1997069893753869</v>
+      </c>
+      <c r="W46">
+        <v>1.0456358092334079</v>
+      </c>
+      <c r="X46">
+        <v>0.93333333333333346</v>
+      </c>
+      <c r="Z46">
+        <v>15.3</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>1.2079225904506672</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>205346.84037661343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>295.3</v>
+      </c>
+      <c r="B47">
+        <v>17.266666666666669</v>
+      </c>
+      <c r="C47">
+        <v>16.88787145488644</v>
+      </c>
+      <c r="D47">
+        <v>16.607447563615459</v>
+      </c>
+      <c r="E47">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F47">
+        <v>14.51726687461729</v>
+      </c>
+      <c r="G47">
+        <v>13.12653712222922</v>
+      </c>
+      <c r="H47">
+        <v>12.1</v>
+      </c>
+      <c r="I47">
+        <v>10.4039662210829</v>
+      </c>
+      <c r="J47">
+        <v>9.1539414639230081</v>
+      </c>
+      <c r="K47">
+        <v>8.2333333333333325</v>
+      </c>
+      <c r="L47">
+        <v>6.37309602770772</v>
+      </c>
+      <c r="M47">
+        <v>5.0051542379075737</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4.6456818272730906</v>
+      </c>
+      <c r="P47">
+        <v>5.1193922042595981</v>
+      </c>
+      <c r="Q47">
+        <v>5.4666666666666659</v>
+      </c>
+      <c r="R47">
+        <v>3.6730182948980619</v>
+      </c>
+      <c r="S47">
+        <v>2.3602024209134371</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47">
+        <v>1.173710038591643</v>
+      </c>
+      <c r="V47">
+        <v>1.008466339511173</v>
+      </c>
+      <c r="W47">
+        <v>0.88788889418266725</v>
+      </c>
+      <c r="X47">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="Z47">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>150100.50182689109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>342</v>
+      </c>
+      <c r="B48">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C48">
+        <v>15.080166737514769</v>
+      </c>
+      <c r="D48">
+        <v>14.325179337939041</v>
+      </c>
+      <c r="E48">
+        <v>13.766666666666669</v>
+      </c>
+      <c r="F48">
+        <v>11.898528371713279</v>
+      </c>
+      <c r="G48">
+        <v>10.518579470118921</v>
+      </c>
+      <c r="H48">
+        <v>9.5000000000000018</v>
+      </c>
+      <c r="I48">
+        <v>8.3449425126340486</v>
+      </c>
+      <c r="J48">
+        <v>7.4936325487061879</v>
+      </c>
+      <c r="K48">
+        <v>6.8666666666666671</v>
+      </c>
+      <c r="L48">
+        <v>5.4312079583886348</v>
+      </c>
+      <c r="M48">
+        <v>4.3756308292515138</v>
+      </c>
+      <c r="N48">
+        <v>3.6</v>
+      </c>
+      <c r="O48">
+        <v>4.0989359574382984</v>
+      </c>
+      <c r="P48">
+        <v>4.4649848851096898</v>
+      </c>
+      <c r="Q48">
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="R48">
+        <v>3.130811427408926</v>
+      </c>
+      <c r="S48">
+        <v>1.9578857695046279</v>
+      </c>
+      <c r="T48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U48">
+        <v>0.96171169025044856</v>
+      </c>
+      <c r="V48">
+        <v>0.86072942970127209</v>
+      </c>
+      <c r="W48">
+        <v>0.78704321311162995</v>
+      </c>
+      <c r="X48">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="Z48">
+        <v>16.2</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>150100.50182689109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>396.1</v>
+      </c>
+      <c r="B49">
+        <v>12.7</v>
+      </c>
+      <c r="C49">
+        <v>11.272233432520689</v>
+      </c>
+      <c r="D49">
+        <v>10.21525107311466</v>
+      </c>
+      <c r="E49">
+        <v>9.4333333333333336</v>
+      </c>
+      <c r="F49">
+        <v>7.944660629542355</v>
+      </c>
+      <c r="G49">
+        <v>6.8450138485843439</v>
+      </c>
+      <c r="H49">
+        <v>6.0333333333333341</v>
+      </c>
+      <c r="I49">
+        <v>5.5947039077513274</v>
+      </c>
+      <c r="J49">
+        <v>5.2714216429685949</v>
+      </c>
+      <c r="K49">
+        <v>5.0333333333333341</v>
+      </c>
+      <c r="L49">
+        <v>4.1544810629590287</v>
+      </c>
+      <c r="M49">
+        <v>3.5082093512424239</v>
+      </c>
+      <c r="N49">
+        <v>3.0333333333333332</v>
+      </c>
+      <c r="O49">
+        <v>3.3414996599863991</v>
+      </c>
+      <c r="P49">
+        <v>3.5675887035481422</v>
+      </c>
+      <c r="Q49">
+        <v>3.7333333333333329</v>
+      </c>
+      <c r="R49">
+        <v>2.45425621576064</v>
+      </c>
+      <c r="S49">
+        <v>1.51806784660767</v>
+      </c>
+      <c r="T49">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U49">
+        <v>0.75790334619721444</v>
+      </c>
+      <c r="V49">
+        <v>0.70282211317039089</v>
+      </c>
+      <c r="W49">
+        <v>0.66262963139422248</v>
+      </c>
+      <c r="X49">
+        <v>0.63333333333333341</v>
+      </c>
+      <c r="Z49">
+        <v>16.3</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0.88294412839347702</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>150100.50182689109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>458.7</v>
+      </c>
+      <c r="B50">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C50">
+        <v>6.6993881994860276</v>
+      </c>
+      <c r="D50">
+        <v>5.5884781686817391</v>
+      </c>
+      <c r="E50">
+        <v>4.7666666666666666</v>
+      </c>
+      <c r="F50">
+        <v>3.9201665017659142</v>
+      </c>
+      <c r="G50">
+        <v>3.2948771557309668</v>
+      </c>
+      <c r="H50">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="I50">
+        <v>2.9356801993024679</v>
+      </c>
+      <c r="J50">
+        <v>3.011112727751772</v>
+      </c>
+      <c r="K50">
+        <v>3.066666666666666</v>
+      </c>
+      <c r="L50">
+        <v>2.7444208341960881</v>
+      </c>
+      <c r="M50">
+        <v>2.5074545398999999</v>
+      </c>
+      <c r="N50">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="O50">
+        <v>2.5094283771350852</v>
+      </c>
+      <c r="P50">
+        <v>2.6386221163132242</v>
+      </c>
+      <c r="Q50">
+        <v>2.7333333333333329</v>
+      </c>
+      <c r="R50">
+        <v>1.777701004112356</v>
+      </c>
+      <c r="S50">
+        <v>1.078249923710711</v>
+      </c>
+      <c r="T50">
+        <v>0.56666666666666676</v>
+      </c>
+      <c r="U50">
+        <v>0.56666666666666676</v>
+      </c>
+      <c r="V50">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="W50">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="X50">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="Z50">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>109631.17965102459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="B51">
+        <v>3.9</v>
+      </c>
+      <c r="C51">
+        <v>2.8073215044801181</v>
+      </c>
+      <c r="D51">
+        <v>1.9984064335061209</v>
+      </c>
+      <c r="E51">
+        <v>1.4</v>
+      </c>
+      <c r="F51">
+        <v>1.1081033914135341</v>
+      </c>
+      <c r="G51">
+        <v>0.8924863755394139</v>
+      </c>
+      <c r="H51">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="I51">
+        <v>1.0549949120934721</v>
+      </c>
+      <c r="J51">
+        <v>1.2920685729341419</v>
+      </c>
+      <c r="K51">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="L51">
+        <v>1.539904355864526</v>
+      </c>
+      <c r="M51">
+        <v>1.593760331840909</v>
+      </c>
+      <c r="N51">
+        <v>1.633333333333334</v>
+      </c>
+      <c r="O51">
+        <v>1.6920316812672509</v>
+      </c>
+      <c r="P51">
+        <v>1.7350962609932969</v>
+      </c>
+      <c r="Q51">
+        <v>1.7666666666666671</v>
+      </c>
+      <c r="R51">
+        <v>1.163883197465742</v>
+      </c>
+      <c r="S51">
+        <v>0.72269097752008948</v>
+      </c>
+      <c r="T51">
+        <v>0.4</v>
+      </c>
+      <c r="U51">
+        <v>0.42514332904537289</v>
+      </c>
+      <c r="V51">
+        <v>0.44350374005431409</v>
+      </c>
+      <c r="W51">
+        <v>0.45690123397970361</v>
+      </c>
+      <c r="X51">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="Z51">
+        <v>17.2</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>109631.17965102459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>615.1</v>
+      </c>
+      <c r="B52">
+        <v>1.033333333333333</v>
+      </c>
+      <c r="C52">
+        <v>0.59626193512538062</v>
+      </c>
+      <c r="D52">
+        <v>0.27269590673578159</v>
+      </c>
+      <c r="E52">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F52">
+        <v>1.873850290401001E-2</v>
+      </c>
+      <c r="G52">
+        <v>7.9576521103040254E-3</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.17545177023280301</v>
+      </c>
+      <c r="J52">
+        <v>0.30476467614589547</v>
+      </c>
+      <c r="K52">
+        <v>0.4</v>
+      </c>
+      <c r="L52">
+        <v>0.6783032189518633</v>
+      </c>
+      <c r="M52">
+        <v>0.88295592766212139</v>
+      </c>
+      <c r="N52">
+        <v>1.033333333333333</v>
+      </c>
+      <c r="O52">
+        <v>1.018658746349854</v>
+      </c>
+      <c r="P52">
+        <v>1.007892601418342</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0.67655521164828458</v>
+      </c>
+      <c r="S52">
+        <v>0.43981792289695859</v>
+      </c>
+      <c r="T52">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="U52">
+        <v>0.3295249892800991</v>
+      </c>
+      <c r="V52">
+        <v>0.37542601680245202</v>
+      </c>
+      <c r="W52">
+        <v>0.40891975161592581</v>
+      </c>
+      <c r="X52">
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="Z52">
+        <v>17.3</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0.64488929206485057</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>109631.17965102459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>712.4</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0.24900814327271989</v>
+      </c>
+      <c r="M53">
+        <v>0.43211846159242462</v>
+      </c>
+      <c r="N53">
+        <v>0.56666666666666676</v>
+      </c>
+      <c r="O53">
+        <v>0.53731749269970808</v>
+      </c>
+      <c r="P53">
+        <v>0.51578520283668494</v>
+      </c>
+      <c r="Q53">
+        <v>0.5</v>
+      </c>
+      <c r="R53">
+        <v>0.36768167749247999</v>
+      </c>
+      <c r="S53">
+        <v>0.27083460482148303</v>
+      </c>
+      <c r="T53">
+        <v>0.2</v>
+      </c>
+      <c r="U53">
+        <v>0.25028665809074591</v>
+      </c>
+      <c r="V53">
+        <v>0.28700748010862831</v>
+      </c>
+      <c r="W53">
+        <v>0.31380246795940731</v>
+      </c>
+      <c r="X53">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z53">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>80009.602876123026</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>825</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>8.7885227037430527E-2</v>
+      </c>
+      <c r="M54">
+        <v>0.15251239820909099</v>
+      </c>
+      <c r="N54">
+        <v>0.2</v>
+      </c>
+      <c r="O54">
+        <v>0.18532541301652061</v>
+      </c>
+      <c r="P54">
+        <v>0.1745592680850091</v>
+      </c>
+      <c r="Q54">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="R54">
+        <v>0.15196463083249781</v>
+      </c>
+      <c r="S54">
+        <v>0.14120384498016481</v>
+      </c>
+      <c r="T54">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="U54">
+        <v>0.19619165594676569</v>
+      </c>
+      <c r="V54">
+        <v>0.24209268346911869</v>
+      </c>
+      <c r="W54">
+        <v>0.27558641828259239</v>
+      </c>
+      <c r="X54">
+        <v>0.3</v>
+      </c>
+      <c r="Z54">
+        <v>18.2</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>80009.602876123026</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>955.4</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>2.9295075679143519E-2</v>
+      </c>
+      <c r="M55">
+        <v>5.0837466069697003E-2</v>
+      </c>
+      <c r="N55">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O55">
+        <v>5.199207968318733E-2</v>
+      </c>
+      <c r="P55">
+        <v>4.1225934751675783E-2</v>
+      </c>
+      <c r="Q55">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="R55">
+        <v>7.7439440835839979E-2</v>
+      </c>
+      <c r="S55">
+        <v>0.10972179839283901</v>
+      </c>
+      <c r="T55">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="U55">
+        <v>0.17104832690139279</v>
+      </c>
+      <c r="V55">
+        <v>0.1985889434148046</v>
+      </c>
+      <c r="W55">
+        <v>0.2186851843028888</v>
+      </c>
+      <c r="X55">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="Z55">
+        <v>18.3</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0.47064472280072367</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>80009.602876123026</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1106</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>7.3510179170844403E-2</v>
+      </c>
+      <c r="S56">
+        <v>0.1273141084325094</v>
+      </c>
+      <c r="T56">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="U56">
+        <v>0.17923833118935309</v>
+      </c>
+      <c r="V56">
+        <v>0.18841853669382369</v>
+      </c>
+      <c r="W56">
+        <v>0.19511728365651851</v>
+      </c>
+      <c r="X56">
+        <v>0.2</v>
+      </c>
+      <c r="Z56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>58345.111552932103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1281</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>7.3510179170844403E-2</v>
+      </c>
+      <c r="S57">
+        <v>0.1273141084325094</v>
+      </c>
+      <c r="T57">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="U57">
+        <v>0.17923833118935309</v>
+      </c>
+      <c r="V57">
+        <v>0.18841853669382369</v>
+      </c>
+      <c r="W57">
+        <v>0.19511728365651851</v>
+      </c>
+      <c r="X57">
+        <v>0.2</v>
+      </c>
+      <c r="Z57">
+        <v>19.2</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>58345.111552932103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1484</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>8.8212215005013292E-2</v>
+      </c>
+      <c r="S58">
+        <v>0.15277693011901131</v>
+      </c>
+      <c r="T58">
+        <v>0.2</v>
+      </c>
+      <c r="U58">
+        <v>0.1874283354773135</v>
+      </c>
+      <c r="V58">
+        <v>0.17824812997284289</v>
+      </c>
+      <c r="W58">
+        <v>0.17154938301014819</v>
+      </c>
+      <c r="X58">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="Z58">
+        <v>19.3</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0.34320653854665945</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>58345.111552932103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1718</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>8.8212215005013292E-2</v>
+      </c>
+      <c r="S59">
+        <v>0.15277693011901131</v>
+      </c>
+      <c r="T59">
+        <v>0.2</v>
+      </c>
+      <c r="U59">
+        <v>0.2</v>
+      </c>
+      <c r="V59">
+        <v>0.2</v>
+      </c>
+      <c r="W59">
+        <v>0.2</v>
+      </c>
+      <c r="X59">
+        <v>0.2</v>
+      </c>
+      <c r="Z59">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>42512.76972449827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1990</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>8.8212215005013292E-2</v>
+      </c>
+      <c r="S60">
+        <v>0.15277693011901131</v>
+      </c>
+      <c r="T60">
+        <v>0.2</v>
+      </c>
+      <c r="U60">
+        <v>0.2</v>
+      </c>
+      <c r="V60">
+        <v>0.2</v>
+      </c>
+      <c r="W60">
+        <v>0.2</v>
+      </c>
+      <c r="X60">
+        <v>0.2</v>
+      </c>
+      <c r="Z60">
+        <v>20.2</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>42512.76972449827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2305</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>8.8212215005013292E-2</v>
+      </c>
+      <c r="S61">
+        <v>0.15277693011901131</v>
+      </c>
+      <c r="T61">
+        <v>0.2</v>
+      </c>
+      <c r="U61">
+        <v>0.2</v>
+      </c>
+      <c r="V61">
+        <v>0.2</v>
+      </c>
+      <c r="W61">
+        <v>0.2</v>
+      </c>
+      <c r="X61">
+        <v>0.2</v>
+      </c>
+      <c r="Z61">
+        <v>20.3</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0.25007511602646043</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>42512.76972449827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2669</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>7.3510179170844403E-2</v>
+      </c>
+      <c r="S62">
+        <v>0.1273141084325094</v>
+      </c>
+      <c r="T62">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="U62">
+        <v>0.1792383311893532</v>
+      </c>
+      <c r="V62">
+        <v>0.1884185366938238</v>
+      </c>
+      <c r="W62">
+        <v>0.19511728365651851</v>
+      </c>
+      <c r="X62">
+        <v>0.2</v>
+      </c>
+      <c r="Z62">
+        <v>21.1</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>30951.743137548383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3091</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>7.3510179170844403E-2</v>
+      </c>
+      <c r="S63">
+        <v>0.1273141084325094</v>
+      </c>
+      <c r="T63">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="U63">
+        <v>0.1918099957120396</v>
+      </c>
+      <c r="V63">
+        <v>0.21017040672098081</v>
+      </c>
+      <c r="W63">
+        <v>0.2235679006463703</v>
+      </c>
+      <c r="X63">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="Z63">
+        <v>21.2</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>30951.743137548383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3580</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>7.3510179170844403E-2</v>
+      </c>
+      <c r="S64">
+        <v>0.1273141084325094</v>
+      </c>
+      <c r="T64">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="U64">
+        <v>0.20438166023472609</v>
+      </c>
+      <c r="V64">
+        <v>0.2319222767481379</v>
+      </c>
+      <c r="W64">
+        <v>0.25201851763622207</v>
+      </c>
+      <c r="X64">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="Z64">
+        <v>21.3</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>0.18206907727969637</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>30951.743137548383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4145</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>5.8808143336675528E-2</v>
+      </c>
+      <c r="S65">
+        <v>0.1018512867460075</v>
+      </c>
+      <c r="T65">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="U65">
+        <v>0.19619165594676569</v>
+      </c>
+      <c r="V65">
+        <v>0.24209268346911869</v>
+      </c>
+      <c r="W65">
+        <v>0.27558641828259239</v>
+      </c>
+      <c r="X65">
+        <v>0.3</v>
+      </c>
+      <c r="Z65">
+        <v>22.1</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>22516.444719384512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>4801</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>4.4106107502506653E-2</v>
+      </c>
+      <c r="S66">
+        <v>7.6388465059505639E-2</v>
+      </c>
+      <c r="T66">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="U66">
+        <v>0.16285832261343239</v>
+      </c>
+      <c r="V66">
+        <v>0.20875935013578539</v>
+      </c>
+      <c r="W66">
+        <v>0.2422530849492591</v>
+      </c>
+      <c r="X66">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="Z66">
+        <v>22.2</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>22516.444719384512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5560</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>4.4106107502506653E-2</v>
+      </c>
+      <c r="S67">
+        <v>7.6388465059505639E-2</v>
+      </c>
+      <c r="T67">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="U67">
+        <v>0.16285832261343239</v>
+      </c>
+      <c r="V67">
+        <v>0.20875935013578539</v>
+      </c>
+      <c r="W67">
+        <v>0.2422530849492591</v>
+      </c>
+      <c r="X67">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="Z67">
+        <v>22.3</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0.13244967481990888</v>
+      </c>
+      <c r="AB67" s="3">
+        <v>22516.444719384512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>6439</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>23.1</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>16366.722100939898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>7456</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>23.2</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>16366.722100939898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>8635</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>23.3</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>9.6274835887881757E-2</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>16366.722100939898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>24.1</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R73"/>
@@ -20043,8 +28381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8369BE0-C5E0-014C-BBD9-3FC0E79B5E41}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22417,8 +30755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4796FC-8821-5742-A8E5-1BFB3D1E0657}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23234,5 +31572,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Experimental_data_Ed_Josh.xlsx
+++ b/data/Experimental_data_Ed_Josh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Python Files/HCMV_Dose_Infection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EB98F5-B1B4-EB4E-AA97-6FABBC81D46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EACEF-C37D-7B4E-B189-FB392833AD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_10_05 TB_GFP_epithelial" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="210">
   <si>
     <t>Cells</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t>stock/well</t>
-  </si>
-  <si>
-    <t>Genomes/well.1</t>
   </si>
   <si>
     <t>g_GFP=0.10406061188380772</t>
@@ -3710,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE92A1AC-35E5-614F-A674-F1A8575ADCFB}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3780,10 +3777,10 @@
         <v>135</v>
       </c>
       <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
         <v>171</v>
-      </c>
-      <c r="K2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3815,10 +3812,10 @@
         <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3850,10 +3847,10 @@
         <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3885,7 +3882,7 @@
         <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3917,7 +3914,7 @@
         <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3949,7 +3946,7 @@
         <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3981,7 +3978,7 @@
         <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4013,7 +4010,7 @@
         <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -4045,7 +4042,7 @@
         <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -4077,7 +4074,7 @@
         <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -4109,7 +4106,7 @@
         <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -4141,7 +4138,7 @@
         <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4173,7 +4170,7 @@
         <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -4205,7 +4202,7 @@
         <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4237,7 +4234,7 @@
         <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -4269,7 +4266,7 @@
         <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -4301,7 +4298,7 @@
         <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -4333,7 +4330,7 @@
         <v>135</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -4365,7 +4362,7 @@
         <v>135</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -4397,7 +4394,7 @@
         <v>135</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -4429,7 +4426,7 @@
         <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -4461,7 +4458,7 @@
         <v>135</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -4493,7 +4490,7 @@
         <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -4525,7 +4522,7 @@
         <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -4557,7 +4554,7 @@
         <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -4589,7 +4586,7 @@
         <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -4621,7 +4618,7 @@
         <v>135</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -4653,7 +4650,7 @@
         <v>135</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -4685,7 +4682,7 @@
         <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -4717,7 +4714,7 @@
         <v>135</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -4749,7 +4746,7 @@
         <v>135</v>
       </c>
       <c r="J32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -4781,7 +4778,7 @@
         <v>135</v>
       </c>
       <c r="J33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4813,7 +4810,7 @@
         <v>135</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4845,7 +4842,7 @@
         <v>135</v>
       </c>
       <c r="J35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -4877,7 +4874,7 @@
         <v>135</v>
       </c>
       <c r="J36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -4909,7 +4906,7 @@
         <v>135</v>
       </c>
       <c r="J37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -4941,7 +4938,7 @@
         <v>135</v>
       </c>
       <c r="J38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4973,7 +4970,7 @@
         <v>135</v>
       </c>
       <c r="J39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -5005,7 +5002,7 @@
         <v>135</v>
       </c>
       <c r="J40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -5037,7 +5034,7 @@
         <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -5069,7 +5066,7 @@
         <v>135</v>
       </c>
       <c r="J42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -5101,7 +5098,7 @@
         <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -5133,7 +5130,7 @@
         <v>135</v>
       </c>
       <c r="J44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -5165,7 +5162,7 @@
         <v>135</v>
       </c>
       <c r="J45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5197,7 +5194,7 @@
         <v>135</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5229,7 +5226,7 @@
         <v>135</v>
       </c>
       <c r="J47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5261,7 +5258,7 @@
         <v>135</v>
       </c>
       <c r="J48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -5293,7 +5290,7 @@
         <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -5325,7 +5322,7 @@
         <v>135</v>
       </c>
       <c r="J50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -5357,7 +5354,7 @@
         <v>135</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -5389,7 +5386,7 @@
         <v>135</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5421,7 +5418,7 @@
         <v>135</v>
       </c>
       <c r="J53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -5453,7 +5450,7 @@
         <v>135</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -5485,7 +5482,7 @@
         <v>135</v>
       </c>
       <c r="J55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -5517,7 +5514,7 @@
         <v>135</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -5549,7 +5546,7 @@
         <v>135</v>
       </c>
       <c r="J57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -5581,7 +5578,7 @@
         <v>135</v>
       </c>
       <c r="J58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -5613,7 +5610,7 @@
         <v>135</v>
       </c>
       <c r="J59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -5645,7 +5642,7 @@
         <v>135</v>
       </c>
       <c r="J60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -5677,7 +5674,7 @@
         <v>135</v>
       </c>
       <c r="J61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -5709,7 +5706,7 @@
         <v>135</v>
       </c>
       <c r="J62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -5741,7 +5738,7 @@
         <v>135</v>
       </c>
       <c r="J63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -5773,7 +5770,7 @@
         <v>135</v>
       </c>
       <c r="J64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -5805,7 +5802,7 @@
         <v>135</v>
       </c>
       <c r="J65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -5837,7 +5834,7 @@
         <v>135</v>
       </c>
       <c r="J66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -5869,7 +5866,7 @@
         <v>135</v>
       </c>
       <c r="J67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -5901,7 +5898,7 @@
         <v>135</v>
       </c>
       <c r="J68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -5933,7 +5930,7 @@
         <v>135</v>
       </c>
       <c r="J69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -5965,7 +5962,7 @@
         <v>135</v>
       </c>
       <c r="J70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -5997,7 +5994,7 @@
         <v>135</v>
       </c>
       <c r="J71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -6029,7 +6026,7 @@
         <v>135</v>
       </c>
       <c r="J72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -6061,7 +6058,7 @@
         <v>135</v>
       </c>
       <c r="J73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6099,55 +6096,55 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>188</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>189</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>190</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>191</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>192</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>193</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>195</v>
       </c>
       <c r="S1" t="s">
         <v>126</v>
@@ -10535,76 +10532,76 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="X1" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z1" t="s">
         <v>126</v>
@@ -21220,7 +21217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -23813,13 +23812,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -23839,19 +23845,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -23874,19 +23877,16 @@
         <v>9100000</v>
       </c>
       <c r="H2">
-        <v>9100000</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>70</v>
-      </c>
-      <c r="J2">
         <v>0.48886923076923078</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -23909,19 +23909,16 @@
         <v>8400000</v>
       </c>
       <c r="H3">
-        <v>8400000</v>
+        <v>64.615384615384613</v>
       </c>
       <c r="I3">
-        <v>64.615384615384613</v>
-      </c>
-      <c r="J3">
         <v>0.45836153846153849</v>
       </c>
-      <c r="K3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -23934,20 +23931,20 @@
       <c r="D4">
         <v>71333.450869769629</v>
       </c>
+      <c r="G4">
+        <v>8400000</v>
+      </c>
       <c r="H4">
-        <v>8400000</v>
+        <v>64.615384615384613</v>
       </c>
       <c r="I4">
-        <v>64.615384615384613</v>
-      </c>
-      <c r="J4">
         <v>0.5487153846153846</v>
       </c>
-      <c r="K4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -23960,20 +23957,20 @@
       <c r="D5">
         <v>68962.585034013609</v>
       </c>
+      <c r="G5">
+        <v>8400000</v>
+      </c>
       <c r="H5">
-        <v>8400000</v>
+        <v>64.615384615384613</v>
       </c>
       <c r="I5">
-        <v>64.615384615384613</v>
-      </c>
-      <c r="J5">
         <v>0.53048461538461533</v>
       </c>
-      <c r="K5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -23996,19 +23993,16 @@
         <v>7700000</v>
       </c>
       <c r="H6">
-        <v>7700000</v>
+        <v>59.230769230769234</v>
       </c>
       <c r="I6">
-        <v>59.230769230769234</v>
-      </c>
-      <c r="J6">
         <v>0.50013846153846153</v>
       </c>
-      <c r="K6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -24021,20 +24015,20 @@
       <c r="D7">
         <v>60917.338709677417</v>
       </c>
+      <c r="G7">
+        <v>7700000</v>
+      </c>
       <c r="H7">
-        <v>7700000</v>
+        <v>59.230769230769234</v>
       </c>
       <c r="I7">
-        <v>59.230769230769234</v>
-      </c>
-      <c r="J7">
         <v>0.4685923076923077</v>
       </c>
-      <c r="K7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -24047,20 +24041,20 @@
       <c r="D8">
         <v>64598.060920680968</v>
       </c>
+      <c r="G8">
+        <v>7700000</v>
+      </c>
       <c r="H8">
-        <v>7700000</v>
+        <v>59.230769230769234</v>
       </c>
       <c r="I8">
-        <v>59.230769230769234</v>
-      </c>
-      <c r="J8">
         <v>0.49690769230769227</v>
       </c>
-      <c r="K8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -24083,19 +24077,16 @@
         <v>7000000</v>
       </c>
       <c r="H9">
-        <v>7000000</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="I9">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="J9">
         <v>0.46333846153846148</v>
       </c>
-      <c r="K9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -24108,20 +24099,20 @@
       <c r="D10">
         <v>64555.103418530947</v>
       </c>
+      <c r="G10">
+        <v>7000000</v>
+      </c>
       <c r="H10">
-        <v>7000000</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="I10">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="J10">
         <v>0.49657692307692308</v>
       </c>
-      <c r="K10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -24134,17 +24125,17 @@
       <c r="D11">
         <v>60552.12650527402</v>
       </c>
+      <c r="G11">
+        <v>7000000</v>
+      </c>
       <c r="H11">
-        <v>7000000</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="I11">
-        <v>53.846153846153847</v>
-      </c>
-      <c r="J11">
         <v>0.46578461538461541</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -24167,16 +24158,13 @@
         <v>6300000</v>
       </c>
       <c r="H12">
-        <v>6300000</v>
+        <v>48.46153846153846</v>
       </c>
       <c r="I12">
-        <v>48.46153846153846</v>
-      </c>
-      <c r="J12">
         <v>0.47583076923076922</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -24189,17 +24177,17 @@
       <c r="D13">
         <v>57988.33250851067</v>
       </c>
+      <c r="G13">
+        <v>6300000</v>
+      </c>
       <c r="H13">
-        <v>6300000</v>
+        <v>48.46153846153846</v>
       </c>
       <c r="I13">
-        <v>48.46153846153846</v>
-      </c>
-      <c r="J13">
         <v>0.44606153846153851</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -24212,17 +24200,17 @@
       <c r="D14">
         <v>60248.88093106536</v>
       </c>
+      <c r="G14">
+        <v>6300000</v>
+      </c>
       <c r="H14">
-        <v>6300000</v>
+        <v>48.46153846153846</v>
       </c>
       <c r="I14">
-        <v>48.46153846153846</v>
-      </c>
-      <c r="J14">
         <v>0.46345384615384622</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -24245,16 +24233,13 @@
         <v>5600000</v>
       </c>
       <c r="H15">
-        <v>5600000</v>
+        <v>43.07692307692308</v>
       </c>
       <c r="I15">
-        <v>43.07692307692308</v>
-      </c>
-      <c r="J15">
         <v>0.46279999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -24267,17 +24252,17 @@
       <c r="D16">
         <v>54720.006787714243</v>
       </c>
+      <c r="G16">
+        <v>5600000</v>
+      </c>
       <c r="H16">
-        <v>5600000</v>
+        <v>43.07692307692308</v>
       </c>
       <c r="I16">
-        <v>43.07692307692308</v>
-      </c>
-      <c r="J16">
         <v>0.4209230769230769</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -24290,17 +24275,17 @@
       <c r="D17">
         <v>59607.549795598847</v>
       </c>
+      <c r="G17">
+        <v>5600000</v>
+      </c>
       <c r="H17">
-        <v>5600000</v>
+        <v>43.07692307692308</v>
       </c>
       <c r="I17">
-        <v>43.07692307692308</v>
-      </c>
-      <c r="J17">
         <v>0.45852307692307692</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -24323,16 +24308,13 @@
         <v>4900000.0000000009</v>
       </c>
       <c r="H18">
-        <v>4900000.0000000009</v>
+        <v>37.692307692307701</v>
       </c>
       <c r="I18">
-        <v>37.692307692307701</v>
-      </c>
-      <c r="J18">
         <v>0.41623076923076918</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -24345,17 +24327,17 @@
       <c r="D19">
         <v>58796.376186367561</v>
       </c>
+      <c r="G19">
+        <v>4900000.0000000009</v>
+      </c>
       <c r="H19">
-        <v>4900000.0000000009</v>
+        <v>37.692307692307701</v>
       </c>
       <c r="I19">
-        <v>37.692307692307701</v>
-      </c>
-      <c r="J19">
         <v>0.45227692307692308</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -24368,17 +24350,17 @@
       <c r="D20">
         <v>59739.462454143897</v>
       </c>
+      <c r="G20">
+        <v>4900000.0000000009</v>
+      </c>
       <c r="H20">
-        <v>4900000.0000000009</v>
+        <v>37.692307692307701</v>
       </c>
       <c r="I20">
-        <v>37.692307692307701</v>
-      </c>
-      <c r="J20">
         <v>0.45953076923076919</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -24401,16 +24383,13 @@
         <v>4200000</v>
       </c>
       <c r="H21">
-        <v>4200000</v>
+        <v>32.307692307692307</v>
       </c>
       <c r="I21">
-        <v>32.307692307692307</v>
-      </c>
-      <c r="J21">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -24423,17 +24402,17 @@
       <c r="D22">
         <v>53936.444885799407</v>
       </c>
+      <c r="G22">
+        <v>4200000</v>
+      </c>
       <c r="H22">
-        <v>4200000</v>
+        <v>32.307692307692307</v>
       </c>
       <c r="I22">
-        <v>32.307692307692307</v>
-      </c>
-      <c r="J22">
         <v>0.41489230769230773</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -24456,16 +24435,13 @@
         <v>3500000</v>
       </c>
       <c r="H23">
-        <v>3500000</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="I23">
-        <v>26.92307692307692</v>
-      </c>
-      <c r="J23">
         <v>0.39165384615384607</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -24478,17 +24454,17 @@
       <c r="D24">
         <v>48529.080878864683</v>
       </c>
+      <c r="G24">
+        <v>3500000</v>
+      </c>
       <c r="H24">
-        <v>3500000</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="I24">
-        <v>26.92307692307692</v>
-      </c>
-      <c r="J24">
         <v>0.37330000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -24501,17 +24477,17 @@
       <c r="D25">
         <v>49860.873964459621</v>
       </c>
+      <c r="G25">
+        <v>3500000</v>
+      </c>
       <c r="H25">
-        <v>3500000</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="I25">
-        <v>26.92307692307692</v>
-      </c>
-      <c r="J25">
         <v>0.38354615384615393</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -24534,16 +24510,13 @@
         <v>2800000</v>
       </c>
       <c r="H26">
-        <v>2800000</v>
+        <v>21.53846153846154</v>
       </c>
       <c r="I26">
-        <v>21.53846153846154</v>
-      </c>
-      <c r="J26">
         <v>0.4142769230769231</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -24556,17 +24529,17 @@
       <c r="D27">
         <v>52393.482387681928</v>
       </c>
+      <c r="G27">
+        <v>2800000</v>
+      </c>
       <c r="H27">
-        <v>2800000</v>
+        <v>21.53846153846154</v>
       </c>
       <c r="I27">
-        <v>21.53846153846154</v>
-      </c>
-      <c r="J27">
         <v>0.40302307692307687</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -24579,17 +24552,17 @@
       <c r="D28">
         <v>48620.222098683407</v>
       </c>
+      <c r="G28">
+        <v>2800000</v>
+      </c>
       <c r="H28">
-        <v>2800000</v>
+        <v>21.53846153846154</v>
       </c>
       <c r="I28">
-        <v>21.53846153846154</v>
-      </c>
-      <c r="J28">
         <v>0.374</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -24612,16 +24585,13 @@
         <v>2100000</v>
       </c>
       <c r="H29">
-        <v>2100000</v>
+        <v>16.15384615384615</v>
       </c>
       <c r="I29">
-        <v>16.15384615384615</v>
-      </c>
-      <c r="J29">
         <v>0.34913076923076919</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -24634,17 +24604,17 @@
       <c r="D30">
         <v>52195.917882995127</v>
       </c>
+      <c r="G30">
+        <v>2100000</v>
+      </c>
       <c r="H30">
-        <v>2100000</v>
+        <v>16.15384615384615</v>
       </c>
       <c r="I30">
-        <v>16.15384615384615</v>
-      </c>
-      <c r="J30">
         <v>0.40150769230769229</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -24657,17 +24627,17 @@
       <c r="D31">
         <v>42163.203753351198</v>
       </c>
+      <c r="G31">
+        <v>2100000</v>
+      </c>
       <c r="H31">
-        <v>2100000</v>
+        <v>16.15384615384615</v>
       </c>
       <c r="I31">
-        <v>16.15384615384615</v>
-      </c>
-      <c r="J31">
         <v>0.32433076923076931</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -24690,16 +24660,13 @@
         <v>1400000</v>
       </c>
       <c r="H32">
-        <v>1400000</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="I32">
-        <v>10.76923076923077</v>
-      </c>
-      <c r="J32">
         <v>0.29420769230769228</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -24712,17 +24679,17 @@
       <c r="D33">
         <v>30738.498682668502</v>
       </c>
+      <c r="G33">
+        <v>1400000</v>
+      </c>
       <c r="H33">
-        <v>1400000</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="I33">
-        <v>10.76923076923077</v>
-      </c>
-      <c r="J33">
         <v>0.23644615384615381</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -24735,17 +24702,17 @@
       <c r="D34">
         <v>36323.569212832837</v>
       </c>
+      <c r="G34">
+        <v>1400000</v>
+      </c>
       <c r="H34">
-        <v>1400000</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="I34">
-        <v>10.76923076923077</v>
-      </c>
-      <c r="J34">
         <v>0.27941538461538462</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -24768,16 +24735,13 @@
         <v>700000</v>
       </c>
       <c r="H35">
-        <v>700000</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="I35">
-        <v>5.384615384615385</v>
-      </c>
-      <c r="J35">
         <v>0.1376</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -24790,17 +24754,17 @@
       <c r="D36">
         <v>20777.671178010231</v>
       </c>
+      <c r="G36">
+        <v>700000</v>
+      </c>
       <c r="H36">
-        <v>700000</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="I36">
-        <v>5.384615384615385</v>
-      </c>
-      <c r="J36">
         <v>0.15983076923076919</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -24813,17 +24777,17 @@
       <c r="D37">
         <v>21943.269108540509</v>
       </c>
+      <c r="G37">
+        <v>700000</v>
+      </c>
       <c r="H37">
-        <v>700000</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="I37">
-        <v>5.384615384615385</v>
-      </c>
-      <c r="J37">
         <v>0.16879230769230771</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -24842,17 +24806,17 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
         <v>6.9230769230769237E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -24865,17 +24829,17 @@
       <c r="D39">
         <v>7.5214796100402106</v>
       </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
         <v>6.1538461538461535E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -24888,13 +24852,13 @@
       <c r="D40">
         <v>16.33959544837526</v>
       </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
         <v>1.230769230769231E-4</v>
       </c>
     </row>
@@ -24942,19 +24906,19 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -25007,7 +24971,7 @@
         <v>9.8088162995155666E-3</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -25048,7 +25012,7 @@
         <v>9.3994746685879191E-3</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -25089,7 +25053,7 @@
         <v>9.5687527647784678E-3</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -25136,7 +25100,7 @@
         <v>7.4930344472318054E-3</v>
       </c>
       <c r="O5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -25177,7 +25141,7 @@
         <v>7.5899457861015266E-3</v>
       </c>
       <c r="O6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -25218,7 +25182,7 @@
         <v>7.7924930602515496E-3</v>
       </c>
       <c r="O7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -25265,7 +25229,7 @@
         <v>5.9020803320333701E-3</v>
       </c>
       <c r="O8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -25306,7 +25270,7 @@
         <v>5.0572283902533413E-3</v>
       </c>
       <c r="O9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -25347,7 +25311,7 @@
         <v>4.893160168126535E-3</v>
       </c>
       <c r="O10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -26188,10 +26152,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>148</v>
@@ -26209,7 +26173,7 @@
         <v>127</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>148</v>
@@ -26253,7 +26217,7 @@
         <v>250</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -28462,10 +28426,10 @@
         <v>135</v>
       </c>
       <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
         <v>171</v>
-      </c>
-      <c r="K2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -28497,10 +28461,10 @@
         <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -28532,10 +28496,10 @@
         <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -28567,7 +28531,7 @@
         <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -28599,7 +28563,7 @@
         <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -28631,7 +28595,7 @@
         <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -28663,7 +28627,7 @@
         <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -28695,7 +28659,7 @@
         <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -28727,7 +28691,7 @@
         <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -28759,7 +28723,7 @@
         <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -28791,7 +28755,7 @@
         <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -28823,7 +28787,7 @@
         <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -28855,7 +28819,7 @@
         <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -28887,7 +28851,7 @@
         <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -28919,7 +28883,7 @@
         <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -28951,7 +28915,7 @@
         <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -28983,7 +28947,7 @@
         <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -29015,7 +28979,7 @@
         <v>135</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -29047,7 +29011,7 @@
         <v>135</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -29079,7 +29043,7 @@
         <v>135</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -29111,7 +29075,7 @@
         <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -29143,7 +29107,7 @@
         <v>135</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -29175,7 +29139,7 @@
         <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -29207,7 +29171,7 @@
         <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -29239,7 +29203,7 @@
         <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -29271,7 +29235,7 @@
         <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -29303,7 +29267,7 @@
         <v>135</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -29335,7 +29299,7 @@
         <v>135</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -29367,7 +29331,7 @@
         <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -29399,7 +29363,7 @@
         <v>135</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -29431,7 +29395,7 @@
         <v>135</v>
       </c>
       <c r="J32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -29463,7 +29427,7 @@
         <v>135</v>
       </c>
       <c r="J33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -29495,7 +29459,7 @@
         <v>135</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -29527,7 +29491,7 @@
         <v>135</v>
       </c>
       <c r="J35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -29559,7 +29523,7 @@
         <v>135</v>
       </c>
       <c r="J36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -29591,7 +29555,7 @@
         <v>135</v>
       </c>
       <c r="J37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -29623,7 +29587,7 @@
         <v>135</v>
       </c>
       <c r="J38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -29655,7 +29619,7 @@
         <v>135</v>
       </c>
       <c r="J39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -29687,7 +29651,7 @@
         <v>135</v>
       </c>
       <c r="J40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -29719,7 +29683,7 @@
         <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -29751,7 +29715,7 @@
         <v>135</v>
       </c>
       <c r="J42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -29783,7 +29747,7 @@
         <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -29815,7 +29779,7 @@
         <v>135</v>
       </c>
       <c r="J44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -29847,7 +29811,7 @@
         <v>135</v>
       </c>
       <c r="J45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -29879,7 +29843,7 @@
         <v>135</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -29911,7 +29875,7 @@
         <v>135</v>
       </c>
       <c r="J47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -29943,7 +29907,7 @@
         <v>135</v>
       </c>
       <c r="J48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -29975,7 +29939,7 @@
         <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -30007,7 +29971,7 @@
         <v>135</v>
       </c>
       <c r="J50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -30039,7 +30003,7 @@
         <v>135</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -30071,7 +30035,7 @@
         <v>135</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -30103,7 +30067,7 @@
         <v>135</v>
       </c>
       <c r="J53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -30135,7 +30099,7 @@
         <v>135</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -30167,7 +30131,7 @@
         <v>135</v>
       </c>
       <c r="J55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -30199,7 +30163,7 @@
         <v>135</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -30231,7 +30195,7 @@
         <v>135</v>
       </c>
       <c r="J57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -30263,7 +30227,7 @@
         <v>135</v>
       </c>
       <c r="J58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -30295,7 +30259,7 @@
         <v>135</v>
       </c>
       <c r="J59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -30327,7 +30291,7 @@
         <v>135</v>
       </c>
       <c r="J60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -30359,7 +30323,7 @@
         <v>135</v>
       </c>
       <c r="J61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -30391,7 +30355,7 @@
         <v>135</v>
       </c>
       <c r="J62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -30423,7 +30387,7 @@
         <v>135</v>
       </c>
       <c r="J63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -30455,7 +30419,7 @@
         <v>135</v>
       </c>
       <c r="J64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -30487,7 +30451,7 @@
         <v>135</v>
       </c>
       <c r="J65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -30519,7 +30483,7 @@
         <v>135</v>
       </c>
       <c r="J66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -30551,7 +30515,7 @@
         <v>135</v>
       </c>
       <c r="J67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -30583,7 +30547,7 @@
         <v>135</v>
       </c>
       <c r="J68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -30615,7 +30579,7 @@
         <v>135</v>
       </c>
       <c r="J69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -30647,7 +30611,7 @@
         <v>135</v>
       </c>
       <c r="J70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -30679,7 +30643,7 @@
         <v>135</v>
       </c>
       <c r="J71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -30711,7 +30675,7 @@
         <v>135</v>
       </c>
       <c r="J72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -30743,7 +30707,7 @@
         <v>135</v>
       </c>
       <c r="J73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -30828,10 +30792,10 @@
         <v>135</v>
       </c>
       <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -30863,7 +30827,7 @@
         <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -30895,7 +30859,7 @@
         <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -30927,7 +30891,7 @@
         <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -30959,7 +30923,7 @@
         <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -30991,7 +30955,7 @@
         <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -31023,7 +30987,7 @@
         <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -31055,7 +31019,7 @@
         <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -31087,7 +31051,7 @@
         <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -31119,7 +31083,7 @@
         <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -31151,7 +31115,7 @@
         <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -31183,7 +31147,7 @@
         <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -31215,7 +31179,7 @@
         <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -31247,7 +31211,7 @@
         <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -31279,7 +31243,7 @@
         <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -31311,7 +31275,7 @@
         <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -31343,7 +31307,7 @@
         <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -31375,7 +31339,7 @@
         <v>135</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -31407,7 +31371,7 @@
         <v>135</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -31439,7 +31403,7 @@
         <v>135</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -31471,7 +31435,7 @@
         <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -31503,7 +31467,7 @@
         <v>135</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -31535,7 +31499,7 @@
         <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -31567,7 +31531,7 @@
         <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
